--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="382">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1521,7 +1521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP270"/>
+  <dimension ref="A1:BP271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5363,7 +5363,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ19">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -6596,7 +6596,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ25">
         <v>0.8</v>
@@ -8038,7 +8038,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ32">
         <v>1.53</v>
@@ -9895,7 +9895,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ41">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR41">
         <v>2.18</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ46">
         <v>0.27</v>
@@ -12573,7 +12573,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ54">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR54">
         <v>1.7</v>
@@ -13806,7 +13806,7 @@
         <v>1.75</v>
       </c>
       <c r="AP60">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ60">
         <v>1.73</v>
@@ -14221,7 +14221,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ62">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR62">
         <v>1.74</v>
@@ -17929,7 +17929,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ80">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR80">
         <v>1.31</v>
@@ -18544,7 +18544,7 @@
         <v>0.4</v>
       </c>
       <c r="AP83">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ83">
         <v>0.67</v>
@@ -22046,7 +22046,7 @@
         <v>1.6</v>
       </c>
       <c r="AP100">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ100">
         <v>1.13</v>
@@ -22667,7 +22667,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ103">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR103">
         <v>1.8</v>
@@ -25345,7 +25345,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ116">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR116">
         <v>1.61</v>
@@ -25754,7 +25754,7 @@
         <v>1.67</v>
       </c>
       <c r="AP118">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ118">
         <v>1.67</v>
@@ -30286,7 +30286,7 @@
         <v>1</v>
       </c>
       <c r="AP140">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ140">
         <v>1.4</v>
@@ -30495,7 +30495,7 @@
         <v>0.87</v>
       </c>
       <c r="AQ141">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR141">
         <v>1.51</v>
@@ -33379,7 +33379,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ155">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR155">
         <v>1.61</v>
@@ -34200,7 +34200,7 @@
         <v>0.78</v>
       </c>
       <c r="AP159">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ159">
         <v>1</v>
@@ -34818,7 +34818,7 @@
         <v>1.33</v>
       </c>
       <c r="AP162">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ162">
         <v>1.53</v>
@@ -35645,7 +35645,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ166">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR166">
         <v>1.74</v>
@@ -39971,7 +39971,7 @@
         <v>2</v>
       </c>
       <c r="AQ187">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR187">
         <v>1.49</v>
@@ -41204,7 +41204,7 @@
         <v>1</v>
       </c>
       <c r="AP193">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ193">
         <v>1.2</v>
@@ -43473,7 +43473,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ204">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR204">
         <v>1.79</v>
@@ -44706,7 +44706,7 @@
         <v>0.9</v>
       </c>
       <c r="AP210">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ210">
         <v>1.13</v>
@@ -49032,7 +49032,7 @@
         <v>1.42</v>
       </c>
       <c r="AP231">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ231">
         <v>1.2</v>
@@ -49447,7 +49447,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ233">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR233">
         <v>1.68</v>
@@ -51919,7 +51919,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ245">
-        <v>0.57</v>
+        <v>0.6</v>
       </c>
       <c r="AR245">
         <v>1.17</v>
@@ -52534,7 +52534,7 @@
         <v>1.38</v>
       </c>
       <c r="AP248">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AQ248">
         <v>1.4</v>
@@ -56669,22 +56669,22 @@
         <v>3.13</v>
       </c>
       <c r="AU268">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV268">
+        <v>8</v>
+      </c>
+      <c r="AW268">
         <v>4</v>
       </c>
-      <c r="AW268">
-        <v>3</v>
-      </c>
       <c r="AX268">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY268">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ268">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA268">
         <v>6</v>
@@ -57145,6 +57145,212 @@
       </c>
       <c r="BP270">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:68">
+      <c r="A271" s="1">
+        <v>270</v>
+      </c>
+      <c r="B271">
+        <v>6469327</v>
+      </c>
+      <c r="C271" t="s">
+        <v>68</v>
+      </c>
+      <c r="D271" t="s">
+        <v>69</v>
+      </c>
+      <c r="E271" s="2">
+        <v>45411.58333333334</v>
+      </c>
+      <c r="F271">
+        <v>30</v>
+      </c>
+      <c r="G271" t="s">
+        <v>86</v>
+      </c>
+      <c r="H271" t="s">
+        <v>78</v>
+      </c>
+      <c r="I271">
+        <v>1</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+      <c r="K271">
+        <v>1</v>
+      </c>
+      <c r="L271">
+        <v>1</v>
+      </c>
+      <c r="M271">
+        <v>1</v>
+      </c>
+      <c r="N271">
+        <v>2</v>
+      </c>
+      <c r="O271" t="s">
+        <v>124</v>
+      </c>
+      <c r="P271" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q271">
+        <v>3.55</v>
+      </c>
+      <c r="R271">
+        <v>1.99</v>
+      </c>
+      <c r="S271">
+        <v>3.2</v>
+      </c>
+      <c r="T271">
+        <v>1.48</v>
+      </c>
+      <c r="U271">
+        <v>2.5</v>
+      </c>
+      <c r="V271">
+        <v>3.1</v>
+      </c>
+      <c r="W271">
+        <v>1.33</v>
+      </c>
+      <c r="X271">
+        <v>7.5</v>
+      </c>
+      <c r="Y271">
+        <v>1.06</v>
+      </c>
+      <c r="Z271">
+        <v>1.33</v>
+      </c>
+      <c r="AA271">
+        <v>4.76</v>
+      </c>
+      <c r="AB271">
+        <v>6.61</v>
+      </c>
+      <c r="AC271">
+        <v>1.06</v>
+      </c>
+      <c r="AD271">
+        <v>8</v>
+      </c>
+      <c r="AE271">
+        <v>1.38</v>
+      </c>
+      <c r="AF271">
+        <v>2.9</v>
+      </c>
+      <c r="AG271">
+        <v>2.12</v>
+      </c>
+      <c r="AH271">
+        <v>1.69</v>
+      </c>
+      <c r="AI271">
+        <v>1.85</v>
+      </c>
+      <c r="AJ271">
+        <v>1.85</v>
+      </c>
+      <c r="AK271">
+        <v>1.53</v>
+      </c>
+      <c r="AL271">
+        <v>1.28</v>
+      </c>
+      <c r="AM271">
+        <v>1.38</v>
+      </c>
+      <c r="AN271">
+        <v>1.57</v>
+      </c>
+      <c r="AO271">
+        <v>0.57</v>
+      </c>
+      <c r="AP271">
+        <v>1.53</v>
+      </c>
+      <c r="AQ271">
+        <v>0.6</v>
+      </c>
+      <c r="AR271">
+        <v>1.3</v>
+      </c>
+      <c r="AS271">
+        <v>1.33</v>
+      </c>
+      <c r="AT271">
+        <v>2.63</v>
+      </c>
+      <c r="AU271">
+        <v>0</v>
+      </c>
+      <c r="AV271">
+        <v>3</v>
+      </c>
+      <c r="AW271">
+        <v>6</v>
+      </c>
+      <c r="AX271">
+        <v>2</v>
+      </c>
+      <c r="AY271">
+        <v>6</v>
+      </c>
+      <c r="AZ271">
+        <v>5</v>
+      </c>
+      <c r="BA271">
+        <v>7</v>
+      </c>
+      <c r="BB271">
+        <v>7</v>
+      </c>
+      <c r="BC271">
+        <v>14</v>
+      </c>
+      <c r="BD271">
+        <v>2.33</v>
+      </c>
+      <c r="BE271">
+        <v>8</v>
+      </c>
+      <c r="BF271">
+        <v>1.82</v>
+      </c>
+      <c r="BG271">
+        <v>1.22</v>
+      </c>
+      <c r="BH271">
+        <v>3.55</v>
+      </c>
+      <c r="BI271">
+        <v>1.42</v>
+      </c>
+      <c r="BJ271">
+        <v>2.5</v>
+      </c>
+      <c r="BK271">
+        <v>1.73</v>
+      </c>
+      <c r="BL271">
+        <v>2</v>
+      </c>
+      <c r="BM271">
+        <v>2.2</v>
+      </c>
+      <c r="BN271">
+        <v>1.55</v>
+      </c>
+      <c r="BO271">
+        <v>2.95</v>
+      </c>
+      <c r="BP271">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -57287,22 +57287,22 @@
         <v>2.63</v>
       </c>
       <c r="AU271">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV271">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW271">
+        <v>7</v>
+      </c>
+      <c r="AX271">
         <v>6</v>
       </c>
-      <c r="AX271">
-        <v>2</v>
-      </c>
       <c r="AY271">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ271">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BA271">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="388">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -826,6 +826,21 @@
     <t>['39']</t>
   </si>
   <si>
+    <t>['4', '42', '53', '68', '84']</t>
+  </si>
+  <si>
+    <t>['24', '84']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['41', '87']</t>
+  </si>
+  <si>
+    <t>['35', '48', '54']</t>
+  </si>
+  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -1093,9 +1108,6 @@
     <t>['5', '57', '75']</t>
   </si>
   <si>
-    <t>['53']</t>
-  </si>
-  <si>
     <t>['37']</t>
   </si>
   <si>
@@ -1160,6 +1172,12 @@
   </si>
   <si>
     <t>['21', '76', '90+4']</t>
+  </si>
+  <si>
+    <t>['71', '76']</t>
+  </si>
+  <si>
+    <t>['12', '75']</t>
   </si>
 </sst>
 </file>
@@ -1521,7 +1539,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP271"/>
+  <dimension ref="A1:BP276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1780,7 +1798,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q2">
         <v>4.33</v>
@@ -2192,7 +2210,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2270,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ4">
         <v>1.13</v>
@@ -2479,7 +2497,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ5">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2604,7 +2622,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2685,7 +2703,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ6">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2810,7 +2828,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -3094,7 +3112,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ8">
         <v>0.67</v>
@@ -3222,7 +3240,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3428,7 +3446,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q10">
         <v>3.2</v>
@@ -3509,7 +3527,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ10">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3712,7 +3730,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
         <v>0.27</v>
@@ -3921,7 +3939,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ12">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR12">
         <v>0.95</v>
@@ -4046,7 +4064,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q13">
         <v>2.53</v>
@@ -4252,7 +4270,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4536,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ15">
         <v>0.93</v>
@@ -5076,7 +5094,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5360,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ19">
         <v>0.6</v>
@@ -5488,7 +5506,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q20">
         <v>1.82</v>
@@ -6106,7 +6124,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6184,10 +6202,10 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ23">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR23">
         <v>1.73</v>
@@ -6802,7 +6820,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ26">
         <v>1.2</v>
@@ -6930,7 +6948,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q27">
         <v>4.2</v>
@@ -7011,7 +7029,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ27">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR27">
         <v>1.8</v>
@@ -7214,10 +7232,10 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ28">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR28">
         <v>1.13</v>
@@ -7342,7 +7360,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q29">
         <v>2.95</v>
@@ -7423,7 +7441,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ29">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR29">
         <v>1.57</v>
@@ -7754,7 +7772,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q31">
         <v>2.3</v>
@@ -7960,7 +7978,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -8166,7 +8184,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q33">
         <v>2.6</v>
@@ -8450,7 +8468,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ34">
         <v>0.67</v>
@@ -8578,7 +8596,7 @@
         <v>99</v>
       </c>
       <c r="P35" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8784,7 +8802,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -9274,10 +9292,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR38">
         <v>1.69</v>
@@ -9480,7 +9498,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ39">
         <v>1.67</v>
@@ -9689,7 +9707,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ40">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR40">
         <v>2.09</v>
@@ -10098,7 +10116,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ42">
         <v>0.93</v>
@@ -10304,7 +10322,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ43">
         <v>1.2</v>
@@ -10432,7 +10450,7 @@
         <v>88</v>
       </c>
       <c r="P44" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q44">
         <v>2.7</v>
@@ -10513,7 +10531,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ44">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR44">
         <v>1.54</v>
@@ -10844,7 +10862,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -11462,7 +11480,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11543,7 +11561,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ49">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR49">
         <v>1.4</v>
@@ -11668,7 +11686,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q50">
         <v>2.15</v>
@@ -11749,7 +11767,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ50">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR50">
         <v>1.89</v>
@@ -11874,7 +11892,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -11952,7 +11970,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ51">
         <v>1.13</v>
@@ -12158,7 +12176,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ52">
         <v>0.8</v>
@@ -12570,7 +12588,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ54">
         <v>0.6</v>
@@ -12779,7 +12797,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ55">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR55">
         <v>1.77</v>
@@ -12985,7 +13003,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ56">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR56">
         <v>1.67</v>
@@ -13188,7 +13206,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ57">
         <v>1.67</v>
@@ -13728,7 +13746,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13809,7 +13827,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ60">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR60">
         <v>1.22</v>
@@ -14140,7 +14158,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -14758,7 +14776,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -15170,7 +15188,7 @@
         <v>88</v>
       </c>
       <c r="P67" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q67">
         <v>4.75</v>
@@ -15251,7 +15269,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ67">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR67">
         <v>1.03</v>
@@ -15376,7 +15394,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15454,7 +15472,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ68">
         <v>1.2</v>
@@ -15582,7 +15600,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15788,7 +15806,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15866,10 +15884,10 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ70">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR70">
         <v>1.44</v>
@@ -16406,7 +16424,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16484,7 +16502,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ73">
         <v>1.67</v>
@@ -16612,7 +16630,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q74">
         <v>1.75</v>
@@ -16896,7 +16914,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ75">
         <v>1.13</v>
@@ -17024,7 +17042,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17102,10 +17120,10 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ76">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR76">
         <v>1.71</v>
@@ -17230,7 +17248,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q77">
         <v>2.04</v>
@@ -17311,7 +17329,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ77">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR77">
         <v>2.14</v>
@@ -17436,7 +17454,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q78">
         <v>3.05</v>
@@ -17723,7 +17741,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ79">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR79">
         <v>1.81</v>
@@ -17848,7 +17866,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17926,7 +17944,7 @@
         <v>0.25</v>
       </c>
       <c r="AP80">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ80">
         <v>0.6</v>
@@ -18054,7 +18072,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -18260,7 +18278,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q82">
         <v>3.3</v>
@@ -18338,7 +18356,7 @@
         <v>1.25</v>
       </c>
       <c r="AP82">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ82">
         <v>1.13</v>
@@ -18466,7 +18484,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18753,7 +18771,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ84">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR84">
         <v>0.98</v>
@@ -19165,7 +19183,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ86">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR86">
         <v>1.8</v>
@@ -19496,7 +19514,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -20604,7 +20622,7 @@
         <v>0.8</v>
       </c>
       <c r="AP93">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ93">
         <v>0.93</v>
@@ -20732,7 +20750,7 @@
         <v>88</v>
       </c>
       <c r="P94" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q94">
         <v>3.75</v>
@@ -20810,7 +20828,7 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ94">
         <v>1.67</v>
@@ -21019,7 +21037,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ95">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR95">
         <v>1.63</v>
@@ -21144,7 +21162,7 @@
         <v>159</v>
       </c>
       <c r="P96" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21222,10 +21240,10 @@
         <v>1</v>
       </c>
       <c r="AP96">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ96">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR96">
         <v>1.62</v>
@@ -21350,7 +21368,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21431,7 +21449,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ97">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR97">
         <v>2.14</v>
@@ -21968,7 +21986,7 @@
         <v>105</v>
       </c>
       <c r="P100" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22380,7 +22398,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -22873,7 +22891,7 @@
         <v>2</v>
       </c>
       <c r="AQ104">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR104">
         <v>1.39</v>
@@ -23076,7 +23094,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ105">
         <v>1.13</v>
@@ -23204,7 +23222,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="Q106">
         <v>1.7</v>
@@ -23285,7 +23303,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ106">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR106">
         <v>1.75</v>
@@ -23410,7 +23428,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23616,7 +23634,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="Q108">
         <v>3.2</v>
@@ -23694,10 +23712,10 @@
         <v>0.83</v>
       </c>
       <c r="AP108">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ108">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR108">
         <v>1.25</v>
@@ -23822,7 +23840,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -24028,7 +24046,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q110">
         <v>2.45</v>
@@ -24109,7 +24127,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ110">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR110">
         <v>1.82</v>
@@ -24312,10 +24330,10 @@
         <v>1.4</v>
       </c>
       <c r="AP111">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ111">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR111">
         <v>1.68</v>
@@ -24440,7 +24458,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="Q112">
         <v>3.3</v>
@@ -24518,10 +24536,10 @@
         <v>2.17</v>
       </c>
       <c r="AP112">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ112">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR112">
         <v>1.57</v>
@@ -24646,7 +24664,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="Q113">
         <v>2.9</v>
@@ -24724,7 +24742,7 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ113">
         <v>1.2</v>
@@ -24852,7 +24870,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="Q114">
         <v>1.85</v>
@@ -25676,7 +25694,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q118">
         <v>4.33</v>
@@ -27118,7 +27136,7 @@
         <v>88</v>
       </c>
       <c r="P125" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="Q125">
         <v>2.5</v>
@@ -27324,7 +27342,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27402,10 +27420,10 @@
         <v>2</v>
       </c>
       <c r="AP126">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ126">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR126">
         <v>1.73</v>
@@ -27530,7 +27548,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27608,7 +27626,7 @@
         <v>0.86</v>
       </c>
       <c r="AP127">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ127">
         <v>0.93</v>
@@ -27736,7 +27754,7 @@
         <v>181</v>
       </c>
       <c r="P128" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27814,7 +27832,7 @@
         <v>0.43</v>
       </c>
       <c r="AP128">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ128">
         <v>1</v>
@@ -27942,7 +27960,7 @@
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q129">
         <v>3.3</v>
@@ -28023,7 +28041,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ129">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR129">
         <v>1.76</v>
@@ -28226,10 +28244,10 @@
         <v>1.14</v>
       </c>
       <c r="AP130">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ130">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR130">
         <v>1.44</v>
@@ -28435,7 +28453,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ131">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR131">
         <v>1.81</v>
@@ -28641,7 +28659,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ132">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR132">
         <v>2.15</v>
@@ -28844,7 +28862,7 @@
         <v>1.29</v>
       </c>
       <c r="AP133">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ133">
         <v>1.2</v>
@@ -28972,7 +28990,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q134">
         <v>2.63</v>
@@ -29178,7 +29196,7 @@
         <v>88</v>
       </c>
       <c r="P135" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29256,7 +29274,7 @@
         <v>0.86</v>
       </c>
       <c r="AP135">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ135">
         <v>1.2</v>
@@ -29590,7 +29608,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q137">
         <v>2.1</v>
@@ -29796,7 +29814,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -30002,7 +30020,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="Q139">
         <v>2.1</v>
@@ -30289,7 +30307,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ140">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR140">
         <v>1.32</v>
@@ -30492,7 +30510,7 @@
         <v>0.86</v>
       </c>
       <c r="AP141">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ141">
         <v>0.6</v>
@@ -30620,7 +30638,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="Q142">
         <v>2.05</v>
@@ -30826,7 +30844,7 @@
         <v>88</v>
       </c>
       <c r="P143" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30907,7 +30925,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ143">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR143">
         <v>1.65</v>
@@ -31032,7 +31050,7 @@
         <v>158</v>
       </c>
       <c r="P144" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="Q144">
         <v>3.57</v>
@@ -31113,7 +31131,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ144">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR144">
         <v>1.11</v>
@@ -31444,7 +31462,7 @@
         <v>88</v>
       </c>
       <c r="P146" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31731,7 +31749,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ147">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR147">
         <v>1.68</v>
@@ -31856,7 +31874,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="Q148">
         <v>2.3</v>
@@ -31934,7 +31952,7 @@
         <v>0.38</v>
       </c>
       <c r="AP148">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ148">
         <v>0.67</v>
@@ -32062,7 +32080,7 @@
         <v>88</v>
       </c>
       <c r="P149" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32140,7 +32158,7 @@
         <v>1.33</v>
       </c>
       <c r="AP149">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ149">
         <v>1.53</v>
@@ -32349,7 +32367,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ150">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR150">
         <v>1.67</v>
@@ -32474,7 +32492,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="Q151">
         <v>3.3</v>
@@ -32552,7 +32570,7 @@
         <v>1.13</v>
       </c>
       <c r="AP151">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ151">
         <v>1.2</v>
@@ -32680,7 +32698,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="Q152">
         <v>2.05</v>
@@ -32886,7 +32904,7 @@
         <v>119</v>
       </c>
       <c r="P153" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q153">
         <v>2.65</v>
@@ -32967,7 +32985,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ153">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR153">
         <v>1.58</v>
@@ -33092,7 +33110,7 @@
         <v>195</v>
       </c>
       <c r="P154" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="Q154">
         <v>2.35</v>
@@ -33170,7 +33188,7 @@
         <v>0.88</v>
       </c>
       <c r="AP154">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ154">
         <v>0.8</v>
@@ -33788,7 +33806,7 @@
         <v>1.57</v>
       </c>
       <c r="AP157">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ157">
         <v>1.53</v>
@@ -33916,7 +33934,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="Q158">
         <v>3.25</v>
@@ -33997,7 +34015,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ158">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR158">
         <v>1.64</v>
@@ -34534,7 +34552,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="Q161">
         <v>2.91</v>
@@ -34612,10 +34630,10 @@
         <v>2.22</v>
       </c>
       <c r="AP161">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ161">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR161">
         <v>1.76</v>
@@ -34740,7 +34758,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="Q162">
         <v>4.28</v>
@@ -34821,7 +34839,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ162">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR162">
         <v>1.28</v>
@@ -34946,7 +34964,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="Q163">
         <v>3.75</v>
@@ -35152,7 +35170,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q164">
         <v>3.97</v>
@@ -35233,7 +35251,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ164">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR164">
         <v>1.63</v>
@@ -35436,7 +35454,7 @@
         <v>0.44</v>
       </c>
       <c r="AP165">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ165">
         <v>0.67</v>
@@ -36260,7 +36278,7 @@
         <v>1.5</v>
       </c>
       <c r="AP169">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ169">
         <v>1.53</v>
@@ -36388,7 +36406,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q170">
         <v>2.65</v>
@@ -36466,7 +36484,7 @@
         <v>0.5</v>
       </c>
       <c r="AP170">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ170">
         <v>0.67</v>
@@ -36672,7 +36690,7 @@
         <v>1.33</v>
       </c>
       <c r="AP171">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ171">
         <v>1.53</v>
@@ -36878,7 +36896,7 @@
         <v>1.44</v>
       </c>
       <c r="AP172">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ172">
         <v>1.2</v>
@@ -37006,7 +37024,7 @@
         <v>95</v>
       </c>
       <c r="P173" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="Q173">
         <v>2.5</v>
@@ -37087,7 +37105,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ173">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR173">
         <v>1.57</v>
@@ -37499,7 +37517,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ175">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR175">
         <v>1.14</v>
@@ -37624,7 +37642,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="Q176">
         <v>3.4</v>
@@ -37705,7 +37723,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ176">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR176">
         <v>1.79</v>
@@ -37830,7 +37848,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -38036,7 +38054,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q178">
         <v>2.4</v>
@@ -38242,7 +38260,7 @@
         <v>88</v>
       </c>
       <c r="P179" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="Q179">
         <v>3.98</v>
@@ -38732,7 +38750,7 @@
         <v>1.3</v>
       </c>
       <c r="AP181">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ181">
         <v>1.13</v>
@@ -38860,7 +38878,7 @@
         <v>179</v>
       </c>
       <c r="P182" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -38941,7 +38959,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ182">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR182">
         <v>1.63</v>
@@ -39350,7 +39368,7 @@
         <v>1.11</v>
       </c>
       <c r="AP184">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ184">
         <v>1.13</v>
@@ -39478,7 +39496,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q185">
         <v>1.8</v>
@@ -39684,7 +39702,7 @@
         <v>88</v>
       </c>
       <c r="P186" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="Q186">
         <v>3.7</v>
@@ -39762,7 +39780,7 @@
         <v>0.7</v>
       </c>
       <c r="AP186">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ186">
         <v>1</v>
@@ -39890,7 +39908,7 @@
         <v>214</v>
       </c>
       <c r="P187" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q187">
         <v>2.65</v>
@@ -40302,7 +40320,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q189">
         <v>1.78</v>
@@ -40795,7 +40813,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ191">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR191">
         <v>1.69</v>
@@ -40998,10 +41016,10 @@
         <v>0.89</v>
       </c>
       <c r="AP192">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ192">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR192">
         <v>1.54</v>
@@ -41126,7 +41144,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41413,7 +41431,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ194">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR194">
         <v>1.73</v>
@@ -41538,7 +41556,7 @@
         <v>218</v>
       </c>
       <c r="P195" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -42028,7 +42046,7 @@
         <v>0</v>
       </c>
       <c r="AP197">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ197">
         <v>0.27</v>
@@ -42156,7 +42174,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42234,7 +42252,7 @@
         <v>1.27</v>
       </c>
       <c r="AP198">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ198">
         <v>1.13</v>
@@ -42440,7 +42458,7 @@
         <v>1</v>
       </c>
       <c r="AP199">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ199">
         <v>0.93</v>
@@ -42649,7 +42667,7 @@
         <v>2</v>
       </c>
       <c r="AQ200">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR200">
         <v>1.5</v>
@@ -43186,7 +43204,7 @@
         <v>223</v>
       </c>
       <c r="P203" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="Q203">
         <v>3.2</v>
@@ -43264,7 +43282,7 @@
         <v>0.5</v>
       </c>
       <c r="AP203">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ203">
         <v>0.67</v>
@@ -43470,7 +43488,7 @@
         <v>0.73</v>
       </c>
       <c r="AP204">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ204">
         <v>0.6</v>
@@ -43679,7 +43697,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ205">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR205">
         <v>1.71</v>
@@ -44010,7 +44028,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -44216,7 +44234,7 @@
         <v>228</v>
       </c>
       <c r="P208" t="s">
-        <v>359</v>
+        <v>272</v>
       </c>
       <c r="Q208">
         <v>2.55</v>
@@ -44297,7 +44315,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ208">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR208">
         <v>1.69</v>
@@ -44422,7 +44440,7 @@
         <v>229</v>
       </c>
       <c r="P209" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q209">
         <v>3.1</v>
@@ -44709,7 +44727,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ210">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR210">
         <v>1.3</v>
@@ -44915,7 +44933,7 @@
         <v>2</v>
       </c>
       <c r="AQ211">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR211">
         <v>1.51</v>
@@ -45040,7 +45058,7 @@
         <v>231</v>
       </c>
       <c r="P212" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="Q212">
         <v>2.7</v>
@@ -45118,7 +45136,7 @@
         <v>0.55</v>
       </c>
       <c r="AP212">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ212">
         <v>0.67</v>
@@ -45246,7 +45264,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q213">
         <v>2.25</v>
@@ -46070,7 +46088,7 @@
         <v>88</v>
       </c>
       <c r="P217" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q217">
         <v>4.2</v>
@@ -46151,7 +46169,7 @@
         <v>1.47</v>
       </c>
       <c r="AQ217">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR217">
         <v>1.59</v>
@@ -46354,7 +46372,7 @@
         <v>0.92</v>
       </c>
       <c r="AP218">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ218">
         <v>0.8</v>
@@ -46688,7 +46706,7 @@
         <v>234</v>
       </c>
       <c r="P220" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q220">
         <v>2.59</v>
@@ -46766,7 +46784,7 @@
         <v>0.83</v>
       </c>
       <c r="AP220">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ220">
         <v>1</v>
@@ -46894,7 +46912,7 @@
         <v>88</v>
       </c>
       <c r="P221" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -46975,7 +46993,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ221">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR221">
         <v>1.61</v>
@@ -47100,7 +47118,7 @@
         <v>213</v>
       </c>
       <c r="P222" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q222">
         <v>3.46</v>
@@ -47178,10 +47196,10 @@
         <v>1</v>
       </c>
       <c r="AP222">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ222">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR222">
         <v>1.53</v>
@@ -47512,7 +47530,7 @@
         <v>235</v>
       </c>
       <c r="P224" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q224">
         <v>3.6</v>
@@ -47796,10 +47814,10 @@
         <v>1.08</v>
       </c>
       <c r="AP225">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ225">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR225">
         <v>1.2</v>
@@ -47924,7 +47942,7 @@
         <v>237</v>
       </c>
       <c r="P226" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="Q226">
         <v>2.35</v>
@@ -48130,7 +48148,7 @@
         <v>238</v>
       </c>
       <c r="P227" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q227">
         <v>1.85</v>
@@ -48542,7 +48560,7 @@
         <v>240</v>
       </c>
       <c r="P229" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q229">
         <v>2.8</v>
@@ -48623,7 +48641,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ229">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR229">
         <v>1.47</v>
@@ -49238,10 +49256,10 @@
         <v>1.42</v>
       </c>
       <c r="AP232">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ232">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR232">
         <v>1.45</v>
@@ -49572,7 +49590,7 @@
         <v>244</v>
       </c>
       <c r="P234" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q234">
         <v>4.33</v>
@@ -49778,7 +49796,7 @@
         <v>112</v>
       </c>
       <c r="P235" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="Q235">
         <v>3.6</v>
@@ -49984,7 +50002,7 @@
         <v>245</v>
       </c>
       <c r="P236" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q236">
         <v>2</v>
@@ -50062,7 +50080,7 @@
         <v>0.23</v>
       </c>
       <c r="AP236">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ236">
         <v>0.27</v>
@@ -50271,7 +50289,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ237">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR237">
         <v>1.62</v>
@@ -50680,7 +50698,7 @@
         <v>0.46</v>
       </c>
       <c r="AP239">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ239">
         <v>0.67</v>
@@ -51507,7 +51525,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ243">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR243">
         <v>1.9</v>
@@ -51632,7 +51650,7 @@
         <v>251</v>
       </c>
       <c r="P244" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q244">
         <v>2.88</v>
@@ -51710,10 +51728,10 @@
         <v>1.15</v>
       </c>
       <c r="AP244">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ244">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR244">
         <v>1.75</v>
@@ -52328,7 +52346,7 @@
         <v>0.85</v>
       </c>
       <c r="AP247">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ247">
         <v>1</v>
@@ -52537,7 +52555,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ248">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR248">
         <v>1.28</v>
@@ -52868,7 +52886,7 @@
         <v>255</v>
       </c>
       <c r="P250" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Q250">
         <v>3.9</v>
@@ -52946,7 +52964,7 @@
         <v>1.38</v>
       </c>
       <c r="AP250">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ250">
         <v>1.2</v>
@@ -53074,7 +53092,7 @@
         <v>256</v>
       </c>
       <c r="P251" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q251">
         <v>2.3</v>
@@ -53361,7 +53379,7 @@
         <v>2</v>
       </c>
       <c r="AQ252">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR252">
         <v>1.49</v>
@@ -53979,7 +53997,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ255">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR255">
         <v>1.67</v>
@@ -54104,7 +54122,7 @@
         <v>88</v>
       </c>
       <c r="P256" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="Q256">
         <v>2.46</v>
@@ -54310,7 +54328,7 @@
         <v>260</v>
       </c>
       <c r="P257" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="Q257">
         <v>3.05</v>
@@ -54388,7 +54406,7 @@
         <v>0.86</v>
       </c>
       <c r="AP257">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ257">
         <v>1</v>
@@ -54516,7 +54534,7 @@
         <v>261</v>
       </c>
       <c r="P258" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Q258">
         <v>3.56</v>
@@ -54594,10 +54612,10 @@
         <v>1.43</v>
       </c>
       <c r="AP258">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="AQ258">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="AR258">
         <v>1.74</v>
@@ -54722,7 +54740,7 @@
         <v>88</v>
       </c>
       <c r="P259" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="Q259">
         <v>2.18</v>
@@ -54800,7 +54818,7 @@
         <v>0.5</v>
       </c>
       <c r="AP259">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AQ259">
         <v>0.67</v>
@@ -54928,7 +54946,7 @@
         <v>262</v>
       </c>
       <c r="P260" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q260">
         <v>4.6</v>
@@ -55006,10 +55024,10 @@
         <v>1.29</v>
       </c>
       <c r="AP260">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ260">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AR260">
         <v>1.2</v>
@@ -55215,7 +55233,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ261">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AR261">
         <v>1.88</v>
@@ -55340,7 +55358,7 @@
         <v>263</v>
       </c>
       <c r="P262" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="Q262">
         <v>2.85</v>
@@ -55752,7 +55770,7 @@
         <v>265</v>
       </c>
       <c r="P264" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q264">
         <v>2.61</v>
@@ -55958,7 +55976,7 @@
         <v>266</v>
       </c>
       <c r="P265" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="Q265">
         <v>2.1</v>
@@ -56164,7 +56182,7 @@
         <v>267</v>
       </c>
       <c r="P266" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q266">
         <v>2.7</v>
@@ -56370,7 +56388,7 @@
         <v>88</v>
       </c>
       <c r="P267" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q267">
         <v>4.2</v>
@@ -56451,7 +56469,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ267">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR267">
         <v>1.65</v>
@@ -56576,7 +56594,7 @@
         <v>268</v>
       </c>
       <c r="P268" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q268">
         <v>2.97</v>
@@ -56782,7 +56800,7 @@
         <v>269</v>
       </c>
       <c r="P269" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="Q269">
         <v>5.47</v>
@@ -56860,7 +56878,7 @@
         <v>1.43</v>
       </c>
       <c r="AP269">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="AQ269">
         <v>1.53</v>
@@ -57351,6 +57369,1036 @@
       </c>
       <c r="BP271">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="272" spans="1:68">
+      <c r="A272" s="1">
+        <v>271</v>
+      </c>
+      <c r="B272">
+        <v>6469332</v>
+      </c>
+      <c r="C272" t="s">
+        <v>68</v>
+      </c>
+      <c r="D272" t="s">
+        <v>69</v>
+      </c>
+      <c r="E272" s="2">
+        <v>45415.54166666666</v>
+      </c>
+      <c r="F272">
+        <v>31</v>
+      </c>
+      <c r="G272" t="s">
+        <v>87</v>
+      </c>
+      <c r="H272" t="s">
+        <v>75</v>
+      </c>
+      <c r="I272">
+        <v>2</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+      <c r="K272">
+        <v>2</v>
+      </c>
+      <c r="L272">
+        <v>5</v>
+      </c>
+      <c r="M272">
+        <v>0</v>
+      </c>
+      <c r="N272">
+        <v>5</v>
+      </c>
+      <c r="O272" t="s">
+        <v>270</v>
+      </c>
+      <c r="P272" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q272">
+        <v>2.85</v>
+      </c>
+      <c r="R272">
+        <v>2.1</v>
+      </c>
+      <c r="S272">
+        <v>3.6</v>
+      </c>
+      <c r="T272">
+        <v>1.4</v>
+      </c>
+      <c r="U272">
+        <v>2.75</v>
+      </c>
+      <c r="V272">
+        <v>2.8</v>
+      </c>
+      <c r="W272">
+        <v>1.38</v>
+      </c>
+      <c r="X272">
+        <v>6.5</v>
+      </c>
+      <c r="Y272">
+        <v>1.08</v>
+      </c>
+      <c r="Z272">
+        <v>2.31</v>
+      </c>
+      <c r="AA272">
+        <v>3.3</v>
+      </c>
+      <c r="AB272">
+        <v>2.9</v>
+      </c>
+      <c r="AC272">
+        <v>1.06</v>
+      </c>
+      <c r="AD272">
+        <v>11.5</v>
+      </c>
+      <c r="AE272">
+        <v>1.31</v>
+      </c>
+      <c r="AF272">
+        <v>3.52</v>
+      </c>
+      <c r="AG272">
+        <v>1.88</v>
+      </c>
+      <c r="AH272">
+        <v>1.88</v>
+      </c>
+      <c r="AI272">
+        <v>1.72</v>
+      </c>
+      <c r="AJ272">
+        <v>2</v>
+      </c>
+      <c r="AK272">
+        <v>1.36</v>
+      </c>
+      <c r="AL272">
+        <v>1.25</v>
+      </c>
+      <c r="AM272">
+        <v>1.62</v>
+      </c>
+      <c r="AN272">
+        <v>1.07</v>
+      </c>
+      <c r="AO272">
+        <v>1.4</v>
+      </c>
+      <c r="AP272">
+        <v>1.19</v>
+      </c>
+      <c r="AQ272">
+        <v>1.31</v>
+      </c>
+      <c r="AR272">
+        <v>1.76</v>
+      </c>
+      <c r="AS272">
+        <v>1.32</v>
+      </c>
+      <c r="AT272">
+        <v>3.08</v>
+      </c>
+      <c r="AU272">
+        <v>7</v>
+      </c>
+      <c r="AV272">
+        <v>3</v>
+      </c>
+      <c r="AW272">
+        <v>7</v>
+      </c>
+      <c r="AX272">
+        <v>1</v>
+      </c>
+      <c r="AY272">
+        <v>14</v>
+      </c>
+      <c r="AZ272">
+        <v>4</v>
+      </c>
+      <c r="BA272">
+        <v>6</v>
+      </c>
+      <c r="BB272">
+        <v>6</v>
+      </c>
+      <c r="BC272">
+        <v>12</v>
+      </c>
+      <c r="BD272">
+        <v>1.76</v>
+      </c>
+      <c r="BE272">
+        <v>9.1</v>
+      </c>
+      <c r="BF272">
+        <v>2.4</v>
+      </c>
+      <c r="BG272">
+        <v>1.22</v>
+      </c>
+      <c r="BH272">
+        <v>3.8</v>
+      </c>
+      <c r="BI272">
+        <v>1.31</v>
+      </c>
+      <c r="BJ272">
+        <v>3.04</v>
+      </c>
+      <c r="BK272">
+        <v>1.56</v>
+      </c>
+      <c r="BL272">
+        <v>2.21</v>
+      </c>
+      <c r="BM272">
+        <v>2</v>
+      </c>
+      <c r="BN272">
+        <v>1.8</v>
+      </c>
+      <c r="BO272">
+        <v>2.51</v>
+      </c>
+      <c r="BP272">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="273" spans="1:68">
+      <c r="A273" s="1">
+        <v>272</v>
+      </c>
+      <c r="B273">
+        <v>6469337</v>
+      </c>
+      <c r="C273" t="s">
+        <v>68</v>
+      </c>
+      <c r="D273" t="s">
+        <v>69</v>
+      </c>
+      <c r="E273" s="2">
+        <v>45415.64583333334</v>
+      </c>
+      <c r="F273">
+        <v>31</v>
+      </c>
+      <c r="G273" t="s">
+        <v>79</v>
+      </c>
+      <c r="H273" t="s">
+        <v>82</v>
+      </c>
+      <c r="I273">
+        <v>1</v>
+      </c>
+      <c r="J273">
+        <v>1</v>
+      </c>
+      <c r="K273">
+        <v>2</v>
+      </c>
+      <c r="L273">
+        <v>2</v>
+      </c>
+      <c r="M273">
+        <v>1</v>
+      </c>
+      <c r="N273">
+        <v>3</v>
+      </c>
+      <c r="O273" t="s">
+        <v>271</v>
+      </c>
+      <c r="P273" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q273">
+        <v>4</v>
+      </c>
+      <c r="R273">
+        <v>2.1</v>
+      </c>
+      <c r="S273">
+        <v>2.65</v>
+      </c>
+      <c r="T273">
+        <v>1.4</v>
+      </c>
+      <c r="U273">
+        <v>2.75</v>
+      </c>
+      <c r="V273">
+        <v>2.8</v>
+      </c>
+      <c r="W273">
+        <v>1.38</v>
+      </c>
+      <c r="X273">
+        <v>6.5</v>
+      </c>
+      <c r="Y273">
+        <v>1.08</v>
+      </c>
+      <c r="Z273">
+        <v>3.2</v>
+      </c>
+      <c r="AA273">
+        <v>3.2</v>
+      </c>
+      <c r="AB273">
+        <v>2.12</v>
+      </c>
+      <c r="AC273">
+        <v>1.06</v>
+      </c>
+      <c r="AD273">
+        <v>11.25</v>
+      </c>
+      <c r="AE273">
+        <v>1.31</v>
+      </c>
+      <c r="AF273">
+        <v>3.47</v>
+      </c>
+      <c r="AG273">
+        <v>2</v>
+      </c>
+      <c r="AH273">
+        <v>1.88</v>
+      </c>
+      <c r="AI273">
+        <v>1.78</v>
+      </c>
+      <c r="AJ273">
+        <v>1.95</v>
+      </c>
+      <c r="AK273">
+        <v>1.75</v>
+      </c>
+      <c r="AL273">
+        <v>1.32</v>
+      </c>
+      <c r="AM273">
+        <v>1.32</v>
+      </c>
+      <c r="AN273">
+        <v>0.87</v>
+      </c>
+      <c r="AO273">
+        <v>1.4</v>
+      </c>
+      <c r="AP273">
+        <v>1</v>
+      </c>
+      <c r="AQ273">
+        <v>1.31</v>
+      </c>
+      <c r="AR273">
+        <v>1.64</v>
+      </c>
+      <c r="AS273">
+        <v>1.32</v>
+      </c>
+      <c r="AT273">
+        <v>2.96</v>
+      </c>
+      <c r="AU273">
+        <v>5</v>
+      </c>
+      <c r="AV273">
+        <v>4</v>
+      </c>
+      <c r="AW273">
+        <v>8</v>
+      </c>
+      <c r="AX273">
+        <v>5</v>
+      </c>
+      <c r="AY273">
+        <v>13</v>
+      </c>
+      <c r="AZ273">
+        <v>9</v>
+      </c>
+      <c r="BA273">
+        <v>3</v>
+      </c>
+      <c r="BB273">
+        <v>7</v>
+      </c>
+      <c r="BC273">
+        <v>10</v>
+      </c>
+      <c r="BD273">
+        <v>2.34</v>
+      </c>
+      <c r="BE273">
+        <v>8.9</v>
+      </c>
+      <c r="BF273">
+        <v>1.8</v>
+      </c>
+      <c r="BG273">
+        <v>1.21</v>
+      </c>
+      <c r="BH273">
+        <v>3.74</v>
+      </c>
+      <c r="BI273">
+        <v>1.41</v>
+      </c>
+      <c r="BJ273">
+        <v>2.6</v>
+      </c>
+      <c r="BK273">
+        <v>1.73</v>
+      </c>
+      <c r="BL273">
+        <v>1.99</v>
+      </c>
+      <c r="BM273">
+        <v>2.17</v>
+      </c>
+      <c r="BN273">
+        <v>1.58</v>
+      </c>
+      <c r="BO273">
+        <v>2.91</v>
+      </c>
+      <c r="BP273">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="274" spans="1:68">
+      <c r="A274" s="1">
+        <v>273</v>
+      </c>
+      <c r="B274">
+        <v>6469340</v>
+      </c>
+      <c r="C274" t="s">
+        <v>68</v>
+      </c>
+      <c r="D274" t="s">
+        <v>69</v>
+      </c>
+      <c r="E274" s="2">
+        <v>45416.41666666666</v>
+      </c>
+      <c r="F274">
+        <v>31</v>
+      </c>
+      <c r="G274" t="s">
+        <v>84</v>
+      </c>
+      <c r="H274" t="s">
+        <v>81</v>
+      </c>
+      <c r="I274">
+        <v>0</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+      <c r="K274">
+        <v>0</v>
+      </c>
+      <c r="L274">
+        <v>1</v>
+      </c>
+      <c r="M274">
+        <v>2</v>
+      </c>
+      <c r="N274">
+        <v>3</v>
+      </c>
+      <c r="O274" t="s">
+        <v>272</v>
+      </c>
+      <c r="P274" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q274">
+        <v>4.2</v>
+      </c>
+      <c r="R274">
+        <v>2.1</v>
+      </c>
+      <c r="S274">
+        <v>2.5</v>
+      </c>
+      <c r="T274">
+        <v>1.4</v>
+      </c>
+      <c r="U274">
+        <v>2.75</v>
+      </c>
+      <c r="V274">
+        <v>2.8</v>
+      </c>
+      <c r="W274">
+        <v>1.38</v>
+      </c>
+      <c r="X274">
+        <v>7</v>
+      </c>
+      <c r="Y274">
+        <v>1.07</v>
+      </c>
+      <c r="Z274">
+        <v>3.4</v>
+      </c>
+      <c r="AA274">
+        <v>3.3</v>
+      </c>
+      <c r="AB274">
+        <v>1.91</v>
+      </c>
+      <c r="AC274">
+        <v>1.06</v>
+      </c>
+      <c r="AD274">
+        <v>8.5</v>
+      </c>
+      <c r="AE274">
+        <v>1.33</v>
+      </c>
+      <c r="AF274">
+        <v>3.3</v>
+      </c>
+      <c r="AG274">
+        <v>1.95</v>
+      </c>
+      <c r="AH274">
+        <v>1.75</v>
+      </c>
+      <c r="AI274">
+        <v>1.77</v>
+      </c>
+      <c r="AJ274">
+        <v>1.93</v>
+      </c>
+      <c r="AK274">
+        <v>1.83</v>
+      </c>
+      <c r="AL274">
+        <v>1.25</v>
+      </c>
+      <c r="AM274">
+        <v>1.25</v>
+      </c>
+      <c r="AN274">
+        <v>1.13</v>
+      </c>
+      <c r="AO274">
+        <v>1.73</v>
+      </c>
+      <c r="AP274">
+        <v>1.06</v>
+      </c>
+      <c r="AQ274">
+        <v>1.81</v>
+      </c>
+      <c r="AR274">
+        <v>1.2</v>
+      </c>
+      <c r="AS274">
+        <v>1.2</v>
+      </c>
+      <c r="AT274">
+        <v>2.4</v>
+      </c>
+      <c r="AU274">
+        <v>6</v>
+      </c>
+      <c r="AV274">
+        <v>6</v>
+      </c>
+      <c r="AW274">
+        <v>7</v>
+      </c>
+      <c r="AX274">
+        <v>6</v>
+      </c>
+      <c r="AY274">
+        <v>13</v>
+      </c>
+      <c r="AZ274">
+        <v>12</v>
+      </c>
+      <c r="BA274">
+        <v>6</v>
+      </c>
+      <c r="BB274">
+        <v>6</v>
+      </c>
+      <c r="BC274">
+        <v>12</v>
+      </c>
+      <c r="BD274">
+        <v>2.52</v>
+      </c>
+      <c r="BE274">
+        <v>8</v>
+      </c>
+      <c r="BF274">
+        <v>1.75</v>
+      </c>
+      <c r="BG274">
+        <v>1.26</v>
+      </c>
+      <c r="BH274">
+        <v>3.34</v>
+      </c>
+      <c r="BI274">
+        <v>1.48</v>
+      </c>
+      <c r="BJ274">
+        <v>2.4</v>
+      </c>
+      <c r="BK274">
+        <v>1.9</v>
+      </c>
+      <c r="BL274">
+        <v>1.9</v>
+      </c>
+      <c r="BM274">
+        <v>2.38</v>
+      </c>
+      <c r="BN274">
+        <v>1.49</v>
+      </c>
+      <c r="BO274">
+        <v>3.2</v>
+      </c>
+      <c r="BP274">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="275" spans="1:68">
+      <c r="A275" s="1">
+        <v>274</v>
+      </c>
+      <c r="B275">
+        <v>6469333</v>
+      </c>
+      <c r="C275" t="s">
+        <v>68</v>
+      </c>
+      <c r="D275" t="s">
+        <v>69</v>
+      </c>
+      <c r="E275" s="2">
+        <v>45416.52083333334</v>
+      </c>
+      <c r="F275">
+        <v>31</v>
+      </c>
+      <c r="G275" t="s">
+        <v>76</v>
+      </c>
+      <c r="H275" t="s">
+        <v>73</v>
+      </c>
+      <c r="I275">
+        <v>1</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+      <c r="K275">
+        <v>1</v>
+      </c>
+      <c r="L275">
+        <v>2</v>
+      </c>
+      <c r="M275">
+        <v>0</v>
+      </c>
+      <c r="N275">
+        <v>2</v>
+      </c>
+      <c r="O275" t="s">
+        <v>273</v>
+      </c>
+      <c r="P275" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q275">
+        <v>3.75</v>
+      </c>
+      <c r="R275">
+        <v>2.15</v>
+      </c>
+      <c r="S275">
+        <v>2.65</v>
+      </c>
+      <c r="T275">
+        <v>1.37</v>
+      </c>
+      <c r="U275">
+        <v>2.85</v>
+      </c>
+      <c r="V275">
+        <v>2.7</v>
+      </c>
+      <c r="W275">
+        <v>1.41</v>
+      </c>
+      <c r="X275">
+        <v>6.45</v>
+      </c>
+      <c r="Y275">
+        <v>1.09</v>
+      </c>
+      <c r="Z275">
+        <v>3.1</v>
+      </c>
+      <c r="AA275">
+        <v>3.4</v>
+      </c>
+      <c r="AB275">
+        <v>2</v>
+      </c>
+      <c r="AC275">
+        <v>1.05</v>
+      </c>
+      <c r="AD275">
+        <v>9</v>
+      </c>
+      <c r="AE275">
+        <v>1.28</v>
+      </c>
+      <c r="AF275">
+        <v>3.5</v>
+      </c>
+      <c r="AG275">
+        <v>1.83</v>
+      </c>
+      <c r="AH275">
+        <v>1.85</v>
+      </c>
+      <c r="AI275">
+        <v>1.7</v>
+      </c>
+      <c r="AJ275">
+        <v>2.1</v>
+      </c>
+      <c r="AK275">
+        <v>1.75</v>
+      </c>
+      <c r="AL275">
+        <v>1.25</v>
+      </c>
+      <c r="AM275">
+        <v>1.3</v>
+      </c>
+      <c r="AN275">
+        <v>1.33</v>
+      </c>
+      <c r="AO275">
+        <v>1.13</v>
+      </c>
+      <c r="AP275">
+        <v>1.44</v>
+      </c>
+      <c r="AQ275">
+        <v>1.06</v>
+      </c>
+      <c r="AR275">
+        <v>1.77</v>
+      </c>
+      <c r="AS275">
+        <v>1.67</v>
+      </c>
+      <c r="AT275">
+        <v>3.44</v>
+      </c>
+      <c r="AU275">
+        <v>4</v>
+      </c>
+      <c r="AV275">
+        <v>4</v>
+      </c>
+      <c r="AW275">
+        <v>4</v>
+      </c>
+      <c r="AX275">
+        <v>8</v>
+      </c>
+      <c r="AY275">
+        <v>8</v>
+      </c>
+      <c r="AZ275">
+        <v>12</v>
+      </c>
+      <c r="BA275">
+        <v>4</v>
+      </c>
+      <c r="BB275">
+        <v>9</v>
+      </c>
+      <c r="BC275">
+        <v>13</v>
+      </c>
+      <c r="BD275">
+        <v>2.33</v>
+      </c>
+      <c r="BE275">
+        <v>8</v>
+      </c>
+      <c r="BF275">
+        <v>1.82</v>
+      </c>
+      <c r="BG275">
+        <v>1.22</v>
+      </c>
+      <c r="BH275">
+        <v>3.65</v>
+      </c>
+      <c r="BI275">
+        <v>1.43</v>
+      </c>
+      <c r="BJ275">
+        <v>2.54</v>
+      </c>
+      <c r="BK275">
+        <v>1.8</v>
+      </c>
+      <c r="BL275">
+        <v>2</v>
+      </c>
+      <c r="BM275">
+        <v>2.23</v>
+      </c>
+      <c r="BN275">
+        <v>1.55</v>
+      </c>
+      <c r="BO275">
+        <v>2.98</v>
+      </c>
+      <c r="BP275">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="276" spans="1:68">
+      <c r="A276" s="1">
+        <v>275</v>
+      </c>
+      <c r="B276">
+        <v>6469338</v>
+      </c>
+      <c r="C276" t="s">
+        <v>68</v>
+      </c>
+      <c r="D276" t="s">
+        <v>69</v>
+      </c>
+      <c r="E276" s="2">
+        <v>45416.625</v>
+      </c>
+      <c r="F276">
+        <v>31</v>
+      </c>
+      <c r="G276" t="s">
+        <v>72</v>
+      </c>
+      <c r="H276" t="s">
+        <v>80</v>
+      </c>
+      <c r="I276">
+        <v>1</v>
+      </c>
+      <c r="J276">
+        <v>1</v>
+      </c>
+      <c r="K276">
+        <v>2</v>
+      </c>
+      <c r="L276">
+        <v>3</v>
+      </c>
+      <c r="M276">
+        <v>2</v>
+      </c>
+      <c r="N276">
+        <v>5</v>
+      </c>
+      <c r="O276" t="s">
+        <v>274</v>
+      </c>
+      <c r="P276" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q276">
+        <v>4.76</v>
+      </c>
+      <c r="R276">
+        <v>2.44</v>
+      </c>
+      <c r="S276">
+        <v>2.29</v>
+      </c>
+      <c r="T276">
+        <v>1.33</v>
+      </c>
+      <c r="U276">
+        <v>3.32</v>
+      </c>
+      <c r="V276">
+        <v>2.55</v>
+      </c>
+      <c r="W276">
+        <v>1.51</v>
+      </c>
+      <c r="X276">
+        <v>5.85</v>
+      </c>
+      <c r="Y276">
+        <v>1.11</v>
+      </c>
+      <c r="Z276">
+        <v>4.1</v>
+      </c>
+      <c r="AA276">
+        <v>3.45</v>
+      </c>
+      <c r="AB276">
+        <v>1.77</v>
+      </c>
+      <c r="AC276">
+        <v>1.01</v>
+      </c>
+      <c r="AD276">
+        <v>10.25</v>
+      </c>
+      <c r="AE276">
+        <v>1.18</v>
+      </c>
+      <c r="AF276">
+        <v>4.05</v>
+      </c>
+      <c r="AG276">
+        <v>1.77</v>
+      </c>
+      <c r="AH276">
+        <v>2</v>
+      </c>
+      <c r="AI276">
+        <v>1.64</v>
+      </c>
+      <c r="AJ276">
+        <v>2.12</v>
+      </c>
+      <c r="AK276">
+        <v>2.06</v>
+      </c>
+      <c r="AL276">
+        <v>1.25</v>
+      </c>
+      <c r="AM276">
+        <v>1.18</v>
+      </c>
+      <c r="AN276">
+        <v>1.73</v>
+      </c>
+      <c r="AO276">
+        <v>1.53</v>
+      </c>
+      <c r="AP276">
+        <v>1.81</v>
+      </c>
+      <c r="AQ276">
+        <v>1.44</v>
+      </c>
+      <c r="AR276">
+        <v>1.36</v>
+      </c>
+      <c r="AS276">
+        <v>1.43</v>
+      </c>
+      <c r="AT276">
+        <v>2.79</v>
+      </c>
+      <c r="AU276">
+        <v>4</v>
+      </c>
+      <c r="AV276">
+        <v>6</v>
+      </c>
+      <c r="AW276">
+        <v>7</v>
+      </c>
+      <c r="AX276">
+        <v>4</v>
+      </c>
+      <c r="AY276">
+        <v>11</v>
+      </c>
+      <c r="AZ276">
+        <v>10</v>
+      </c>
+      <c r="BA276">
+        <v>2</v>
+      </c>
+      <c r="BB276">
+        <v>5</v>
+      </c>
+      <c r="BC276">
+        <v>7</v>
+      </c>
+      <c r="BD276">
+        <v>2.91</v>
+      </c>
+      <c r="BE276">
+        <v>8.5</v>
+      </c>
+      <c r="BF276">
+        <v>1.55</v>
+      </c>
+      <c r="BG276">
+        <v>1.19</v>
+      </c>
+      <c r="BH276">
+        <v>3.9</v>
+      </c>
+      <c r="BI276">
+        <v>1.39</v>
+      </c>
+      <c r="BJ276">
+        <v>2.67</v>
+      </c>
+      <c r="BK276">
+        <v>1.73</v>
+      </c>
+      <c r="BL276">
+        <v>2</v>
+      </c>
+      <c r="BM276">
+        <v>2.05</v>
+      </c>
+      <c r="BN276">
+        <v>1.7</v>
+      </c>
+      <c r="BO276">
+        <v>2.79</v>
+      </c>
+      <c r="BP276">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="391">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1185,6 +1185,9 @@
   <si>
     <t>['12', '75']</t>
   </si>
+  <si>
+    <t>['66', '73', '79']</t>
+  </si>
 </sst>
 </file>
 
@@ -1545,7 +1548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP278"/>
+  <dimension ref="A1:BP279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2088,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ3">
         <v>0.27</v>
@@ -2915,7 +2918,7 @@
         <v>2</v>
       </c>
       <c r="AQ7">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -4769,7 +4772,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ16">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -6414,7 +6417,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ24">
         <v>0.67</v>
@@ -7859,7 +7862,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ31">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR31">
         <v>2.3</v>
@@ -9916,7 +9919,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ41">
         <v>0.6</v>
@@ -10331,7 +10334,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ43">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR43">
         <v>1.27</v>
@@ -13418,7 +13421,7 @@
         <v>0.33</v>
       </c>
       <c r="AP58">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ58">
         <v>0.9399999999999999</v>
@@ -14863,7 +14866,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ65">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR65">
         <v>1.69</v>
@@ -17332,7 +17335,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ77">
         <v>1.31</v>
@@ -18983,7 +18986,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ85">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR85">
         <v>1.59</v>
@@ -21452,7 +21455,7 @@
         <v>1</v>
       </c>
       <c r="AP97">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ97">
         <v>1.06</v>
@@ -24751,7 +24754,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ113">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR113">
         <v>1.72</v>
@@ -24954,7 +24957,7 @@
         <v>0.2</v>
       </c>
       <c r="AP114">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ114">
         <v>0.8</v>
@@ -28662,7 +28665,7 @@
         <v>1.33</v>
       </c>
       <c r="AP132">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ132">
         <v>1.31</v>
@@ -28871,7 +28874,7 @@
         <v>1</v>
       </c>
       <c r="AQ133">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR133">
         <v>1.55</v>
@@ -30104,7 +30107,7 @@
         <v>1.57</v>
       </c>
       <c r="AP139">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ139">
         <v>1.13</v>
@@ -31549,7 +31552,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ146">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR146">
         <v>1.87</v>
@@ -35872,7 +35875,7 @@
         <v>1.25</v>
       </c>
       <c r="AP167">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ167">
         <v>1.13</v>
@@ -36905,7 +36908,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ172">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR172">
         <v>1.82</v>
@@ -39580,7 +39583,7 @@
         <v>0.44</v>
       </c>
       <c r="AP185">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ185">
         <v>0.67</v>
@@ -41849,7 +41852,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ196">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR196">
         <v>1.13</v>
@@ -43082,7 +43085,7 @@
         <v>2</v>
       </c>
       <c r="AP202">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ202">
         <v>1.67</v>
@@ -44115,7 +44118,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ207">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR207">
         <v>1.55</v>
@@ -48026,7 +48029,7 @@
         <v>0.92</v>
       </c>
       <c r="AP226">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ226">
         <v>0.9399999999999999</v>
@@ -49059,7 +49062,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ231">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR231">
         <v>1.29</v>
@@ -51528,7 +51531,7 @@
         <v>1.46</v>
       </c>
       <c r="AP243">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ243">
         <v>1.44</v>
@@ -52973,7 +52976,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ250">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR250">
         <v>1.18</v>
@@ -53797,7 +53800,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ254">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR254">
         <v>1.52</v>
@@ -55236,7 +55239,7 @@
         <v>1.79</v>
       </c>
       <c r="AP261">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ261">
         <v>1.81</v>
@@ -58135,22 +58138,22 @@
         <v>3.44</v>
       </c>
       <c r="AU275">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV275">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW275">
         <v>4</v>
       </c>
       <c r="AX275">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY275">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ275">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA275">
         <v>4</v>
@@ -58756,28 +58759,28 @@
         <v>4</v>
       </c>
       <c r="AV278">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW278">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX278">
+        <v>4</v>
+      </c>
+      <c r="AY278">
+        <v>9</v>
+      </c>
+      <c r="AZ278">
+        <v>8</v>
+      </c>
+      <c r="BA278">
+        <v>7</v>
+      </c>
+      <c r="BB278">
         <v>3</v>
       </c>
-      <c r="AY278">
-        <v>6</v>
-      </c>
-      <c r="AZ278">
-        <v>3</v>
-      </c>
-      <c r="BA278">
-        <v>4</v>
-      </c>
-      <c r="BB278">
-        <v>1</v>
-      </c>
       <c r="BC278">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BD278">
         <v>2.1</v>
@@ -58817,6 +58820,212 @@
       </c>
       <c r="BP278">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:68">
+      <c r="A279" s="1">
+        <v>278</v>
+      </c>
+      <c r="B279">
+        <v>6469335</v>
+      </c>
+      <c r="C279" t="s">
+        <v>68</v>
+      </c>
+      <c r="D279" t="s">
+        <v>69</v>
+      </c>
+      <c r="E279" s="2">
+        <v>45417.52083333334</v>
+      </c>
+      <c r="F279">
+        <v>31</v>
+      </c>
+      <c r="G279" t="s">
+        <v>71</v>
+      </c>
+      <c r="H279" t="s">
+        <v>85</v>
+      </c>
+      <c r="I279">
+        <v>0</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+      <c r="K279">
+        <v>0</v>
+      </c>
+      <c r="L279">
+        <v>0</v>
+      </c>
+      <c r="M279">
+        <v>3</v>
+      </c>
+      <c r="N279">
+        <v>3</v>
+      </c>
+      <c r="O279" t="s">
+        <v>88</v>
+      </c>
+      <c r="P279" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q279">
+        <v>2</v>
+      </c>
+      <c r="R279">
+        <v>2.38</v>
+      </c>
+      <c r="S279">
+        <v>5.5</v>
+      </c>
+      <c r="T279">
+        <v>1.3</v>
+      </c>
+      <c r="U279">
+        <v>3.2</v>
+      </c>
+      <c r="V279">
+        <v>2.5</v>
+      </c>
+      <c r="W279">
+        <v>1.48</v>
+      </c>
+      <c r="X279">
+        <v>5.5</v>
+      </c>
+      <c r="Y279">
+        <v>1.11</v>
+      </c>
+      <c r="Z279">
+        <v>1.49</v>
+      </c>
+      <c r="AA279">
+        <v>4.1</v>
+      </c>
+      <c r="AB279">
+        <v>6</v>
+      </c>
+      <c r="AC279">
+        <v>1.02</v>
+      </c>
+      <c r="AD279">
+        <v>11</v>
+      </c>
+      <c r="AE279">
+        <v>1.22</v>
+      </c>
+      <c r="AF279">
+        <v>4</v>
+      </c>
+      <c r="AG279">
+        <v>1.67</v>
+      </c>
+      <c r="AH279">
+        <v>2.16</v>
+      </c>
+      <c r="AI279">
+        <v>1.85</v>
+      </c>
+      <c r="AJ279">
+        <v>1.85</v>
+      </c>
+      <c r="AK279">
+        <v>1.13</v>
+      </c>
+      <c r="AL279">
+        <v>1.2</v>
+      </c>
+      <c r="AM279">
+        <v>2.6</v>
+      </c>
+      <c r="AN279">
+        <v>1.8</v>
+      </c>
+      <c r="AO279">
+        <v>1.2</v>
+      </c>
+      <c r="AP279">
+        <v>1.69</v>
+      </c>
+      <c r="AQ279">
+        <v>1.31</v>
+      </c>
+      <c r="AR279">
+        <v>1.87</v>
+      </c>
+      <c r="AS279">
+        <v>1.39</v>
+      </c>
+      <c r="AT279">
+        <v>3.26</v>
+      </c>
+      <c r="AU279">
+        <v>2</v>
+      </c>
+      <c r="AV279">
+        <v>8</v>
+      </c>
+      <c r="AW279">
+        <v>7</v>
+      </c>
+      <c r="AX279">
+        <v>5</v>
+      </c>
+      <c r="AY279">
+        <v>9</v>
+      </c>
+      <c r="AZ279">
+        <v>13</v>
+      </c>
+      <c r="BA279">
+        <v>6</v>
+      </c>
+      <c r="BB279">
+        <v>3</v>
+      </c>
+      <c r="BC279">
+        <v>9</v>
+      </c>
+      <c r="BD279">
+        <v>1.34</v>
+      </c>
+      <c r="BE279">
+        <v>9.5</v>
+      </c>
+      <c r="BF279">
+        <v>4.07</v>
+      </c>
+      <c r="BG279">
+        <v>1.25</v>
+      </c>
+      <c r="BH279">
+        <v>3.3</v>
+      </c>
+      <c r="BI279">
+        <v>1.48</v>
+      </c>
+      <c r="BJ279">
+        <v>2.38</v>
+      </c>
+      <c r="BK279">
+        <v>1.8</v>
+      </c>
+      <c r="BL279">
+        <v>1.9</v>
+      </c>
+      <c r="BM279">
+        <v>2.35</v>
+      </c>
+      <c r="BN279">
+        <v>1.49</v>
+      </c>
+      <c r="BO279">
+        <v>3.15</v>
+      </c>
+      <c r="BP279">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="391">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1548,7 +1548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP279"/>
+  <dimension ref="A1:BP280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3330,7 +3330,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ9">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -4154,7 +4154,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ13">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4975,7 +4975,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ17">
         <v>0.9399999999999999</v>
@@ -7859,7 +7859,7 @@
         <v>1.5</v>
       </c>
       <c r="AP31">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ31">
         <v>1.31</v>
@@ -8480,7 +8480,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ34">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR34">
         <v>1.88</v>
@@ -11773,7 +11773,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ50">
         <v>1.81</v>
@@ -13630,7 +13630,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ59">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR59">
         <v>1.65</v>
@@ -14245,7 +14245,7 @@
         <v>0.33</v>
       </c>
       <c r="AP62">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ62">
         <v>0.6</v>
@@ -16102,7 +16102,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ71">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR71">
         <v>1.71</v>
@@ -17541,7 +17541,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ78">
         <v>1.53</v>
@@ -19189,7 +19189,7 @@
         <v>1.75</v>
       </c>
       <c r="AP86">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ86">
         <v>1.31</v>
@@ -20016,7 +20016,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ90">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR90">
         <v>1.75</v>
@@ -23518,7 +23518,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ107">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR107">
         <v>1.68</v>
@@ -24133,7 +24133,7 @@
         <v>1.33</v>
       </c>
       <c r="AP110">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ110">
         <v>1.44</v>
@@ -27226,7 +27226,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ125">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR125">
         <v>1.08</v>
@@ -28459,7 +28459,7 @@
         <v>1.2</v>
       </c>
       <c r="AP131">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ131">
         <v>1.06</v>
@@ -29901,7 +29901,7 @@
         <v>0.57</v>
       </c>
       <c r="AP138">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ138">
         <v>0.8</v>
@@ -32785,7 +32785,7 @@
         <v>1.5</v>
       </c>
       <c r="AP152">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ152">
         <v>1.13</v>
@@ -36496,7 +36496,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ170">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR170">
         <v>1.43</v>
@@ -39586,7 +39586,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ185">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR185">
         <v>1.96</v>
@@ -40407,7 +40407,7 @@
         <v>0</v>
       </c>
       <c r="AP189">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ189">
         <v>0.27</v>
@@ -43294,7 +43294,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ203">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR203">
         <v>1.18</v>
@@ -45351,7 +45351,7 @@
         <v>1</v>
       </c>
       <c r="AP213">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ213">
         <v>1.2</v>
@@ -45972,7 +45972,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ216">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR216">
         <v>1.56</v>
@@ -47414,7 +47414,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ223">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR223">
         <v>1.68</v>
@@ -48853,7 +48853,7 @@
         <v>1.08</v>
       </c>
       <c r="AP230">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ230">
         <v>1.13</v>
@@ -50710,7 +50710,7 @@
         <v>1</v>
       </c>
       <c r="AQ239">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR239">
         <v>1.59</v>
@@ -52149,7 +52149,7 @@
         <v>0.54</v>
       </c>
       <c r="AP246">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ246">
         <v>0.67</v>
@@ -54209,7 +54209,7 @@
         <v>0.79</v>
       </c>
       <c r="AP256">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ256">
         <v>0.9399999999999999</v>
@@ -54830,7 +54830,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ259">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR259">
         <v>1.78</v>
@@ -59026,6 +59026,212 @@
       </c>
       <c r="BP279">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="280" spans="1:68">
+      <c r="A280" s="1">
+        <v>279</v>
+      </c>
+      <c r="B280">
+        <v>6469336</v>
+      </c>
+      <c r="C280" t="s">
+        <v>68</v>
+      </c>
+      <c r="D280" t="s">
+        <v>69</v>
+      </c>
+      <c r="E280" s="2">
+        <v>45418.58333333334</v>
+      </c>
+      <c r="F280">
+        <v>31</v>
+      </c>
+      <c r="G280" t="s">
+        <v>83</v>
+      </c>
+      <c r="H280" t="s">
+        <v>86</v>
+      </c>
+      <c r="I280">
+        <v>0</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+      <c r="K280">
+        <v>0</v>
+      </c>
+      <c r="L280">
+        <v>1</v>
+      </c>
+      <c r="M280">
+        <v>0</v>
+      </c>
+      <c r="N280">
+        <v>1</v>
+      </c>
+      <c r="O280" t="s">
+        <v>272</v>
+      </c>
+      <c r="P280" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q280">
+        <v>1.95</v>
+      </c>
+      <c r="R280">
+        <v>2.5</v>
+      </c>
+      <c r="S280">
+        <v>5</v>
+      </c>
+      <c r="T280">
+        <v>1.26</v>
+      </c>
+      <c r="U280">
+        <v>3.5</v>
+      </c>
+      <c r="V280">
+        <v>2.29</v>
+      </c>
+      <c r="W280">
+        <v>1.56</v>
+      </c>
+      <c r="X280">
+        <v>4.95</v>
+      </c>
+      <c r="Y280">
+        <v>1.14</v>
+      </c>
+      <c r="Z280">
+        <v>1.48</v>
+      </c>
+      <c r="AA280">
+        <v>4.33</v>
+      </c>
+      <c r="AB280">
+        <v>5.5</v>
+      </c>
+      <c r="AC280">
+        <v>1.03</v>
+      </c>
+      <c r="AD280">
+        <v>11</v>
+      </c>
+      <c r="AE280">
+        <v>1.16</v>
+      </c>
+      <c r="AF280">
+        <v>4.75</v>
+      </c>
+      <c r="AG280">
+        <v>1.56</v>
+      </c>
+      <c r="AH280">
+        <v>2.38</v>
+      </c>
+      <c r="AI280">
+        <v>1.68</v>
+      </c>
+      <c r="AJ280">
+        <v>2.1</v>
+      </c>
+      <c r="AK280">
+        <v>1.08</v>
+      </c>
+      <c r="AL280">
+        <v>1.15</v>
+      </c>
+      <c r="AM280">
+        <v>2.6</v>
+      </c>
+      <c r="AN280">
+        <v>1.53</v>
+      </c>
+      <c r="AO280">
+        <v>0.67</v>
+      </c>
+      <c r="AP280">
+        <v>1.63</v>
+      </c>
+      <c r="AQ280">
+        <v>0.63</v>
+      </c>
+      <c r="AR280">
+        <v>1.83</v>
+      </c>
+      <c r="AS280">
+        <v>1.22</v>
+      </c>
+      <c r="AT280">
+        <v>3.05</v>
+      </c>
+      <c r="AU280">
+        <v>5</v>
+      </c>
+      <c r="AV280">
+        <v>3</v>
+      </c>
+      <c r="AW280">
+        <v>7</v>
+      </c>
+      <c r="AX280">
+        <v>3</v>
+      </c>
+      <c r="AY280">
+        <v>12</v>
+      </c>
+      <c r="AZ280">
+        <v>6</v>
+      </c>
+      <c r="BA280">
+        <v>10</v>
+      </c>
+      <c r="BB280">
+        <v>2</v>
+      </c>
+      <c r="BC280">
+        <v>12</v>
+      </c>
+      <c r="BD280">
+        <v>1.3</v>
+      </c>
+      <c r="BE280">
+        <v>10</v>
+      </c>
+      <c r="BF280">
+        <v>4.42</v>
+      </c>
+      <c r="BG280">
+        <v>1.15</v>
+      </c>
+      <c r="BH280">
+        <v>4.75</v>
+      </c>
+      <c r="BI280">
+        <v>1.27</v>
+      </c>
+      <c r="BJ280">
+        <v>3.2</v>
+      </c>
+      <c r="BK280">
+        <v>1.49</v>
+      </c>
+      <c r="BL280">
+        <v>2.33</v>
+      </c>
+      <c r="BM280">
+        <v>1.85</v>
+      </c>
+      <c r="BN280">
+        <v>1.85</v>
+      </c>
+      <c r="BO280">
+        <v>2.32</v>
+      </c>
+      <c r="BP280">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="393">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -847,6 +847,12 @@
     <t>['62']</t>
   </si>
   <si>
+    <t>['48', '73', '76', '88']</t>
+  </si>
+  <si>
+    <t>['2', '34', '43', '88']</t>
+  </si>
+  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -1548,7 +1554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP280"/>
+  <dimension ref="A1:BP282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1807,7 +1813,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q2">
         <v>4.33</v>
@@ -2094,7 +2100,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ3">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2219,7 +2225,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2300,7 +2306,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ4">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2631,7 +2637,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2709,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ6">
         <v>1.31</v>
@@ -2837,7 +2843,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -3249,7 +3255,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3455,7 +3461,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q10">
         <v>3.2</v>
@@ -3742,7 +3748,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4073,7 +4079,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q13">
         <v>2.53</v>
@@ -4279,7 +4285,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4357,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ14">
         <v>1.2</v>
@@ -5103,7 +5109,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5515,7 +5521,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q20">
         <v>1.82</v>
@@ -6008,7 +6014,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ22">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -6133,7 +6139,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6957,7 +6963,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q27">
         <v>4.2</v>
@@ -7035,7 +7041,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ27">
         <v>1.06</v>
@@ -7369,7 +7375,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q29">
         <v>2.95</v>
@@ -7656,7 +7662,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ30">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR30">
         <v>1.68</v>
@@ -7781,7 +7787,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q31">
         <v>2.3</v>
@@ -7987,7 +7993,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -8193,7 +8199,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q33">
         <v>2.6</v>
@@ -8605,7 +8611,7 @@
         <v>99</v>
       </c>
       <c r="P35" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8811,7 +8817,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -9713,7 +9719,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ40">
         <v>1.31</v>
@@ -10459,7 +10465,7 @@
         <v>88</v>
       </c>
       <c r="P44" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q44">
         <v>2.7</v>
@@ -10746,7 +10752,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ45">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR45">
         <v>1.2</v>
@@ -10871,7 +10877,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10952,7 +10958,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ46">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR46">
         <v>0.99</v>
@@ -11155,7 +11161,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ47">
         <v>0.67</v>
@@ -11489,7 +11495,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11695,7 +11701,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q50">
         <v>2.15</v>
@@ -11901,7 +11907,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -13009,7 +13015,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ56">
         <v>1.44</v>
@@ -13755,7 +13761,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -14167,7 +14173,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -14454,7 +14460,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ63">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR63">
         <v>1.69</v>
@@ -14657,7 +14663,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ64">
         <v>1.53</v>
@@ -14785,7 +14791,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -15072,7 +15078,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ66">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR66">
         <v>1.58</v>
@@ -15197,7 +15203,7 @@
         <v>88</v>
       </c>
       <c r="P67" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q67">
         <v>4.75</v>
@@ -15403,7 +15409,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15609,7 +15615,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15815,7 +15821,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -16305,7 +16311,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ72">
         <v>0.9399999999999999</v>
@@ -16433,7 +16439,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16639,7 +16645,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q74">
         <v>1.75</v>
@@ -17051,7 +17057,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17257,7 +17263,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q77">
         <v>2.04</v>
@@ -17463,7 +17469,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q78">
         <v>3.05</v>
@@ -17875,7 +17881,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -18081,7 +18087,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -18159,7 +18165,7 @@
         <v>0.4</v>
       </c>
       <c r="AP81">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ81">
         <v>0.9399999999999999</v>
@@ -18287,7 +18293,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q82">
         <v>3.3</v>
@@ -18368,7 +18374,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ82">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR82">
         <v>1.3</v>
@@ -18493,7 +18499,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -19523,7 +19529,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -20222,7 +20228,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ91">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR91">
         <v>1.77</v>
@@ -20759,7 +20765,7 @@
         <v>88</v>
       </c>
       <c r="P94" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q94">
         <v>3.75</v>
@@ -21043,7 +21049,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ95">
         <v>1.31</v>
@@ -21171,7 +21177,7 @@
         <v>159</v>
       </c>
       <c r="P96" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21377,7 +21383,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21661,7 +21667,7 @@
         <v>1.8</v>
       </c>
       <c r="AP98">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ98">
         <v>1.67</v>
@@ -21995,7 +22001,7 @@
         <v>105</v>
       </c>
       <c r="P100" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22076,7 +22082,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ100">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR100">
         <v>1.27</v>
@@ -22279,7 +22285,7 @@
         <v>1.25</v>
       </c>
       <c r="AP101">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ101">
         <v>1.53</v>
@@ -22407,7 +22413,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -22488,7 +22494,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ102">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR102">
         <v>1.79</v>
@@ -23231,7 +23237,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q106">
         <v>1.7</v>
@@ -23437,7 +23443,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23643,7 +23649,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q108">
         <v>3.2</v>
@@ -23849,7 +23855,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -24055,7 +24061,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q110">
         <v>2.45</v>
@@ -24467,7 +24473,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q112">
         <v>3.3</v>
@@ -24673,7 +24679,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q113">
         <v>2.9</v>
@@ -24879,7 +24885,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q114">
         <v>1.85</v>
@@ -25369,7 +25375,7 @@
         <v>0.83</v>
       </c>
       <c r="AP116">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ116">
         <v>0.6</v>
@@ -25703,7 +25709,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q118">
         <v>4.33</v>
@@ -26399,10 +26405,10 @@
         <v>0</v>
       </c>
       <c r="AP121">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ121">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR121">
         <v>1.67</v>
@@ -27020,7 +27026,7 @@
         <v>2</v>
       </c>
       <c r="AQ124">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR124">
         <v>1.35</v>
@@ -27145,7 +27151,7 @@
         <v>88</v>
       </c>
       <c r="P125" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q125">
         <v>2.5</v>
@@ -27351,7 +27357,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27557,7 +27563,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27763,7 +27769,7 @@
         <v>181</v>
       </c>
       <c r="P128" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27969,7 +27975,7 @@
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q129">
         <v>3.3</v>
@@ -28999,7 +29005,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q134">
         <v>2.63</v>
@@ -29205,7 +29211,7 @@
         <v>88</v>
       </c>
       <c r="P135" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29617,7 +29623,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q137">
         <v>2.1</v>
@@ -29698,7 +29704,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ137">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR137">
         <v>1.71</v>
@@ -29823,7 +29829,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -30029,7 +30035,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q139">
         <v>2.1</v>
@@ -30647,7 +30653,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q142">
         <v>2.05</v>
@@ -30853,7 +30859,7 @@
         <v>88</v>
       </c>
       <c r="P143" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -31059,7 +31065,7 @@
         <v>158</v>
       </c>
       <c r="P144" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q144">
         <v>3.57</v>
@@ -31471,7 +31477,7 @@
         <v>88</v>
       </c>
       <c r="P146" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31883,7 +31889,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q148">
         <v>2.3</v>
@@ -32089,7 +32095,7 @@
         <v>88</v>
       </c>
       <c r="P149" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32373,7 +32379,7 @@
         <v>1.17</v>
       </c>
       <c r="AP150">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ150">
         <v>1.06</v>
@@ -32501,7 +32507,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q151">
         <v>3.3</v>
@@ -32707,7 +32713,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q152">
         <v>2.05</v>
@@ -32913,7 +32919,7 @@
         <v>119</v>
       </c>
       <c r="P153" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q153">
         <v>2.65</v>
@@ -33119,7 +33125,7 @@
         <v>195</v>
       </c>
       <c r="P154" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q154">
         <v>2.35</v>
@@ -33403,7 +33409,7 @@
         <v>0.88</v>
       </c>
       <c r="AP155">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ155">
         <v>0.6</v>
@@ -33943,7 +33949,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q158">
         <v>3.25</v>
@@ -34561,7 +34567,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q161">
         <v>2.91</v>
@@ -34767,7 +34773,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q162">
         <v>4.28</v>
@@ -34973,7 +34979,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q163">
         <v>3.75</v>
@@ -35179,7 +35185,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q164">
         <v>3.97</v>
@@ -35878,7 +35884,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ167">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR167">
         <v>2.01</v>
@@ -36081,7 +36087,7 @@
         <v>0.89</v>
       </c>
       <c r="AP168">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ168">
         <v>0.8</v>
@@ -36415,7 +36421,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q170">
         <v>2.65</v>
@@ -37033,7 +37039,7 @@
         <v>95</v>
       </c>
       <c r="P173" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q173">
         <v>2.5</v>
@@ -37111,7 +37117,7 @@
         <v>0.9</v>
       </c>
       <c r="AP173">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ173">
         <v>1.31</v>
@@ -37651,7 +37657,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q176">
         <v>3.4</v>
@@ -37857,7 +37863,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -37935,7 +37941,7 @@
         <v>1.78</v>
       </c>
       <c r="AP177">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ177">
         <v>1.67</v>
@@ -38063,7 +38069,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q178">
         <v>2.4</v>
@@ -38144,7 +38150,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ178">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR178">
         <v>1.61</v>
@@ -38269,7 +38275,7 @@
         <v>88</v>
       </c>
       <c r="P179" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q179">
         <v>3.98</v>
@@ -38553,7 +38559,7 @@
         <v>0.8</v>
       </c>
       <c r="AP180">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ180">
         <v>0.8</v>
@@ -38887,7 +38893,7 @@
         <v>179</v>
       </c>
       <c r="P182" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -39380,7 +39386,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ184">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR184">
         <v>1.81</v>
@@ -39505,7 +39511,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q185">
         <v>1.8</v>
@@ -39711,7 +39717,7 @@
         <v>88</v>
       </c>
       <c r="P186" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q186">
         <v>3.7</v>
@@ -39917,7 +39923,7 @@
         <v>214</v>
       </c>
       <c r="P187" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q187">
         <v>2.65</v>
@@ -40201,10 +40207,10 @@
         <v>1.1</v>
       </c>
       <c r="AP188">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ188">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR188">
         <v>1.61</v>
@@ -40329,7 +40335,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q189">
         <v>1.78</v>
@@ -40410,7 +40416,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ189">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR189">
         <v>1.94</v>
@@ -41153,7 +41159,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41565,7 +41571,7 @@
         <v>218</v>
       </c>
       <c r="P195" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -42058,7 +42064,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ197">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR197">
         <v>1.5</v>
@@ -42183,7 +42189,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42879,7 +42885,7 @@
         <v>0.91</v>
       </c>
       <c r="AP201">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ201">
         <v>0.9399999999999999</v>
@@ -43213,7 +43219,7 @@
         <v>223</v>
       </c>
       <c r="P203" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q203">
         <v>3.2</v>
@@ -44037,7 +44043,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -44115,7 +44121,7 @@
         <v>1.27</v>
       </c>
       <c r="AP207">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ207">
         <v>1.31</v>
@@ -44449,7 +44455,7 @@
         <v>229</v>
       </c>
       <c r="P209" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q209">
         <v>3.1</v>
@@ -44530,7 +44536,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ209">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR209">
         <v>1.61</v>
@@ -45067,7 +45073,7 @@
         <v>231</v>
       </c>
       <c r="P212" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q212">
         <v>2.7</v>
@@ -45273,7 +45279,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q213">
         <v>2.25</v>
@@ -45766,7 +45772,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ215">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR215">
         <v>1.08</v>
@@ -45969,7 +45975,7 @@
         <v>0.45</v>
       </c>
       <c r="AP216">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ216">
         <v>0.63</v>
@@ -46097,7 +46103,7 @@
         <v>88</v>
       </c>
       <c r="P217" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q217">
         <v>4.2</v>
@@ -46715,7 +46721,7 @@
         <v>234</v>
       </c>
       <c r="P220" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q220">
         <v>2.59</v>
@@ -46921,7 +46927,7 @@
         <v>88</v>
       </c>
       <c r="P221" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -47127,7 +47133,7 @@
         <v>213</v>
       </c>
       <c r="P222" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q222">
         <v>3.46</v>
@@ -47411,7 +47417,7 @@
         <v>0.42</v>
       </c>
       <c r="AP223">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ223">
         <v>0.63</v>
@@ -47539,7 +47545,7 @@
         <v>235</v>
       </c>
       <c r="P224" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q224">
         <v>3.6</v>
@@ -47951,7 +47957,7 @@
         <v>237</v>
       </c>
       <c r="P226" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q226">
         <v>2.35</v>
@@ -48157,7 +48163,7 @@
         <v>238</v>
       </c>
       <c r="P227" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q227">
         <v>1.85</v>
@@ -48444,7 +48450,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ228">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR228">
         <v>1.73</v>
@@ -48569,7 +48575,7 @@
         <v>240</v>
       </c>
       <c r="P229" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q229">
         <v>2.8</v>
@@ -48647,7 +48653,7 @@
         <v>2</v>
       </c>
       <c r="AP229">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ229">
         <v>1.81</v>
@@ -48856,7 +48862,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ230">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR230">
         <v>1.87</v>
@@ -49599,7 +49605,7 @@
         <v>244</v>
       </c>
       <c r="P234" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q234">
         <v>4.33</v>
@@ -49805,7 +49811,7 @@
         <v>112</v>
       </c>
       <c r="P235" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q235">
         <v>3.6</v>
@@ -50011,7 +50017,7 @@
         <v>245</v>
       </c>
       <c r="P236" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q236">
         <v>2</v>
@@ -50092,7 +50098,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ236">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR236">
         <v>1.79</v>
@@ -50913,7 +50919,7 @@
         <v>1.31</v>
       </c>
       <c r="AP240">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ240">
         <v>1.13</v>
@@ -51659,7 +51665,7 @@
         <v>251</v>
       </c>
       <c r="P244" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q244">
         <v>2.88</v>
@@ -52895,7 +52901,7 @@
         <v>255</v>
       </c>
       <c r="P250" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q250">
         <v>3.9</v>
@@ -53101,7 +53107,7 @@
         <v>256</v>
       </c>
       <c r="P251" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q251">
         <v>2.3</v>
@@ -53182,7 +53188,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ251">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR251">
         <v>1.83</v>
@@ -53591,7 +53597,7 @@
         <v>1.15</v>
       </c>
       <c r="AP253">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ253">
         <v>1.2</v>
@@ -54131,7 +54137,7 @@
         <v>88</v>
       </c>
       <c r="P256" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q256">
         <v>2.46</v>
@@ -54337,7 +54343,7 @@
         <v>260</v>
       </c>
       <c r="P257" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q257">
         <v>3.05</v>
@@ -54543,7 +54549,7 @@
         <v>261</v>
       </c>
       <c r="P258" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q258">
         <v>3.56</v>
@@ -54749,7 +54755,7 @@
         <v>88</v>
       </c>
       <c r="P259" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q259">
         <v>2.18</v>
@@ -54955,7 +54961,7 @@
         <v>262</v>
       </c>
       <c r="P260" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q260">
         <v>4.6</v>
@@ -55367,7 +55373,7 @@
         <v>263</v>
       </c>
       <c r="P262" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q262">
         <v>2.85</v>
@@ -55651,7 +55657,7 @@
         <v>1.21</v>
       </c>
       <c r="AP263">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AQ263">
         <v>1.13</v>
@@ -55779,7 +55785,7 @@
         <v>265</v>
       </c>
       <c r="P264" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q264">
         <v>2.61</v>
@@ -55985,7 +55991,7 @@
         <v>266</v>
       </c>
       <c r="P265" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q265">
         <v>2.1</v>
@@ -56066,7 +56072,7 @@
         <v>2</v>
       </c>
       <c r="AQ265">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="AR265">
         <v>1.48</v>
@@ -56191,7 +56197,7 @@
         <v>267</v>
       </c>
       <c r="P266" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q266">
         <v>2.7</v>
@@ -56269,7 +56275,7 @@
         <v>0.5</v>
       </c>
       <c r="AP266">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AQ266">
         <v>0.67</v>
@@ -56397,7 +56403,7 @@
         <v>88</v>
       </c>
       <c r="P267" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q267">
         <v>4.2</v>
@@ -56603,7 +56609,7 @@
         <v>268</v>
       </c>
       <c r="P268" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q268">
         <v>2.97</v>
@@ -56809,7 +56815,7 @@
         <v>269</v>
       </c>
       <c r="P269" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q269">
         <v>5.47</v>
@@ -57096,7 +57102,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ270">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR270">
         <v>1.62</v>
@@ -57839,7 +57845,7 @@
         <v>272</v>
       </c>
       <c r="P274" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q274">
         <v>4.2</v>
@@ -58251,7 +58257,7 @@
         <v>274</v>
       </c>
       <c r="P276" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q276">
         <v>4.76</v>
@@ -58869,7 +58875,7 @@
         <v>88</v>
       </c>
       <c r="P279" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q279">
         <v>2</v>
@@ -59232,6 +59238,418 @@
       </c>
       <c r="BP280">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:68">
+      <c r="A281" s="1">
+        <v>280</v>
+      </c>
+      <c r="B281">
+        <v>6469344</v>
+      </c>
+      <c r="C281" t="s">
+        <v>68</v>
+      </c>
+      <c r="D281" t="s">
+        <v>69</v>
+      </c>
+      <c r="E281" s="2">
+        <v>45422.54166666666</v>
+      </c>
+      <c r="F281">
+        <v>32</v>
+      </c>
+      <c r="G281" t="s">
+        <v>74</v>
+      </c>
+      <c r="H281" t="s">
+        <v>84</v>
+      </c>
+      <c r="I281">
+        <v>0</v>
+      </c>
+      <c r="J281">
+        <v>0</v>
+      </c>
+      <c r="K281">
+        <v>0</v>
+      </c>
+      <c r="L281">
+        <v>4</v>
+      </c>
+      <c r="M281">
+        <v>0</v>
+      </c>
+      <c r="N281">
+        <v>4</v>
+      </c>
+      <c r="O281" t="s">
+        <v>277</v>
+      </c>
+      <c r="P281" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q281">
+        <v>1.99</v>
+      </c>
+      <c r="R281">
+        <v>2.44</v>
+      </c>
+      <c r="S281">
+        <v>6.84</v>
+      </c>
+      <c r="T281">
+        <v>1.36</v>
+      </c>
+      <c r="U281">
+        <v>3.16</v>
+      </c>
+      <c r="V281">
+        <v>2.79</v>
+      </c>
+      <c r="W281">
+        <v>1.44</v>
+      </c>
+      <c r="X281">
+        <v>6.9</v>
+      </c>
+      <c r="Y281">
+        <v>1.08</v>
+      </c>
+      <c r="Z281">
+        <v>1.5</v>
+      </c>
+      <c r="AA281">
+        <v>4.33</v>
+      </c>
+      <c r="AB281">
+        <v>6</v>
+      </c>
+      <c r="AC281">
+        <v>1.01</v>
+      </c>
+      <c r="AD281">
+        <v>9.4</v>
+      </c>
+      <c r="AE281">
+        <v>1.26</v>
+      </c>
+      <c r="AF281">
+        <v>3.34</v>
+      </c>
+      <c r="AG281">
+        <v>1.86</v>
+      </c>
+      <c r="AH281">
+        <v>1.82</v>
+      </c>
+      <c r="AI281">
+        <v>1.99</v>
+      </c>
+      <c r="AJ281">
+        <v>1.73</v>
+      </c>
+      <c r="AK281">
+        <v>1.1</v>
+      </c>
+      <c r="AL281">
+        <v>1.21</v>
+      </c>
+      <c r="AM281">
+        <v>2.55</v>
+      </c>
+      <c r="AN281">
+        <v>1.6</v>
+      </c>
+      <c r="AO281">
+        <v>0.27</v>
+      </c>
+      <c r="AP281">
+        <v>1.69</v>
+      </c>
+      <c r="AQ281">
+        <v>0.25</v>
+      </c>
+      <c r="AR281">
+        <v>1.51</v>
+      </c>
+      <c r="AS281">
+        <v>1.21</v>
+      </c>
+      <c r="AT281">
+        <v>2.72</v>
+      </c>
+      <c r="AU281">
+        <v>10</v>
+      </c>
+      <c r="AV281">
+        <v>3</v>
+      </c>
+      <c r="AW281">
+        <v>8</v>
+      </c>
+      <c r="AX281">
+        <v>4</v>
+      </c>
+      <c r="AY281">
+        <v>18</v>
+      </c>
+      <c r="AZ281">
+        <v>7</v>
+      </c>
+      <c r="BA281">
+        <v>5</v>
+      </c>
+      <c r="BB281">
+        <v>5</v>
+      </c>
+      <c r="BC281">
+        <v>10</v>
+      </c>
+      <c r="BD281">
+        <v>1.29</v>
+      </c>
+      <c r="BE281">
+        <v>11</v>
+      </c>
+      <c r="BF281">
+        <v>3.9</v>
+      </c>
+      <c r="BG281">
+        <v>1.25</v>
+      </c>
+      <c r="BH281">
+        <v>3.6</v>
+      </c>
+      <c r="BI281">
+        <v>1.36</v>
+      </c>
+      <c r="BJ281">
+        <v>2.79</v>
+      </c>
+      <c r="BK281">
+        <v>1.64</v>
+      </c>
+      <c r="BL281">
+        <v>2.07</v>
+      </c>
+      <c r="BM281">
+        <v>2.09</v>
+      </c>
+      <c r="BN281">
+        <v>1.66</v>
+      </c>
+      <c r="BO281">
+        <v>2.71</v>
+      </c>
+      <c r="BP281">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="282" spans="1:68">
+      <c r="A282" s="1">
+        <v>281</v>
+      </c>
+      <c r="B282">
+        <v>6469349</v>
+      </c>
+      <c r="C282" t="s">
+        <v>68</v>
+      </c>
+      <c r="D282" t="s">
+        <v>69</v>
+      </c>
+      <c r="E282" s="2">
+        <v>45422.64583333334</v>
+      </c>
+      <c r="F282">
+        <v>32</v>
+      </c>
+      <c r="G282" t="s">
+        <v>81</v>
+      </c>
+      <c r="H282" t="s">
+        <v>87</v>
+      </c>
+      <c r="I282">
+        <v>3</v>
+      </c>
+      <c r="J282">
+        <v>0</v>
+      </c>
+      <c r="K282">
+        <v>3</v>
+      </c>
+      <c r="L282">
+        <v>4</v>
+      </c>
+      <c r="M282">
+        <v>0</v>
+      </c>
+      <c r="N282">
+        <v>4</v>
+      </c>
+      <c r="O282" t="s">
+        <v>278</v>
+      </c>
+      <c r="P282" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q282">
+        <v>2.95</v>
+      </c>
+      <c r="R282">
+        <v>2</v>
+      </c>
+      <c r="S282">
+        <v>3.6</v>
+      </c>
+      <c r="T282">
+        <v>1.45</v>
+      </c>
+      <c r="U282">
+        <v>2.55</v>
+      </c>
+      <c r="V282">
+        <v>3.1</v>
+      </c>
+      <c r="W282">
+        <v>1.33</v>
+      </c>
+      <c r="X282">
+        <v>8</v>
+      </c>
+      <c r="Y282">
+        <v>1.05</v>
+      </c>
+      <c r="Z282">
+        <v>2.3</v>
+      </c>
+      <c r="AA282">
+        <v>3.2</v>
+      </c>
+      <c r="AB282">
+        <v>3.1</v>
+      </c>
+      <c r="AC282">
+        <v>1.07</v>
+      </c>
+      <c r="AD282">
+        <v>8</v>
+      </c>
+      <c r="AE282">
+        <v>1.38</v>
+      </c>
+      <c r="AF282">
+        <v>3</v>
+      </c>
+      <c r="AG282">
+        <v>2.07</v>
+      </c>
+      <c r="AH282">
+        <v>1.66</v>
+      </c>
+      <c r="AI282">
+        <v>1.85</v>
+      </c>
+      <c r="AJ282">
+        <v>1.85</v>
+      </c>
+      <c r="AK282">
+        <v>1.36</v>
+      </c>
+      <c r="AL282">
+        <v>1.3</v>
+      </c>
+      <c r="AM282">
+        <v>1.57</v>
+      </c>
+      <c r="AN282">
+        <v>1.67</v>
+      </c>
+      <c r="AO282">
+        <v>1.13</v>
+      </c>
+      <c r="AP282">
+        <v>1.75</v>
+      </c>
+      <c r="AQ282">
+        <v>1.06</v>
+      </c>
+      <c r="AR282">
+        <v>1.67</v>
+      </c>
+      <c r="AS282">
+        <v>1.35</v>
+      </c>
+      <c r="AT282">
+        <v>3.02</v>
+      </c>
+      <c r="AU282">
+        <v>7</v>
+      </c>
+      <c r="AV282">
+        <v>2</v>
+      </c>
+      <c r="AW282">
+        <v>1</v>
+      </c>
+      <c r="AX282">
+        <v>2</v>
+      </c>
+      <c r="AY282">
+        <v>8</v>
+      </c>
+      <c r="AZ282">
+        <v>4</v>
+      </c>
+      <c r="BA282">
+        <v>4</v>
+      </c>
+      <c r="BB282">
+        <v>3</v>
+      </c>
+      <c r="BC282">
+        <v>7</v>
+      </c>
+      <c r="BD282">
+        <v>1.79</v>
+      </c>
+      <c r="BE282">
+        <v>8.6</v>
+      </c>
+      <c r="BF282">
+        <v>2.32</v>
+      </c>
+      <c r="BG282">
+        <v>1.24</v>
+      </c>
+      <c r="BH282">
+        <v>3.48</v>
+      </c>
+      <c r="BI282">
+        <v>1.48</v>
+      </c>
+      <c r="BJ282">
+        <v>2.58</v>
+      </c>
+      <c r="BK282">
+        <v>1.81</v>
+      </c>
+      <c r="BL282">
+        <v>1.99</v>
+      </c>
+      <c r="BM282">
+        <v>2.27</v>
+      </c>
+      <c r="BN282">
+        <v>1.61</v>
+      </c>
+      <c r="BO282">
+        <v>3.08</v>
+      </c>
+      <c r="BP282">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="397">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -853,6 +853,15 @@
     <t>['2', '34', '43', '88']</t>
   </si>
   <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['7', '34', '90+2']</t>
+  </si>
+  <si>
+    <t>['8', '20']</t>
+  </si>
+  <si>
     <t>['36']</t>
   </si>
   <si>
@@ -1193,6 +1202,9 @@
   </si>
   <si>
     <t>['66', '73', '79']</t>
+  </si>
+  <si>
+    <t>['74']</t>
   </si>
 </sst>
 </file>
@@ -1554,7 +1566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP282"/>
+  <dimension ref="A1:BP285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1813,7 +1825,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q2">
         <v>4.33</v>
@@ -1894,7 +1906,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ2">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2225,7 +2237,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2509,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ5">
         <v>1.44</v>
@@ -2637,7 +2649,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2843,7 +2855,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2921,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ7">
         <v>1.31</v>
@@ -3255,7 +3267,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3461,7 +3473,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q10">
         <v>3.2</v>
@@ -4079,7 +4091,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q13">
         <v>2.53</v>
@@ -4157,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ13">
         <v>0.63</v>
@@ -4285,7 +4297,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -5109,7 +5121,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q18">
         <v>2.85</v>
@@ -5187,7 +5199,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ18">
         <v>0.9399999999999999</v>
@@ -5396,7 +5408,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ19">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5521,7 +5533,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q20">
         <v>1.82</v>
@@ -5599,7 +5611,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ20">
         <v>1.13</v>
@@ -5805,7 +5817,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ21">
         <v>0.9399999999999999</v>
@@ -6139,7 +6151,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6632,7 +6644,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ25">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6963,7 +6975,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q27">
         <v>4.2</v>
@@ -7375,7 +7387,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q29">
         <v>2.95</v>
@@ -7787,7 +7799,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q31">
         <v>2.3</v>
@@ -7993,7 +8005,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -8199,7 +8211,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q33">
         <v>2.6</v>
@@ -8611,7 +8623,7 @@
         <v>99</v>
       </c>
       <c r="P35" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8689,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ35">
         <v>0.9399999999999999</v>
@@ -8817,7 +8829,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -9101,10 +9113,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ37">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR37">
         <v>1.7</v>
@@ -9516,7 +9528,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ39">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR39">
         <v>1.16</v>
@@ -9928,7 +9940,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ41">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR41">
         <v>2.18</v>
@@ -10465,7 +10477,7 @@
         <v>88</v>
       </c>
       <c r="P44" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="Q44">
         <v>2.7</v>
@@ -10877,7 +10889,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -11495,7 +11507,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11573,7 +11585,7 @@
         <v>1.5</v>
       </c>
       <c r="AP49">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ49">
         <v>1.31</v>
@@ -11701,7 +11713,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q50">
         <v>2.15</v>
@@ -11907,7 +11919,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -12194,7 +12206,7 @@
         <v>1</v>
       </c>
       <c r="AQ52">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR52">
         <v>1.57</v>
@@ -12606,7 +12618,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ54">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR54">
         <v>1.7</v>
@@ -13224,7 +13236,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ57">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR57">
         <v>1.95</v>
@@ -13633,7 +13645,7 @@
         <v>0</v>
       </c>
       <c r="AP59">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ59">
         <v>0.63</v>
@@ -13761,7 +13773,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -14045,7 +14057,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ61">
         <v>0.67</v>
@@ -14173,7 +14185,7 @@
         <v>133</v>
       </c>
       <c r="P62" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q62">
         <v>2.3</v>
@@ -14254,7 +14266,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ62">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR62">
         <v>1.74</v>
@@ -14457,7 +14469,7 @@
         <v>0</v>
       </c>
       <c r="AP63">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ63">
         <v>0.25</v>
@@ -14791,7 +14803,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14869,7 +14881,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ65">
         <v>1.31</v>
@@ -15203,7 +15215,7 @@
         <v>88</v>
       </c>
       <c r="P67" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q67">
         <v>4.75</v>
@@ -15409,7 +15421,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15615,7 +15627,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15821,7 +15833,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -16439,7 +16451,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16520,7 +16532,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ73">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR73">
         <v>1.68</v>
@@ -16645,7 +16657,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q74">
         <v>1.75</v>
@@ -16726,7 +16738,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ74">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR74">
         <v>1.84</v>
@@ -17057,7 +17069,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17263,7 +17275,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="Q77">
         <v>2.04</v>
@@ -17469,7 +17481,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="Q78">
         <v>3.05</v>
@@ -17881,7 +17893,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17962,7 +17974,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ80">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR80">
         <v>1.31</v>
@@ -18087,7 +18099,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -18293,7 +18305,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="Q82">
         <v>3.3</v>
@@ -18499,7 +18511,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18989,7 +19001,7 @@
         <v>1.2</v>
       </c>
       <c r="AP85">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ85">
         <v>1.31</v>
@@ -19401,7 +19413,7 @@
         <v>1.67</v>
       </c>
       <c r="AP87">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ87">
         <v>1.53</v>
@@ -19529,7 +19541,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19607,7 +19619,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ88">
         <v>1.2</v>
@@ -20434,7 +20446,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ92">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR92">
         <v>1.58</v>
@@ -20765,7 +20777,7 @@
         <v>88</v>
       </c>
       <c r="P94" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q94">
         <v>3.75</v>
@@ -20846,7 +20858,7 @@
         <v>1</v>
       </c>
       <c r="AQ94">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR94">
         <v>1.63</v>
@@ -21177,7 +21189,7 @@
         <v>159</v>
       </c>
       <c r="P96" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21383,7 +21395,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21670,7 +21682,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ98">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR98">
         <v>1.69</v>
@@ -21873,7 +21885,7 @@
         <v>1.2</v>
       </c>
       <c r="AP99">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ99">
         <v>1.2</v>
@@ -22001,7 +22013,7 @@
         <v>105</v>
       </c>
       <c r="P100" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22413,7 +22425,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -22700,7 +22712,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ103">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR103">
         <v>1.8</v>
@@ -22903,7 +22915,7 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ104">
         <v>1.06</v>
@@ -23237,7 +23249,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Q106">
         <v>1.7</v>
@@ -23443,7 +23455,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23649,7 +23661,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="Q108">
         <v>3.2</v>
@@ -23855,7 +23867,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -24061,7 +24073,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="Q110">
         <v>2.45</v>
@@ -24473,7 +24485,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="Q112">
         <v>3.3</v>
@@ -24679,7 +24691,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q113">
         <v>2.9</v>
@@ -24885,7 +24897,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q114">
         <v>1.85</v>
@@ -24966,7 +24978,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ114">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR114">
         <v>2.12</v>
@@ -25169,7 +25181,7 @@
         <v>0.33</v>
       </c>
       <c r="AP115">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ115">
         <v>0.9399999999999999</v>
@@ -25378,7 +25390,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ116">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR116">
         <v>1.61</v>
@@ -25581,10 +25593,10 @@
         <v>0.67</v>
       </c>
       <c r="AP117">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ117">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR117">
         <v>1.61</v>
@@ -25709,7 +25721,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q118">
         <v>4.33</v>
@@ -25790,7 +25802,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ118">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR118">
         <v>1.32</v>
@@ -26611,7 +26623,7 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ122">
         <v>1.2</v>
@@ -27023,7 +27035,7 @@
         <v>1.5</v>
       </c>
       <c r="AP124">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ124">
         <v>1.06</v>
@@ -27151,7 +27163,7 @@
         <v>88</v>
       </c>
       <c r="P125" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="Q125">
         <v>2.5</v>
@@ -27357,7 +27369,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27563,7 +27575,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27769,7 +27781,7 @@
         <v>181</v>
       </c>
       <c r="P128" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27975,7 +27987,7 @@
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="Q129">
         <v>3.3</v>
@@ -29005,7 +29017,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="Q134">
         <v>2.63</v>
@@ -29211,7 +29223,7 @@
         <v>88</v>
       </c>
       <c r="P135" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29495,7 +29507,7 @@
         <v>0.88</v>
       </c>
       <c r="AP136">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ136">
         <v>0.9399999999999999</v>
@@ -29623,7 +29635,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="Q137">
         <v>2.1</v>
@@ -29701,7 +29713,7 @@
         <v>1.29</v>
       </c>
       <c r="AP137">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ137">
         <v>1.06</v>
@@ -29829,7 +29841,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -29910,7 +29922,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ138">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR138">
         <v>1.89</v>
@@ -30035,7 +30047,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q139">
         <v>2.1</v>
@@ -30528,7 +30540,7 @@
         <v>1</v>
       </c>
       <c r="AQ141">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR141">
         <v>1.51</v>
@@ -30653,7 +30665,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q142">
         <v>2.05</v>
@@ -30859,7 +30871,7 @@
         <v>88</v>
       </c>
       <c r="P143" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -31065,7 +31077,7 @@
         <v>158</v>
       </c>
       <c r="P144" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q144">
         <v>3.57</v>
@@ -31349,10 +31361,10 @@
         <v>1.86</v>
       </c>
       <c r="AP145">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ145">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR145">
         <v>1.43</v>
@@ -31477,7 +31489,7 @@
         <v>88</v>
       </c>
       <c r="P146" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31889,7 +31901,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q148">
         <v>2.3</v>
@@ -32095,7 +32107,7 @@
         <v>88</v>
       </c>
       <c r="P149" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32507,7 +32519,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Q151">
         <v>3.3</v>
@@ -32713,7 +32725,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="Q152">
         <v>2.05</v>
@@ -32919,7 +32931,7 @@
         <v>119</v>
       </c>
       <c r="P153" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q153">
         <v>2.65</v>
@@ -33125,7 +33137,7 @@
         <v>195</v>
       </c>
       <c r="P154" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="Q154">
         <v>2.35</v>
@@ -33206,7 +33218,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ154">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR154">
         <v>1.85</v>
@@ -33412,7 +33424,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ155">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR155">
         <v>1.61</v>
@@ -33949,7 +33961,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Q158">
         <v>3.25</v>
@@ -34027,7 +34039,7 @@
         <v>1.14</v>
       </c>
       <c r="AP158">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ158">
         <v>1.06</v>
@@ -34439,7 +34451,7 @@
         <v>1.44</v>
       </c>
       <c r="AP160">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ160">
         <v>1.13</v>
@@ -34567,7 +34579,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="Q161">
         <v>2.91</v>
@@ -34773,7 +34785,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q162">
         <v>4.28</v>
@@ -34979,7 +34991,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="Q163">
         <v>3.75</v>
@@ -35060,7 +35072,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ163">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR163">
         <v>1.78</v>
@@ -35185,7 +35197,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="Q164">
         <v>3.97</v>
@@ -35675,10 +35687,10 @@
         <v>0.89</v>
       </c>
       <c r="AP166">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ166">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR166">
         <v>1.74</v>
@@ -36090,7 +36102,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ168">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR168">
         <v>1.52</v>
@@ -36421,7 +36433,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="Q170">
         <v>2.65</v>
@@ -37039,7 +37051,7 @@
         <v>95</v>
       </c>
       <c r="P173" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="Q173">
         <v>2.5</v>
@@ -37657,7 +37669,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="Q176">
         <v>3.4</v>
@@ -37863,7 +37875,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -37944,7 +37956,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ177">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR177">
         <v>1.61</v>
@@ -38069,7 +38081,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="Q178">
         <v>2.4</v>
@@ -38275,7 +38287,7 @@
         <v>88</v>
       </c>
       <c r="P179" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="Q179">
         <v>3.98</v>
@@ -38356,7 +38368,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ179">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR179">
         <v>1.65</v>
@@ -38562,7 +38574,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ180">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR180">
         <v>1.67</v>
@@ -38893,7 +38905,7 @@
         <v>179</v>
       </c>
       <c r="P182" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -38971,7 +38983,7 @@
         <v>1.44</v>
       </c>
       <c r="AP182">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ182">
         <v>1.31</v>
@@ -39177,7 +39189,7 @@
         <v>1.1</v>
       </c>
       <c r="AP183">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ183">
         <v>0.9399999999999999</v>
@@ -39511,7 +39523,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="Q185">
         <v>1.8</v>
@@ -39717,7 +39729,7 @@
         <v>88</v>
       </c>
       <c r="P186" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="Q186">
         <v>3.7</v>
@@ -39923,7 +39935,7 @@
         <v>214</v>
       </c>
       <c r="P187" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="Q187">
         <v>2.65</v>
@@ -40001,10 +40013,10 @@
         <v>0.8</v>
       </c>
       <c r="AP187">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ187">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR187">
         <v>1.49</v>
@@ -40335,7 +40347,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="Q189">
         <v>1.78</v>
@@ -40619,7 +40631,7 @@
         <v>0.5</v>
       </c>
       <c r="AP190">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ190">
         <v>0.67</v>
@@ -41159,7 +41171,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41571,7 +41583,7 @@
         <v>218</v>
       </c>
       <c r="P195" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -42189,7 +42201,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42679,7 +42691,7 @@
         <v>1.45</v>
       </c>
       <c r="AP200">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ200">
         <v>1.44</v>
@@ -43094,7 +43106,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ202">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR202">
         <v>2.02</v>
@@ -43219,7 +43231,7 @@
         <v>223</v>
       </c>
       <c r="P203" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Q203">
         <v>3.2</v>
@@ -43506,7 +43518,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ204">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR204">
         <v>1.79</v>
@@ -43709,7 +43721,7 @@
         <v>1.6</v>
       </c>
       <c r="AP205">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ205">
         <v>1.31</v>
@@ -43918,7 +43930,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ206">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR206">
         <v>1.56</v>
@@ -44043,7 +44055,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -44327,7 +44339,7 @@
         <v>2.18</v>
       </c>
       <c r="AP208">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ208">
         <v>1.81</v>
@@ -44455,7 +44467,7 @@
         <v>229</v>
       </c>
       <c r="P209" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="Q209">
         <v>3.1</v>
@@ -44945,7 +44957,7 @@
         <v>1.45</v>
       </c>
       <c r="AP211">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ211">
         <v>1.31</v>
@@ -45073,7 +45085,7 @@
         <v>231</v>
       </c>
       <c r="P212" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="Q212">
         <v>2.7</v>
@@ -45279,7 +45291,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q213">
         <v>2.25</v>
@@ -46103,7 +46115,7 @@
         <v>88</v>
       </c>
       <c r="P217" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q217">
         <v>4.2</v>
@@ -46390,7 +46402,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ218">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR218">
         <v>1.72</v>
@@ -46721,7 +46733,7 @@
         <v>234</v>
       </c>
       <c r="P220" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="Q220">
         <v>2.59</v>
@@ -46927,7 +46939,7 @@
         <v>88</v>
       </c>
       <c r="P221" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -47133,7 +47145,7 @@
         <v>213</v>
       </c>
       <c r="P222" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="Q222">
         <v>3.46</v>
@@ -47545,7 +47557,7 @@
         <v>235</v>
       </c>
       <c r="P224" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="Q224">
         <v>3.6</v>
@@ -47626,7 +47638,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ224">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR224">
         <v>1.6</v>
@@ -47957,7 +47969,7 @@
         <v>237</v>
       </c>
       <c r="P226" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="Q226">
         <v>2.35</v>
@@ -48163,7 +48175,7 @@
         <v>238</v>
       </c>
       <c r="P227" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q227">
         <v>1.85</v>
@@ -48241,7 +48253,7 @@
         <v>0.5</v>
       </c>
       <c r="AP227">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ227">
         <v>0.67</v>
@@ -48447,7 +48459,7 @@
         <v>0.25</v>
       </c>
       <c r="AP228">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ228">
         <v>0.25</v>
@@ -48575,7 +48587,7 @@
         <v>240</v>
       </c>
       <c r="P229" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="Q229">
         <v>2.8</v>
@@ -49480,7 +49492,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ233">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR233">
         <v>1.68</v>
@@ -49605,7 +49617,7 @@
         <v>244</v>
       </c>
       <c r="P234" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q234">
         <v>4.33</v>
@@ -49683,7 +49695,7 @@
         <v>1.33</v>
       </c>
       <c r="AP234">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ234">
         <v>1.53</v>
@@ -49811,7 +49823,7 @@
         <v>112</v>
       </c>
       <c r="P235" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="Q235">
         <v>3.6</v>
@@ -50017,7 +50029,7 @@
         <v>245</v>
       </c>
       <c r="P236" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q236">
         <v>2</v>
@@ -50510,7 +50522,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ238">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR238">
         <v>1.58</v>
@@ -51334,7 +51346,7 @@
         <v>2.07</v>
       </c>
       <c r="AQ242">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR242">
         <v>1.65</v>
@@ -51665,7 +51677,7 @@
         <v>251</v>
       </c>
       <c r="P244" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q244">
         <v>2.88</v>
@@ -51952,7 +51964,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ245">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR245">
         <v>1.17</v>
@@ -52773,7 +52785,7 @@
         <v>1.46</v>
       </c>
       <c r="AP249">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ249">
         <v>1.53</v>
@@ -52901,7 +52913,7 @@
         <v>255</v>
       </c>
       <c r="P250" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="Q250">
         <v>3.9</v>
@@ -53107,7 +53119,7 @@
         <v>256</v>
       </c>
       <c r="P251" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q251">
         <v>2.3</v>
@@ -53185,7 +53197,7 @@
         <v>1</v>
       </c>
       <c r="AP251">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ251">
         <v>1.06</v>
@@ -53391,7 +53403,7 @@
         <v>1.92</v>
       </c>
       <c r="AP252">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ252">
         <v>1.81</v>
@@ -54009,7 +54021,7 @@
         <v>1.29</v>
       </c>
       <c r="AP255">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="AQ255">
         <v>1.31</v>
@@ -54137,7 +54149,7 @@
         <v>88</v>
       </c>
       <c r="P256" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="Q256">
         <v>2.46</v>
@@ -54343,7 +54355,7 @@
         <v>260</v>
       </c>
       <c r="P257" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="Q257">
         <v>3.05</v>
@@ -54549,7 +54561,7 @@
         <v>261</v>
       </c>
       <c r="P258" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q258">
         <v>3.56</v>
@@ -54755,7 +54767,7 @@
         <v>88</v>
       </c>
       <c r="P259" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="Q259">
         <v>2.18</v>
@@ -54961,7 +54973,7 @@
         <v>262</v>
       </c>
       <c r="P260" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="Q260">
         <v>4.6</v>
@@ -55373,7 +55385,7 @@
         <v>263</v>
       </c>
       <c r="P262" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="Q262">
         <v>2.85</v>
@@ -55454,7 +55466,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ262">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR262">
         <v>1.18</v>
@@ -55785,7 +55797,7 @@
         <v>265</v>
       </c>
       <c r="P264" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="Q264">
         <v>2.61</v>
@@ -55863,10 +55875,10 @@
         <v>1.71</v>
       </c>
       <c r="AP264">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ264">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AR264">
         <v>1.84</v>
@@ -55991,7 +56003,7 @@
         <v>266</v>
       </c>
       <c r="P265" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q265">
         <v>2.1</v>
@@ -56069,7 +56081,7 @@
         <v>0.29</v>
       </c>
       <c r="AP265">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AQ265">
         <v>0.25</v>
@@ -56197,7 +56209,7 @@
         <v>267</v>
       </c>
       <c r="P266" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q266">
         <v>2.7</v>
@@ -56403,7 +56415,7 @@
         <v>88</v>
       </c>
       <c r="P267" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q267">
         <v>4.2</v>
@@ -56609,7 +56621,7 @@
         <v>268</v>
       </c>
       <c r="P268" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q268">
         <v>2.97</v>
@@ -56815,7 +56827,7 @@
         <v>269</v>
       </c>
       <c r="P269" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="Q269">
         <v>5.47</v>
@@ -57308,7 +57320,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ271">
-        <v>0.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR271">
         <v>1.3</v>
@@ -57845,7 +57857,7 @@
         <v>272</v>
       </c>
       <c r="P274" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="Q274">
         <v>4.2</v>
@@ -58257,7 +58269,7 @@
         <v>274</v>
       </c>
       <c r="P276" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="Q276">
         <v>4.76</v>
@@ -58875,7 +58887,7 @@
         <v>88</v>
       </c>
       <c r="P279" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q279">
         <v>2</v>
@@ -59650,6 +59662,624 @@
       </c>
       <c r="BP282">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:68">
+      <c r="A283" s="1">
+        <v>282</v>
+      </c>
+      <c r="B283">
+        <v>6469341</v>
+      </c>
+      <c r="C283" t="s">
+        <v>68</v>
+      </c>
+      <c r="D283" t="s">
+        <v>69</v>
+      </c>
+      <c r="E283" s="2">
+        <v>45423.41666666666</v>
+      </c>
+      <c r="F283">
+        <v>32</v>
+      </c>
+      <c r="G283" t="s">
+        <v>75</v>
+      </c>
+      <c r="H283" t="s">
+        <v>72</v>
+      </c>
+      <c r="I283">
+        <v>0</v>
+      </c>
+      <c r="J283">
+        <v>0</v>
+      </c>
+      <c r="K283">
+        <v>0</v>
+      </c>
+      <c r="L283">
+        <v>1</v>
+      </c>
+      <c r="M283">
+        <v>1</v>
+      </c>
+      <c r="N283">
+        <v>2</v>
+      </c>
+      <c r="O283" t="s">
+        <v>279</v>
+      </c>
+      <c r="P283" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q283">
+        <v>2.13</v>
+      </c>
+      <c r="R283">
+        <v>2.27</v>
+      </c>
+      <c r="S283">
+        <v>5.1</v>
+      </c>
+      <c r="T283">
+        <v>1.34</v>
+      </c>
+      <c r="U283">
+        <v>3.1</v>
+      </c>
+      <c r="V283">
+        <v>2.6</v>
+      </c>
+      <c r="W283">
+        <v>1.46</v>
+      </c>
+      <c r="X283">
+        <v>6.25</v>
+      </c>
+      <c r="Y283">
+        <v>1.1</v>
+      </c>
+      <c r="Z283">
+        <v>1.5</v>
+      </c>
+      <c r="AA283">
+        <v>3.8</v>
+      </c>
+      <c r="AB283">
+        <v>5.25</v>
+      </c>
+      <c r="AC283">
+        <v>1.01</v>
+      </c>
+      <c r="AD283">
+        <v>10.25</v>
+      </c>
+      <c r="AE283">
+        <v>1.22</v>
+      </c>
+      <c r="AF283">
+        <v>3.65</v>
+      </c>
+      <c r="AG283">
+        <v>1.73</v>
+      </c>
+      <c r="AH283">
+        <v>2</v>
+      </c>
+      <c r="AI283">
+        <v>1.78</v>
+      </c>
+      <c r="AJ283">
+        <v>1.93</v>
+      </c>
+      <c r="AK283">
+        <v>1.15</v>
+      </c>
+      <c r="AL283">
+        <v>1.22</v>
+      </c>
+      <c r="AM283">
+        <v>2.26</v>
+      </c>
+      <c r="AN283">
+        <v>2</v>
+      </c>
+      <c r="AO283">
+        <v>0.8</v>
+      </c>
+      <c r="AP283">
+        <v>1.94</v>
+      </c>
+      <c r="AQ283">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR283">
+        <v>1.51</v>
+      </c>
+      <c r="AS283">
+        <v>1.07</v>
+      </c>
+      <c r="AT283">
+        <v>2.58</v>
+      </c>
+      <c r="AU283">
+        <v>6</v>
+      </c>
+      <c r="AV283">
+        <v>6</v>
+      </c>
+      <c r="AW283">
+        <v>6</v>
+      </c>
+      <c r="AX283">
+        <v>4</v>
+      </c>
+      <c r="AY283">
+        <v>12</v>
+      </c>
+      <c r="AZ283">
+        <v>10</v>
+      </c>
+      <c r="BA283">
+        <v>7</v>
+      </c>
+      <c r="BB283">
+        <v>4</v>
+      </c>
+      <c r="BC283">
+        <v>11</v>
+      </c>
+      <c r="BD283">
+        <v>1.37</v>
+      </c>
+      <c r="BE283">
+        <v>9.5</v>
+      </c>
+      <c r="BF283">
+        <v>3.69</v>
+      </c>
+      <c r="BG283">
+        <v>1.2</v>
+      </c>
+      <c r="BH283">
+        <v>3.75</v>
+      </c>
+      <c r="BI283">
+        <v>1.35</v>
+      </c>
+      <c r="BJ283">
+        <v>2.84</v>
+      </c>
+      <c r="BK283">
+        <v>1.73</v>
+      </c>
+      <c r="BL283">
+        <v>2</v>
+      </c>
+      <c r="BM283">
+        <v>2.08</v>
+      </c>
+      <c r="BN283">
+        <v>1.73</v>
+      </c>
+      <c r="BO283">
+        <v>2.64</v>
+      </c>
+      <c r="BP283">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:68">
+      <c r="A284" s="1">
+        <v>283</v>
+      </c>
+      <c r="B284">
+        <v>6469342</v>
+      </c>
+      <c r="C284" t="s">
+        <v>68</v>
+      </c>
+      <c r="D284" t="s">
+        <v>69</v>
+      </c>
+      <c r="E284" s="2">
+        <v>45423.52083333334</v>
+      </c>
+      <c r="F284">
+        <v>32</v>
+      </c>
+      <c r="G284" t="s">
+        <v>80</v>
+      </c>
+      <c r="H284" t="s">
+        <v>78</v>
+      </c>
+      <c r="I284">
+        <v>2</v>
+      </c>
+      <c r="J284">
+        <v>0</v>
+      </c>
+      <c r="K284">
+        <v>2</v>
+      </c>
+      <c r="L284">
+        <v>3</v>
+      </c>
+      <c r="M284">
+        <v>0</v>
+      </c>
+      <c r="N284">
+        <v>3</v>
+      </c>
+      <c r="O284" t="s">
+        <v>280</v>
+      </c>
+      <c r="P284" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q284">
+        <v>2.07</v>
+      </c>
+      <c r="R284">
+        <v>2.6</v>
+      </c>
+      <c r="S284">
+        <v>5.24</v>
+      </c>
+      <c r="T284">
+        <v>1.28</v>
+      </c>
+      <c r="U284">
+        <v>3.44</v>
+      </c>
+      <c r="V284">
+        <v>2.32</v>
+      </c>
+      <c r="W284">
+        <v>1.61</v>
+      </c>
+      <c r="X284">
+        <v>5.4</v>
+      </c>
+      <c r="Y284">
+        <v>1.13</v>
+      </c>
+      <c r="Z284">
+        <v>1.59</v>
+      </c>
+      <c r="AA284">
+        <v>3.8</v>
+      </c>
+      <c r="AB284">
+        <v>4.7</v>
+      </c>
+      <c r="AC284">
+        <v>1.04</v>
+      </c>
+      <c r="AD284">
+        <v>10</v>
+      </c>
+      <c r="AE284">
+        <v>1.16</v>
+      </c>
+      <c r="AF284">
+        <v>4.35</v>
+      </c>
+      <c r="AG284">
+        <v>1.65</v>
+      </c>
+      <c r="AH284">
+        <v>2.1</v>
+      </c>
+      <c r="AI284">
+        <v>1.64</v>
+      </c>
+      <c r="AJ284">
+        <v>2.12</v>
+      </c>
+      <c r="AK284">
+        <v>1.16</v>
+      </c>
+      <c r="AL284">
+        <v>1.21</v>
+      </c>
+      <c r="AM284">
+        <v>2.26</v>
+      </c>
+      <c r="AN284">
+        <v>2.2</v>
+      </c>
+      <c r="AO284">
+        <v>0.6</v>
+      </c>
+      <c r="AP284">
+        <v>2.25</v>
+      </c>
+      <c r="AQ284">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR284">
+        <v>1.83</v>
+      </c>
+      <c r="AS284">
+        <v>1.35</v>
+      </c>
+      <c r="AT284">
+        <v>3.18</v>
+      </c>
+      <c r="AU284">
+        <v>5</v>
+      </c>
+      <c r="AV284">
+        <v>7</v>
+      </c>
+      <c r="AW284">
+        <v>3</v>
+      </c>
+      <c r="AX284">
+        <v>6</v>
+      </c>
+      <c r="AY284">
+        <v>8</v>
+      </c>
+      <c r="AZ284">
+        <v>13</v>
+      </c>
+      <c r="BA284">
+        <v>3</v>
+      </c>
+      <c r="BB284">
+        <v>2</v>
+      </c>
+      <c r="BC284">
+        <v>5</v>
+      </c>
+      <c r="BD284">
+        <v>1.51</v>
+      </c>
+      <c r="BE284">
+        <v>8.5</v>
+      </c>
+      <c r="BF284">
+        <v>3.07</v>
+      </c>
+      <c r="BG284">
+        <v>1.18</v>
+      </c>
+      <c r="BH284">
+        <v>3.95</v>
+      </c>
+      <c r="BI284">
+        <v>1.3</v>
+      </c>
+      <c r="BJ284">
+        <v>3.08</v>
+      </c>
+      <c r="BK284">
+        <v>1.55</v>
+      </c>
+      <c r="BL284">
+        <v>2.37</v>
+      </c>
+      <c r="BM284">
+        <v>2.05</v>
+      </c>
+      <c r="BN284">
+        <v>1.7</v>
+      </c>
+      <c r="BO284">
+        <v>2.41</v>
+      </c>
+      <c r="BP284">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="285" spans="1:68">
+      <c r="A285" s="1">
+        <v>284</v>
+      </c>
+      <c r="B285">
+        <v>6469347</v>
+      </c>
+      <c r="C285" t="s">
+        <v>68</v>
+      </c>
+      <c r="D285" t="s">
+        <v>69</v>
+      </c>
+      <c r="E285" s="2">
+        <v>45423.625</v>
+      </c>
+      <c r="F285">
+        <v>32</v>
+      </c>
+      <c r="G285" t="s">
+        <v>73</v>
+      </c>
+      <c r="H285" t="s">
+        <v>83</v>
+      </c>
+      <c r="I285">
+        <v>2</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+      <c r="K285">
+        <v>2</v>
+      </c>
+      <c r="L285">
+        <v>2</v>
+      </c>
+      <c r="M285">
+        <v>1</v>
+      </c>
+      <c r="N285">
+        <v>3</v>
+      </c>
+      <c r="O285" t="s">
+        <v>281</v>
+      </c>
+      <c r="P285" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q285">
+        <v>2.4</v>
+      </c>
+      <c r="R285">
+        <v>2.25</v>
+      </c>
+      <c r="S285">
+        <v>4</v>
+      </c>
+      <c r="T285">
+        <v>1.32</v>
+      </c>
+      <c r="U285">
+        <v>3.1</v>
+      </c>
+      <c r="V285">
+        <v>2.5</v>
+      </c>
+      <c r="W285">
+        <v>1.45</v>
+      </c>
+      <c r="X285">
+        <v>5.3</v>
+      </c>
+      <c r="Y285">
+        <v>1.12</v>
+      </c>
+      <c r="Z285">
+        <v>1.85</v>
+      </c>
+      <c r="AA285">
+        <v>3.55</v>
+      </c>
+      <c r="AB285">
+        <v>3.85</v>
+      </c>
+      <c r="AC285">
+        <v>1.04</v>
+      </c>
+      <c r="AD285">
+        <v>12</v>
+      </c>
+      <c r="AE285">
+        <v>1.16</v>
+      </c>
+      <c r="AF285">
+        <v>4.4</v>
+      </c>
+      <c r="AG285">
+        <v>1.66</v>
+      </c>
+      <c r="AH285">
+        <v>2.07</v>
+      </c>
+      <c r="AI285">
+        <v>1.55</v>
+      </c>
+      <c r="AJ285">
+        <v>2.25</v>
+      </c>
+      <c r="AK285">
+        <v>1.22</v>
+      </c>
+      <c r="AL285">
+        <v>1.27</v>
+      </c>
+      <c r="AM285">
+        <v>1.8</v>
+      </c>
+      <c r="AN285">
+        <v>2.13</v>
+      </c>
+      <c r="AO285">
+        <v>1.67</v>
+      </c>
+      <c r="AP285">
+        <v>2.19</v>
+      </c>
+      <c r="AQ285">
+        <v>1.56</v>
+      </c>
+      <c r="AR285">
+        <v>1.66</v>
+      </c>
+      <c r="AS285">
+        <v>1.6</v>
+      </c>
+      <c r="AT285">
+        <v>3.26</v>
+      </c>
+      <c r="AU285">
+        <v>6</v>
+      </c>
+      <c r="AV285">
+        <v>2</v>
+      </c>
+      <c r="AW285">
+        <v>4</v>
+      </c>
+      <c r="AX285">
+        <v>5</v>
+      </c>
+      <c r="AY285">
+        <v>10</v>
+      </c>
+      <c r="AZ285">
+        <v>7</v>
+      </c>
+      <c r="BA285">
+        <v>3</v>
+      </c>
+      <c r="BB285">
+        <v>3</v>
+      </c>
+      <c r="BC285">
+        <v>6</v>
+      </c>
+      <c r="BD285">
+        <v>1.59</v>
+      </c>
+      <c r="BE285">
+        <v>8.5</v>
+      </c>
+      <c r="BF285">
+        <v>2.89</v>
+      </c>
+      <c r="BG285">
+        <v>1.2</v>
+      </c>
+      <c r="BH285">
+        <v>3.75</v>
+      </c>
+      <c r="BI285">
+        <v>1.33</v>
+      </c>
+      <c r="BJ285">
+        <v>2.93</v>
+      </c>
+      <c r="BK285">
+        <v>1.73</v>
+      </c>
+      <c r="BL285">
+        <v>2</v>
+      </c>
+      <c r="BM285">
+        <v>2.05</v>
+      </c>
+      <c r="BN285">
+        <v>1.7</v>
+      </c>
+      <c r="BO285">
+        <v>2.5</v>
+      </c>
+      <c r="BP285">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="400">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1206,6 +1206,15 @@
   <si>
     <t>['74']</t>
   </si>
+  <si>
+    <t>['27', '29', '90+1']</t>
+  </si>
+  <si>
+    <t>['15', '45']</t>
+  </si>
+  <si>
+    <t>['62', '90+3']</t>
+  </si>
 </sst>
 </file>
 
@@ -1566,7 +1575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP285"/>
+  <dimension ref="A1:BP289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3142,7 +3151,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ8">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3345,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ9">
         <v>0.63</v>
@@ -4378,7 +4387,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ14">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4787,7 +4796,7 @@
         <v>3</v>
       </c>
       <c r="AP16">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ16">
         <v>1.31</v>
@@ -5614,7 +5623,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ20">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR20">
         <v>1.63</v>
@@ -6023,7 +6032,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ22">
         <v>1.06</v>
@@ -6438,7 +6447,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ24">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR24">
         <v>2.24</v>
@@ -6641,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ25">
         <v>0.8100000000000001</v>
@@ -6850,7 +6859,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ26">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR26">
         <v>0</v>
@@ -7671,7 +7680,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ30">
         <v>0.25</v>
@@ -8083,10 +8092,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ32">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR32">
         <v>0.98</v>
@@ -8292,7 +8301,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ33">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR33">
         <v>1.24</v>
@@ -8907,10 +8916,10 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ36">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR36">
         <v>2.26</v>
@@ -10555,7 +10564,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ44">
         <v>1.81</v>
@@ -10967,7 +10976,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ46">
         <v>0.25</v>
@@ -11176,7 +11185,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ47">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR47">
         <v>1.82</v>
@@ -11382,7 +11391,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ48">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR48">
         <v>1.78</v>
@@ -12000,7 +12009,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ51">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR51">
         <v>1.43</v>
@@ -12409,7 +12418,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ53">
         <v>0.9399999999999999</v>
@@ -12821,7 +12830,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ55">
         <v>1.31</v>
@@ -13851,7 +13860,7 @@
         <v>1.75</v>
       </c>
       <c r="AP60">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ60">
         <v>1.81</v>
@@ -14060,7 +14069,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ61">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR61">
         <v>0.95</v>
@@ -14678,7 +14687,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ64">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR64">
         <v>1.89</v>
@@ -15087,7 +15096,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ66">
         <v>1.06</v>
@@ -15502,7 +15511,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ68">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR68">
         <v>1.15</v>
@@ -16117,7 +16126,7 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ71">
         <v>0.63</v>
@@ -16735,7 +16744,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ74">
         <v>0.8100000000000001</v>
@@ -16944,7 +16953,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ75">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR75">
         <v>1.99</v>
@@ -17562,7 +17571,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ78">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR78">
         <v>1.85</v>
@@ -17765,7 +17774,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ79">
         <v>1.06</v>
@@ -18589,10 +18598,10 @@
         <v>0.4</v>
       </c>
       <c r="AP83">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ83">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR83">
         <v>1.19</v>
@@ -19416,7 +19425,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ87">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR87">
         <v>1.69</v>
@@ -19622,7 +19631,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ88">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR88">
         <v>1.14</v>
@@ -19828,7 +19837,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ89">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR89">
         <v>1.78</v>
@@ -20031,7 +20040,7 @@
         <v>0.2</v>
       </c>
       <c r="AP90">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ90">
         <v>0.63</v>
@@ -20237,7 +20246,7 @@
         <v>0</v>
       </c>
       <c r="AP91">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ91">
         <v>0.25</v>
@@ -20443,7 +20452,7 @@
         <v>0.25</v>
       </c>
       <c r="AP92">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ92">
         <v>0.8100000000000001</v>
@@ -21888,7 +21897,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ99">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR99">
         <v>1.54</v>
@@ -22091,7 +22100,7 @@
         <v>1.6</v>
       </c>
       <c r="AP100">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ100">
         <v>1.06</v>
@@ -22300,7 +22309,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ101">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR101">
         <v>1.7</v>
@@ -22503,7 +22512,7 @@
         <v>0</v>
       </c>
       <c r="AP102">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ102">
         <v>0.25</v>
@@ -22709,7 +22718,7 @@
         <v>0.8</v>
       </c>
       <c r="AP103">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ103">
         <v>0.5600000000000001</v>
@@ -23124,7 +23133,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ105">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR105">
         <v>1.49</v>
@@ -23327,7 +23336,7 @@
         <v>1.4</v>
       </c>
       <c r="AP106">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ106">
         <v>1.44</v>
@@ -25799,7 +25808,7 @@
         <v>1.67</v>
       </c>
       <c r="AP118">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ118">
         <v>1.56</v>
@@ -26005,10 +26014,10 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ119">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR119">
         <v>1.52</v>
@@ -26211,10 +26220,10 @@
         <v>0.5</v>
       </c>
       <c r="AP120">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ120">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR120">
         <v>1.66</v>
@@ -26626,7 +26635,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ122">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR122">
         <v>1.71</v>
@@ -26829,10 +26838,10 @@
         <v>1</v>
       </c>
       <c r="AP123">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ123">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR123">
         <v>1.78</v>
@@ -29095,10 +29104,10 @@
         <v>0.43</v>
       </c>
       <c r="AP134">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ134">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR134">
         <v>1.63</v>
@@ -29304,7 +29313,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ135">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR135">
         <v>1.24</v>
@@ -30128,7 +30137,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ139">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR139">
         <v>2.03</v>
@@ -30331,7 +30340,7 @@
         <v>1</v>
       </c>
       <c r="AP140">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ140">
         <v>1.31</v>
@@ -30743,7 +30752,7 @@
         <v>0.5</v>
       </c>
       <c r="AP142">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ142">
         <v>0.9399999999999999</v>
@@ -30949,7 +30958,7 @@
         <v>2.13</v>
       </c>
       <c r="AP143">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ143">
         <v>1.81</v>
@@ -31567,7 +31576,7 @@
         <v>1.25</v>
       </c>
       <c r="AP146">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ146">
         <v>1.31</v>
@@ -31982,7 +31991,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ148">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR148">
         <v>1.81</v>
@@ -32188,7 +32197,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ149">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR149">
         <v>1.84</v>
@@ -32600,7 +32609,7 @@
         <v>1</v>
       </c>
       <c r="AQ151">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR151">
         <v>1.48</v>
@@ -32806,7 +32815,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ152">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR152">
         <v>1.96</v>
@@ -33009,7 +33018,7 @@
         <v>0.89</v>
       </c>
       <c r="AP153">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ153">
         <v>1.31</v>
@@ -33627,7 +33636,7 @@
         <v>0.89</v>
       </c>
       <c r="AP156">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ156">
         <v>0.9399999999999999</v>
@@ -33836,7 +33845,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ157">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR157">
         <v>1.22</v>
@@ -34245,7 +34254,7 @@
         <v>0.78</v>
       </c>
       <c r="AP159">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ159">
         <v>0.9399999999999999</v>
@@ -34454,7 +34463,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ160">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR160">
         <v>1.42</v>
@@ -34863,7 +34872,7 @@
         <v>1.33</v>
       </c>
       <c r="AP162">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ162">
         <v>1.44</v>
@@ -35069,7 +35078,7 @@
         <v>1.63</v>
       </c>
       <c r="AP163">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ163">
         <v>1.56</v>
@@ -35275,7 +35284,7 @@
         <v>1.5</v>
       </c>
       <c r="AP164">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ164">
         <v>1.31</v>
@@ -35484,7 +35493,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ165">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR165">
         <v>1.19</v>
@@ -36308,7 +36317,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ169">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR169">
         <v>1.91</v>
@@ -36720,7 +36729,7 @@
         <v>1</v>
       </c>
       <c r="AQ171">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR171">
         <v>1.51</v>
@@ -37335,10 +37344,10 @@
         <v>1.11</v>
       </c>
       <c r="AP174">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ174">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR174">
         <v>1.75</v>
@@ -37747,7 +37756,7 @@
         <v>1.3</v>
       </c>
       <c r="AP176">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ176">
         <v>1.44</v>
@@ -38365,7 +38374,7 @@
         <v>1.9</v>
       </c>
       <c r="AP179">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ179">
         <v>1.56</v>
@@ -38780,7 +38789,7 @@
         <v>1</v>
       </c>
       <c r="AQ181">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR181">
         <v>1.45</v>
@@ -40634,7 +40643,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ190">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR190">
         <v>1.72</v>
@@ -40837,7 +40846,7 @@
         <v>2.3</v>
       </c>
       <c r="AP191">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ191">
         <v>1.81</v>
@@ -41249,10 +41258,10 @@
         <v>1</v>
       </c>
       <c r="AP193">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ193">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR193">
         <v>1.29</v>
@@ -41455,7 +41464,7 @@
         <v>1.09</v>
       </c>
       <c r="AP194">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ194">
         <v>1.31</v>
@@ -41664,7 +41673,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ195">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR195">
         <v>1.6</v>
@@ -42282,7 +42291,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ198">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR198">
         <v>1.82</v>
@@ -43927,7 +43936,7 @@
         <v>1</v>
       </c>
       <c r="AP206">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ206">
         <v>0.8100000000000001</v>
@@ -44751,7 +44760,7 @@
         <v>0.9</v>
       </c>
       <c r="AP210">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ210">
         <v>1.06</v>
@@ -45166,7 +45175,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ212">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR212">
         <v>1.47</v>
@@ -45372,7 +45381,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ213">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR213">
         <v>1.91</v>
@@ -45575,10 +45584,10 @@
         <v>1.45</v>
       </c>
       <c r="AP214">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ214">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR214">
         <v>1.73</v>
@@ -46605,10 +46614,10 @@
         <v>1.42</v>
       </c>
       <c r="AP219">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ219">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR219">
         <v>1.66</v>
@@ -47017,7 +47026,7 @@
         <v>1.33</v>
       </c>
       <c r="AP221">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ221">
         <v>1.44</v>
@@ -48256,7 +48265,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ227">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR227">
         <v>1.74</v>
@@ -49077,7 +49086,7 @@
         <v>1.42</v>
       </c>
       <c r="AP231">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ231">
         <v>1.31</v>
@@ -49489,7 +49498,7 @@
         <v>0.67</v>
       </c>
       <c r="AP233">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ233">
         <v>0.5600000000000001</v>
@@ -49698,7 +49707,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ234">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR234">
         <v>1.49</v>
@@ -49904,7 +49913,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ235">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR235">
         <v>1.16</v>
@@ -50313,7 +50322,7 @@
         <v>1.08</v>
       </c>
       <c r="AP237">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ237">
         <v>1.06</v>
@@ -50934,7 +50943,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ240">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR240">
         <v>1.65</v>
@@ -51137,7 +51146,7 @@
         <v>0.85</v>
       </c>
       <c r="AP241">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ241">
         <v>0.9399999999999999</v>
@@ -51343,7 +51352,7 @@
         <v>1.85</v>
       </c>
       <c r="AP242">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ242">
         <v>1.56</v>
@@ -52170,7 +52179,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ246">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR246">
         <v>1.83</v>
@@ -52579,7 +52588,7 @@
         <v>1.38</v>
       </c>
       <c r="AP248">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ248">
         <v>1.31</v>
@@ -52788,7 +52797,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ249">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR249">
         <v>1.7</v>
@@ -53612,7 +53621,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ253">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR253">
         <v>1.47</v>
@@ -55672,7 +55681,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ263">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AR263">
         <v>1.5</v>
@@ -56290,7 +56299,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ266">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AR266">
         <v>1.62</v>
@@ -56493,7 +56502,7 @@
         <v>1</v>
       </c>
       <c r="AP267">
-        <v>1.8</v>
+        <v>1.69</v>
       </c>
       <c r="AQ267">
         <v>1.06</v>
@@ -56699,10 +56708,10 @@
         <v>1.07</v>
       </c>
       <c r="AP268">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AQ268">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="AR268">
         <v>1.58</v>
@@ -56908,7 +56917,7 @@
         <v>1.81</v>
       </c>
       <c r="AQ269">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AR269">
         <v>1.39</v>
@@ -57111,7 +57120,7 @@
         <v>1.14</v>
       </c>
       <c r="AP270">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="AQ270">
         <v>1.06</v>
@@ -57317,7 +57326,7 @@
         <v>0.57</v>
       </c>
       <c r="AP271">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="AQ271">
         <v>0.5600000000000001</v>
@@ -60280,6 +60289,830 @@
       </c>
       <c r="BP285">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="286" spans="1:68">
+      <c r="A286" s="1">
+        <v>285</v>
+      </c>
+      <c r="B286">
+        <v>6469345</v>
+      </c>
+      <c r="C286" t="s">
+        <v>68</v>
+      </c>
+      <c r="D286" t="s">
+        <v>69</v>
+      </c>
+      <c r="E286" s="2">
+        <v>45424.3125</v>
+      </c>
+      <c r="F286">
+        <v>32</v>
+      </c>
+      <c r="G286" t="s">
+        <v>86</v>
+      </c>
+      <c r="H286" t="s">
+        <v>70</v>
+      </c>
+      <c r="I286">
+        <v>0</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+      <c r="K286">
+        <v>0</v>
+      </c>
+      <c r="L286">
+        <v>1</v>
+      </c>
+      <c r="M286">
+        <v>0</v>
+      </c>
+      <c r="N286">
+        <v>1</v>
+      </c>
+      <c r="O286" t="s">
+        <v>132</v>
+      </c>
+      <c r="P286" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q286">
+        <v>3.3</v>
+      </c>
+      <c r="R286">
+        <v>1.95</v>
+      </c>
+      <c r="S286">
+        <v>3.4</v>
+      </c>
+      <c r="T286">
+        <v>1.52</v>
+      </c>
+      <c r="U286">
+        <v>2.39</v>
+      </c>
+      <c r="V286">
+        <v>3.45</v>
+      </c>
+      <c r="W286">
+        <v>1.27</v>
+      </c>
+      <c r="X286">
+        <v>9.4</v>
+      </c>
+      <c r="Y286">
+        <v>1.03</v>
+      </c>
+      <c r="Z286">
+        <v>2.62</v>
+      </c>
+      <c r="AA286">
+        <v>2.9</v>
+      </c>
+      <c r="AB286">
+        <v>2.75</v>
+      </c>
+      <c r="AC286">
+        <v>1.07</v>
+      </c>
+      <c r="AD286">
+        <v>6.45</v>
+      </c>
+      <c r="AE286">
+        <v>1.45</v>
+      </c>
+      <c r="AF286">
+        <v>2.65</v>
+      </c>
+      <c r="AG286">
+        <v>2.25</v>
+      </c>
+      <c r="AH286">
+        <v>1.53</v>
+      </c>
+      <c r="AI286">
+        <v>2</v>
+      </c>
+      <c r="AJ286">
+        <v>1.78</v>
+      </c>
+      <c r="AK286">
+        <v>1.44</v>
+      </c>
+      <c r="AL286">
+        <v>1.3</v>
+      </c>
+      <c r="AM286">
+        <v>1.45</v>
+      </c>
+      <c r="AN286">
+        <v>1.53</v>
+      </c>
+      <c r="AO286">
+        <v>1.13</v>
+      </c>
+      <c r="AP286">
+        <v>1.63</v>
+      </c>
+      <c r="AQ286">
+        <v>1.06</v>
+      </c>
+      <c r="AR286">
+        <v>1.3</v>
+      </c>
+      <c r="AS286">
+        <v>1.16</v>
+      </c>
+      <c r="AT286">
+        <v>2.46</v>
+      </c>
+      <c r="AU286">
+        <v>8</v>
+      </c>
+      <c r="AV286">
+        <v>2</v>
+      </c>
+      <c r="AW286">
+        <v>6</v>
+      </c>
+      <c r="AX286">
+        <v>5</v>
+      </c>
+      <c r="AY286">
+        <v>14</v>
+      </c>
+      <c r="AZ286">
+        <v>7</v>
+      </c>
+      <c r="BA286">
+        <v>11</v>
+      </c>
+      <c r="BB286">
+        <v>7</v>
+      </c>
+      <c r="BC286">
+        <v>18</v>
+      </c>
+      <c r="BD286">
+        <v>1.91</v>
+      </c>
+      <c r="BE286">
+        <v>7.5</v>
+      </c>
+      <c r="BF286">
+        <v>2.2</v>
+      </c>
+      <c r="BG286">
+        <v>1.27</v>
+      </c>
+      <c r="BH286">
+        <v>3.28</v>
+      </c>
+      <c r="BI286">
+        <v>1.56</v>
+      </c>
+      <c r="BJ286">
+        <v>2.38</v>
+      </c>
+      <c r="BK286">
+        <v>1.95</v>
+      </c>
+      <c r="BL286">
+        <v>1.77</v>
+      </c>
+      <c r="BM286">
+        <v>2.45</v>
+      </c>
+      <c r="BN286">
+        <v>1.53</v>
+      </c>
+      <c r="BO286">
+        <v>3.28</v>
+      </c>
+      <c r="BP286">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="287" spans="1:68">
+      <c r="A287" s="1">
+        <v>286</v>
+      </c>
+      <c r="B287">
+        <v>6469348</v>
+      </c>
+      <c r="C287" t="s">
+        <v>68</v>
+      </c>
+      <c r="D287" t="s">
+        <v>69</v>
+      </c>
+      <c r="E287" s="2">
+        <v>45424.41666666666</v>
+      </c>
+      <c r="F287">
+        <v>32</v>
+      </c>
+      <c r="G287" t="s">
+        <v>77</v>
+      </c>
+      <c r="H287" t="s">
+        <v>76</v>
+      </c>
+      <c r="I287">
+        <v>0</v>
+      </c>
+      <c r="J287">
+        <v>2</v>
+      </c>
+      <c r="K287">
+        <v>2</v>
+      </c>
+      <c r="L287">
+        <v>1</v>
+      </c>
+      <c r="M287">
+        <v>3</v>
+      </c>
+      <c r="N287">
+        <v>4</v>
+      </c>
+      <c r="O287" t="s">
+        <v>190</v>
+      </c>
+      <c r="P287" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q287">
+        <v>2.8</v>
+      </c>
+      <c r="R287">
+        <v>2.1</v>
+      </c>
+      <c r="S287">
+        <v>3.5</v>
+      </c>
+      <c r="T287">
+        <v>1.38</v>
+      </c>
+      <c r="U287">
+        <v>2.8</v>
+      </c>
+      <c r="V287">
+        <v>2.65</v>
+      </c>
+      <c r="W287">
+        <v>1.42</v>
+      </c>
+      <c r="X287">
+        <v>6.25</v>
+      </c>
+      <c r="Y287">
+        <v>1.08</v>
+      </c>
+      <c r="Z287">
+        <v>2.2</v>
+      </c>
+      <c r="AA287">
+        <v>3.2</v>
+      </c>
+      <c r="AB287">
+        <v>3.1</v>
+      </c>
+      <c r="AC287">
+        <v>1.05</v>
+      </c>
+      <c r="AD287">
+        <v>9</v>
+      </c>
+      <c r="AE287">
+        <v>1.28</v>
+      </c>
+      <c r="AF287">
+        <v>3.55</v>
+      </c>
+      <c r="AG287">
+        <v>1.83</v>
+      </c>
+      <c r="AH287">
+        <v>1.91</v>
+      </c>
+      <c r="AI287">
+        <v>1.65</v>
+      </c>
+      <c r="AJ287">
+        <v>2.1</v>
+      </c>
+      <c r="AK287">
+        <v>1.35</v>
+      </c>
+      <c r="AL287">
+        <v>1.25</v>
+      </c>
+      <c r="AM287">
+        <v>1.62</v>
+      </c>
+      <c r="AN287">
+        <v>1.8</v>
+      </c>
+      <c r="AO287">
+        <v>1.2</v>
+      </c>
+      <c r="AP287">
+        <v>1.69</v>
+      </c>
+      <c r="AQ287">
+        <v>1.31</v>
+      </c>
+      <c r="AR287">
+        <v>1.59</v>
+      </c>
+      <c r="AS287">
+        <v>1.56</v>
+      </c>
+      <c r="AT287">
+        <v>3.15</v>
+      </c>
+      <c r="AU287">
+        <v>5</v>
+      </c>
+      <c r="AV287">
+        <v>6</v>
+      </c>
+      <c r="AW287">
+        <v>5</v>
+      </c>
+      <c r="AX287">
+        <v>5</v>
+      </c>
+      <c r="AY287">
+        <v>10</v>
+      </c>
+      <c r="AZ287">
+        <v>11</v>
+      </c>
+      <c r="BA287">
+        <v>5</v>
+      </c>
+      <c r="BB287">
+        <v>3</v>
+      </c>
+      <c r="BC287">
+        <v>8</v>
+      </c>
+      <c r="BD287">
+        <v>1.75</v>
+      </c>
+      <c r="BE287">
+        <v>8</v>
+      </c>
+      <c r="BF287">
+        <v>2.52</v>
+      </c>
+      <c r="BG287">
+        <v>1.18</v>
+      </c>
+      <c r="BH287">
+        <v>3.95</v>
+      </c>
+      <c r="BI287">
+        <v>1.31</v>
+      </c>
+      <c r="BJ287">
+        <v>3.04</v>
+      </c>
+      <c r="BK287">
+        <v>1.58</v>
+      </c>
+      <c r="BL287">
+        <v>2.33</v>
+      </c>
+      <c r="BM287">
+        <v>2.05</v>
+      </c>
+      <c r="BN287">
+        <v>1.7</v>
+      </c>
+      <c r="BO287">
+        <v>2.46</v>
+      </c>
+      <c r="BP287">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="288" spans="1:68">
+      <c r="A288" s="1">
+        <v>287</v>
+      </c>
+      <c r="B288">
+        <v>6469343</v>
+      </c>
+      <c r="C288" t="s">
+        <v>68</v>
+      </c>
+      <c r="D288" t="s">
+        <v>69</v>
+      </c>
+      <c r="E288" s="2">
+        <v>45424.52083333334</v>
+      </c>
+      <c r="F288">
+        <v>32</v>
+      </c>
+      <c r="G288" t="s">
+        <v>82</v>
+      </c>
+      <c r="H288" t="s">
+        <v>71</v>
+      </c>
+      <c r="I288">
+        <v>0</v>
+      </c>
+      <c r="J288">
+        <v>2</v>
+      </c>
+      <c r="K288">
+        <v>2</v>
+      </c>
+      <c r="L288">
+        <v>1</v>
+      </c>
+      <c r="M288">
+        <v>2</v>
+      </c>
+      <c r="N288">
+        <v>3</v>
+      </c>
+      <c r="O288" t="s">
+        <v>95</v>
+      </c>
+      <c r="P288" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q288">
+        <v>3.1</v>
+      </c>
+      <c r="R288">
+        <v>2.15</v>
+      </c>
+      <c r="S288">
+        <v>3.2</v>
+      </c>
+      <c r="T288">
+        <v>1.36</v>
+      </c>
+      <c r="U288">
+        <v>2.9</v>
+      </c>
+      <c r="V288">
+        <v>2.62</v>
+      </c>
+      <c r="W288">
+        <v>1.42</v>
+      </c>
+      <c r="X288">
+        <v>6</v>
+      </c>
+      <c r="Y288">
+        <v>1.09</v>
+      </c>
+      <c r="Z288">
+        <v>2.46</v>
+      </c>
+      <c r="AA288">
+        <v>3.42</v>
+      </c>
+      <c r="AB288">
+        <v>2.7</v>
+      </c>
+      <c r="AC288">
+        <v>1.03</v>
+      </c>
+      <c r="AD288">
+        <v>10</v>
+      </c>
+      <c r="AE288">
+        <v>1.29</v>
+      </c>
+      <c r="AF288">
+        <v>3.5</v>
+      </c>
+      <c r="AG288">
+        <v>1.87</v>
+      </c>
+      <c r="AH288">
+        <v>1.91</v>
+      </c>
+      <c r="AI288">
+        <v>1.65</v>
+      </c>
+      <c r="AJ288">
+        <v>2.1</v>
+      </c>
+      <c r="AK288">
+        <v>1.48</v>
+      </c>
+      <c r="AL288">
+        <v>1.3</v>
+      </c>
+      <c r="AM288">
+        <v>1.53</v>
+      </c>
+      <c r="AN288">
+        <v>2.07</v>
+      </c>
+      <c r="AO288">
+        <v>1.53</v>
+      </c>
+      <c r="AP288">
+        <v>1.94</v>
+      </c>
+      <c r="AQ288">
+        <v>1.63</v>
+      </c>
+      <c r="AR288">
+        <v>1.62</v>
+      </c>
+      <c r="AS288">
+        <v>1.41</v>
+      </c>
+      <c r="AT288">
+        <v>3.03</v>
+      </c>
+      <c r="AU288">
+        <v>4</v>
+      </c>
+      <c r="AV288">
+        <v>2</v>
+      </c>
+      <c r="AW288">
+        <v>5</v>
+      </c>
+      <c r="AX288">
+        <v>6</v>
+      </c>
+      <c r="AY288">
+        <v>9</v>
+      </c>
+      <c r="AZ288">
+        <v>8</v>
+      </c>
+      <c r="BA288">
+        <v>3</v>
+      </c>
+      <c r="BB288">
+        <v>3</v>
+      </c>
+      <c r="BC288">
+        <v>6</v>
+      </c>
+      <c r="BD288">
+        <v>2.05</v>
+      </c>
+      <c r="BE288">
+        <v>8</v>
+      </c>
+      <c r="BF288">
+        <v>2</v>
+      </c>
+      <c r="BG288">
+        <v>1.23</v>
+      </c>
+      <c r="BH288">
+        <v>3.56</v>
+      </c>
+      <c r="BI288">
+        <v>1.5</v>
+      </c>
+      <c r="BJ288">
+        <v>2.53</v>
+      </c>
+      <c r="BK288">
+        <v>1.85</v>
+      </c>
+      <c r="BL288">
+        <v>1.85</v>
+      </c>
+      <c r="BM288">
+        <v>2.31</v>
+      </c>
+      <c r="BN288">
+        <v>1.59</v>
+      </c>
+      <c r="BO288">
+        <v>3.08</v>
+      </c>
+      <c r="BP288">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:68">
+      <c r="A289" s="1">
+        <v>288</v>
+      </c>
+      <c r="B289">
+        <v>6469346</v>
+      </c>
+      <c r="C289" t="s">
+        <v>68</v>
+      </c>
+      <c r="D289" t="s">
+        <v>69</v>
+      </c>
+      <c r="E289" s="2">
+        <v>45425.58333333334</v>
+      </c>
+      <c r="F289">
+        <v>32</v>
+      </c>
+      <c r="G289" t="s">
+        <v>85</v>
+      </c>
+      <c r="H289" t="s">
+        <v>79</v>
+      </c>
+      <c r="I289">
+        <v>0</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+      <c r="K289">
+        <v>0</v>
+      </c>
+      <c r="L289">
+        <v>0</v>
+      </c>
+      <c r="M289">
+        <v>2</v>
+      </c>
+      <c r="N289">
+        <v>2</v>
+      </c>
+      <c r="O289" t="s">
+        <v>88</v>
+      </c>
+      <c r="P289" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q289">
+        <v>2.6</v>
+      </c>
+      <c r="R289">
+        <v>2.28</v>
+      </c>
+      <c r="S289">
+        <v>4.27</v>
+      </c>
+      <c r="T289">
+        <v>1.37</v>
+      </c>
+      <c r="U289">
+        <v>3.1</v>
+      </c>
+      <c r="V289">
+        <v>2.84</v>
+      </c>
+      <c r="W289">
+        <v>1.43</v>
+      </c>
+      <c r="X289">
+        <v>6.5</v>
+      </c>
+      <c r="Y289">
+        <v>1.08</v>
+      </c>
+      <c r="Z289">
+        <v>2.08</v>
+      </c>
+      <c r="AA289">
+        <v>3.1</v>
+      </c>
+      <c r="AB289">
+        <v>3.3</v>
+      </c>
+      <c r="AC289">
+        <v>1.02</v>
+      </c>
+      <c r="AD289">
+        <v>9.5</v>
+      </c>
+      <c r="AE289">
+        <v>1.25</v>
+      </c>
+      <c r="AF289">
+        <v>3.5</v>
+      </c>
+      <c r="AG289">
+        <v>1.98</v>
+      </c>
+      <c r="AH289">
+        <v>1.9</v>
+      </c>
+      <c r="AI289">
+        <v>1.65</v>
+      </c>
+      <c r="AJ289">
+        <v>2.1</v>
+      </c>
+      <c r="AK289">
+        <v>1.2</v>
+      </c>
+      <c r="AL289">
+        <v>1.3</v>
+      </c>
+      <c r="AM289">
+        <v>1.77</v>
+      </c>
+      <c r="AN289">
+        <v>1.13</v>
+      </c>
+      <c r="AO289">
+        <v>0.67</v>
+      </c>
+      <c r="AP289">
+        <v>1.06</v>
+      </c>
+      <c r="AQ289">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AR289">
+        <v>1.58</v>
+      </c>
+      <c r="AS289">
+        <v>1.16</v>
+      </c>
+      <c r="AT289">
+        <v>2.74</v>
+      </c>
+      <c r="AU289">
+        <v>6</v>
+      </c>
+      <c r="AV289">
+        <v>2</v>
+      </c>
+      <c r="AW289">
+        <v>6</v>
+      </c>
+      <c r="AX289">
+        <v>2</v>
+      </c>
+      <c r="AY289">
+        <v>12</v>
+      </c>
+      <c r="AZ289">
+        <v>4</v>
+      </c>
+      <c r="BA289">
+        <v>6</v>
+      </c>
+      <c r="BB289">
+        <v>5</v>
+      </c>
+      <c r="BC289">
+        <v>11</v>
+      </c>
+      <c r="BD289">
+        <v>1.55</v>
+      </c>
+      <c r="BE289">
+        <v>9.4</v>
+      </c>
+      <c r="BF289">
+        <v>2.9</v>
+      </c>
+      <c r="BG289">
+        <v>1.21</v>
+      </c>
+      <c r="BH289">
+        <v>3.65</v>
+      </c>
+      <c r="BI289">
+        <v>1.35</v>
+      </c>
+      <c r="BJ289">
+        <v>2.84</v>
+      </c>
+      <c r="BK289">
+        <v>1.77</v>
+      </c>
+      <c r="BL289">
+        <v>1.95</v>
+      </c>
+      <c r="BM289">
+        <v>2.04</v>
+      </c>
+      <c r="BN289">
+        <v>1.69</v>
+      </c>
+      <c r="BO289">
+        <v>2.64</v>
+      </c>
+      <c r="BP289">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -61049,31 +61049,31 @@
         <v>2.74</v>
       </c>
       <c r="AU289">
+        <v>7</v>
+      </c>
+      <c r="AV289">
+        <v>4</v>
+      </c>
+      <c r="AW289">
+        <v>11</v>
+      </c>
+      <c r="AX289">
+        <v>4</v>
+      </c>
+      <c r="AY289">
+        <v>18</v>
+      </c>
+      <c r="AZ289">
+        <v>8</v>
+      </c>
+      <c r="BA289">
+        <v>9</v>
+      </c>
+      <c r="BB289">
         <v>6</v>
       </c>
-      <c r="AV289">
-        <v>2</v>
-      </c>
-      <c r="AW289">
-        <v>6</v>
-      </c>
-      <c r="AX289">
-        <v>2</v>
-      </c>
-      <c r="AY289">
-        <v>12</v>
-      </c>
-      <c r="AZ289">
-        <v>4</v>
-      </c>
-      <c r="BA289">
-        <v>6</v>
-      </c>
-      <c r="BB289">
-        <v>5</v>
-      </c>
       <c r="BC289">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BD289">
         <v>1.55</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="400">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1575,7 +1575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP289"/>
+  <dimension ref="A1:BP291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1915,7 +1915,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ2">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ4">
         <v>1.06</v>
@@ -2942,7 +2942,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ7">
         <v>1.31</v>
@@ -3357,7 +3357,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ9">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -4181,7 +4181,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ13">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4590,7 +4590,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ15">
         <v>0.9399999999999999</v>
@@ -5826,7 +5826,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ21">
         <v>0.9399999999999999</v>
@@ -7268,7 +7268,7 @@
         <v>1</v>
       </c>
       <c r="AP28">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ28">
         <v>1.81</v>
@@ -8507,7 +8507,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ34">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR34">
         <v>1.88</v>
@@ -8710,7 +8710,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ35">
         <v>0.9399999999999999</v>
@@ -9537,7 +9537,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ39">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR39">
         <v>1.16</v>
@@ -10358,7 +10358,7 @@
         <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ43">
         <v>1.31</v>
@@ -13245,7 +13245,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ57">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR57">
         <v>1.95</v>
@@ -13657,7 +13657,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ59">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR59">
         <v>1.65</v>
@@ -14066,7 +14066,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ61">
         <v>0.8100000000000001</v>
@@ -15508,7 +15508,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ68">
         <v>1.31</v>
@@ -16129,7 +16129,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ71">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR71">
         <v>1.71</v>
@@ -16541,7 +16541,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ73">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR73">
         <v>1.68</v>
@@ -17980,7 +17980,7 @@
         <v>0.25</v>
       </c>
       <c r="AP80">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ80">
         <v>0.5600000000000001</v>
@@ -19628,7 +19628,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ88">
         <v>1.31</v>
@@ -20043,7 +20043,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ90">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR90">
         <v>1.75</v>
@@ -20867,7 +20867,7 @@
         <v>1</v>
       </c>
       <c r="AQ94">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR94">
         <v>1.63</v>
@@ -21691,7 +21691,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ98">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR98">
         <v>1.69</v>
@@ -22924,7 +22924,7 @@
         <v>1.5</v>
       </c>
       <c r="AP104">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ104">
         <v>1.06</v>
@@ -23130,7 +23130,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ105">
         <v>1.06</v>
@@ -23545,7 +23545,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ107">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR107">
         <v>1.68</v>
@@ -25811,7 +25811,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ118">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR118">
         <v>1.32</v>
@@ -27044,7 +27044,7 @@
         <v>1.5</v>
       </c>
       <c r="AP124">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ124">
         <v>1.06</v>
@@ -27253,7 +27253,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ125">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR125">
         <v>1.08</v>
@@ -28280,7 +28280,7 @@
         <v>1.14</v>
       </c>
       <c r="AP130">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ130">
         <v>1.31</v>
@@ -31370,10 +31370,10 @@
         <v>1.86</v>
       </c>
       <c r="AP145">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ145">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR145">
         <v>1.43</v>
@@ -34460,7 +34460,7 @@
         <v>1.44</v>
       </c>
       <c r="AP160">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ160">
         <v>1.06</v>
@@ -35081,7 +35081,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ163">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR163">
         <v>1.78</v>
@@ -36520,10 +36520,10 @@
         <v>0.5</v>
       </c>
       <c r="AP170">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ170">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR170">
         <v>1.43</v>
@@ -37965,7 +37965,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ177">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR177">
         <v>1.61</v>
@@ -38377,7 +38377,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ179">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR179">
         <v>1.65</v>
@@ -39613,7 +39613,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ185">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR185">
         <v>1.96</v>
@@ -40022,7 +40022,7 @@
         <v>0.8</v>
       </c>
       <c r="AP187">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ187">
         <v>0.5600000000000001</v>
@@ -41052,7 +41052,7 @@
         <v>0.89</v>
       </c>
       <c r="AP192">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ192">
         <v>1.06</v>
@@ -42082,7 +42082,7 @@
         <v>0</v>
       </c>
       <c r="AP197">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ197">
         <v>0.25</v>
@@ -42700,7 +42700,7 @@
         <v>1.45</v>
       </c>
       <c r="AP200">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ200">
         <v>1.44</v>
@@ -43115,7 +43115,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ202">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR202">
         <v>2.02</v>
@@ -43321,7 +43321,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ203">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR203">
         <v>1.18</v>
@@ -44966,7 +44966,7 @@
         <v>1.45</v>
       </c>
       <c r="AP211">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ211">
         <v>1.31</v>
@@ -45172,7 +45172,7 @@
         <v>0.55</v>
       </c>
       <c r="AP212">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ212">
         <v>0.8100000000000001</v>
@@ -45999,7 +45999,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ216">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR216">
         <v>1.56</v>
@@ -47441,7 +47441,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ223">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR223">
         <v>1.68</v>
@@ -47647,7 +47647,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ224">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR224">
         <v>1.6</v>
@@ -49292,7 +49292,7 @@
         <v>1.42</v>
       </c>
       <c r="AP232">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ232">
         <v>1.31</v>
@@ -49704,7 +49704,7 @@
         <v>1.33</v>
       </c>
       <c r="AP234">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ234">
         <v>1.63</v>
@@ -50737,7 +50737,7 @@
         <v>1</v>
       </c>
       <c r="AQ239">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR239">
         <v>1.59</v>
@@ -51355,7 +51355,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ242">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR242">
         <v>1.65</v>
@@ -52382,7 +52382,7 @@
         <v>0.85</v>
       </c>
       <c r="AP247">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ247">
         <v>0.9399999999999999</v>
@@ -53412,7 +53412,7 @@
         <v>1.92</v>
       </c>
       <c r="AP252">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ252">
         <v>1.81</v>
@@ -54857,7 +54857,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ259">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR259">
         <v>1.78</v>
@@ -55887,7 +55887,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ264">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR264">
         <v>1.84</v>
@@ -56090,7 +56090,7 @@
         <v>0.29</v>
       </c>
       <c r="AP265">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ265">
         <v>0.25</v>
@@ -56914,7 +56914,7 @@
         <v>1.43</v>
       </c>
       <c r="AP269">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ269">
         <v>1.63</v>
@@ -58356,7 +58356,7 @@
         <v>1.53</v>
       </c>
       <c r="AP276">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="AQ276">
         <v>1.44</v>
@@ -59183,7 +59183,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ280">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="AR280">
         <v>1.83</v>
@@ -59798,7 +59798,7 @@
         <v>0.8</v>
       </c>
       <c r="AP283">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AQ283">
         <v>0.8100000000000001</v>
@@ -60213,7 +60213,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ285">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AR285">
         <v>1.66</v>
@@ -61113,6 +61113,418 @@
       </c>
       <c r="BP289">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:68">
+      <c r="A290" s="1">
+        <v>289</v>
+      </c>
+      <c r="B290">
+        <v>6469355</v>
+      </c>
+      <c r="C290" t="s">
+        <v>68</v>
+      </c>
+      <c r="D290" t="s">
+        <v>69</v>
+      </c>
+      <c r="E290" s="2">
+        <v>45429.54166666666</v>
+      </c>
+      <c r="F290">
+        <v>33</v>
+      </c>
+      <c r="G290" t="s">
+        <v>72</v>
+      </c>
+      <c r="H290" t="s">
+        <v>83</v>
+      </c>
+      <c r="I290">
+        <v>0</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+      <c r="K290">
+        <v>0</v>
+      </c>
+      <c r="L290">
+        <v>0</v>
+      </c>
+      <c r="M290">
+        <v>0</v>
+      </c>
+      <c r="N290">
+        <v>0</v>
+      </c>
+      <c r="O290" t="s">
+        <v>88</v>
+      </c>
+      <c r="P290" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q290">
+        <v>4.75</v>
+      </c>
+      <c r="R290">
+        <v>2.4</v>
+      </c>
+      <c r="S290">
+        <v>2.05</v>
+      </c>
+      <c r="T290">
+        <v>1.28</v>
+      </c>
+      <c r="U290">
+        <v>3.4</v>
+      </c>
+      <c r="V290">
+        <v>2.34</v>
+      </c>
+      <c r="W290">
+        <v>1.54</v>
+      </c>
+      <c r="X290">
+        <v>5</v>
+      </c>
+      <c r="Y290">
+        <v>1.14</v>
+      </c>
+      <c r="Z290">
+        <v>4.2</v>
+      </c>
+      <c r="AA290">
+        <v>4</v>
+      </c>
+      <c r="AB290">
+        <v>1.6</v>
+      </c>
+      <c r="AC290">
+        <v>1.03</v>
+      </c>
+      <c r="AD290">
+        <v>11</v>
+      </c>
+      <c r="AE290">
+        <v>1.18</v>
+      </c>
+      <c r="AF290">
+        <v>4.5</v>
+      </c>
+      <c r="AG290">
+        <v>1.6</v>
+      </c>
+      <c r="AH290">
+        <v>2.2</v>
+      </c>
+      <c r="AI290">
+        <v>1.63</v>
+      </c>
+      <c r="AJ290">
+        <v>2.2</v>
+      </c>
+      <c r="AK290">
+        <v>2.3</v>
+      </c>
+      <c r="AL290">
+        <v>1.17</v>
+      </c>
+      <c r="AM290">
+        <v>1.12</v>
+      </c>
+      <c r="AN290">
+        <v>1.81</v>
+      </c>
+      <c r="AO290">
+        <v>1.56</v>
+      </c>
+      <c r="AP290">
+        <v>1.76</v>
+      </c>
+      <c r="AQ290">
+        <v>1.53</v>
+      </c>
+      <c r="AR290">
+        <v>1.35</v>
+      </c>
+      <c r="AS290">
+        <v>1.57</v>
+      </c>
+      <c r="AT290">
+        <v>2.92</v>
+      </c>
+      <c r="AU290">
+        <v>0</v>
+      </c>
+      <c r="AV290">
+        <v>5</v>
+      </c>
+      <c r="AW290">
+        <v>4</v>
+      </c>
+      <c r="AX290">
+        <v>12</v>
+      </c>
+      <c r="AY290">
+        <v>4</v>
+      </c>
+      <c r="AZ290">
+        <v>17</v>
+      </c>
+      <c r="BA290">
+        <v>5</v>
+      </c>
+      <c r="BB290">
+        <v>7</v>
+      </c>
+      <c r="BC290">
+        <v>12</v>
+      </c>
+      <c r="BD290">
+        <v>3.48</v>
+      </c>
+      <c r="BE290">
+        <v>9.5</v>
+      </c>
+      <c r="BF290">
+        <v>1.41</v>
+      </c>
+      <c r="BG290">
+        <v>1.18</v>
+      </c>
+      <c r="BH290">
+        <v>4.5</v>
+      </c>
+      <c r="BI290">
+        <v>1.31</v>
+      </c>
+      <c r="BJ290">
+        <v>3.04</v>
+      </c>
+      <c r="BK290">
+        <v>1.62</v>
+      </c>
+      <c r="BL290">
+        <v>2.26</v>
+      </c>
+      <c r="BM290">
+        <v>1.86</v>
+      </c>
+      <c r="BN290">
+        <v>1.86</v>
+      </c>
+      <c r="BO290">
+        <v>2.5</v>
+      </c>
+      <c r="BP290">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="291" spans="1:68">
+      <c r="A291" s="1">
+        <v>290</v>
+      </c>
+      <c r="B291">
+        <v>6469351</v>
+      </c>
+      <c r="C291" t="s">
+        <v>68</v>
+      </c>
+      <c r="D291" t="s">
+        <v>69</v>
+      </c>
+      <c r="E291" s="2">
+        <v>45429.64583333334</v>
+      </c>
+      <c r="F291">
+        <v>33</v>
+      </c>
+      <c r="G291" t="s">
+        <v>75</v>
+      </c>
+      <c r="H291" t="s">
+        <v>86</v>
+      </c>
+      <c r="I291">
+        <v>1</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+      <c r="K291">
+        <v>1</v>
+      </c>
+      <c r="L291">
+        <v>1</v>
+      </c>
+      <c r="M291">
+        <v>1</v>
+      </c>
+      <c r="N291">
+        <v>2</v>
+      </c>
+      <c r="O291" t="s">
+        <v>282</v>
+      </c>
+      <c r="P291" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q291">
+        <v>2.15</v>
+      </c>
+      <c r="R291">
+        <v>2.25</v>
+      </c>
+      <c r="S291">
+        <v>5</v>
+      </c>
+      <c r="T291">
+        <v>1.35</v>
+      </c>
+      <c r="U291">
+        <v>3.05</v>
+      </c>
+      <c r="V291">
+        <v>2.55</v>
+      </c>
+      <c r="W291">
+        <v>1.45</v>
+      </c>
+      <c r="X291">
+        <v>5.75</v>
+      </c>
+      <c r="Y291">
+        <v>1.11</v>
+      </c>
+      <c r="Z291">
+        <v>1.6</v>
+      </c>
+      <c r="AA291">
+        <v>3.7</v>
+      </c>
+      <c r="AB291">
+        <v>4.5</v>
+      </c>
+      <c r="AC291">
+        <v>1.04</v>
+      </c>
+      <c r="AD291">
+        <v>14</v>
+      </c>
+      <c r="AE291">
+        <v>1.25</v>
+      </c>
+      <c r="AF291">
+        <v>4.05</v>
+      </c>
+      <c r="AG291">
+        <v>1.7</v>
+      </c>
+      <c r="AH291">
+        <v>2</v>
+      </c>
+      <c r="AI291">
+        <v>1.75</v>
+      </c>
+      <c r="AJ291">
+        <v>1.95</v>
+      </c>
+      <c r="AK291">
+        <v>1.19</v>
+      </c>
+      <c r="AL291">
+        <v>1.25</v>
+      </c>
+      <c r="AM291">
+        <v>2.2</v>
+      </c>
+      <c r="AN291">
+        <v>1.94</v>
+      </c>
+      <c r="AO291">
+        <v>0.63</v>
+      </c>
+      <c r="AP291">
+        <v>1.88</v>
+      </c>
+      <c r="AQ291">
+        <v>0.65</v>
+      </c>
+      <c r="AR291">
+        <v>1.53</v>
+      </c>
+      <c r="AS291">
+        <v>1.2</v>
+      </c>
+      <c r="AT291">
+        <v>2.73</v>
+      </c>
+      <c r="AU291">
+        <v>5</v>
+      </c>
+      <c r="AV291">
+        <v>2</v>
+      </c>
+      <c r="AW291">
+        <v>6</v>
+      </c>
+      <c r="AX291">
+        <v>10</v>
+      </c>
+      <c r="AY291">
+        <v>11</v>
+      </c>
+      <c r="AZ291">
+        <v>12</v>
+      </c>
+      <c r="BA291">
+        <v>4</v>
+      </c>
+      <c r="BB291">
+        <v>3</v>
+      </c>
+      <c r="BC291">
+        <v>7</v>
+      </c>
+      <c r="BD291">
+        <v>1.51</v>
+      </c>
+      <c r="BE291">
+        <v>9</v>
+      </c>
+      <c r="BF291">
+        <v>3.06</v>
+      </c>
+      <c r="BG291">
+        <v>1.17</v>
+      </c>
+      <c r="BH291">
+        <v>4.5</v>
+      </c>
+      <c r="BI291">
+        <v>1.25</v>
+      </c>
+      <c r="BJ291">
+        <v>3.42</v>
+      </c>
+      <c r="BK291">
+        <v>1.46</v>
+      </c>
+      <c r="BL291">
+        <v>2.45</v>
+      </c>
+      <c r="BM291">
+        <v>1.7</v>
+      </c>
+      <c r="BN291">
+        <v>2.05</v>
+      </c>
+      <c r="BO291">
+        <v>2.25</v>
+      </c>
+      <c r="BP291">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="402">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -865,6 +865,12 @@
     <t>['36']</t>
   </si>
   <si>
+    <t>['42', '75']</t>
+  </si>
+  <si>
+    <t>['31', '61']</t>
+  </si>
+  <si>
     <t>['54', '61']</t>
   </si>
   <si>
@@ -1575,7 +1581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP291"/>
+  <dimension ref="A1:BP293"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2246,7 +2252,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2658,7 +2664,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2864,7 +2870,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2945,7 +2951,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ7">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3151,7 +3157,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ8">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3276,7 +3282,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3482,7 +3488,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Q10">
         <v>3.2</v>
@@ -3560,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ10">
         <v>1.81</v>
@@ -4100,7 +4106,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q13">
         <v>2.53</v>
@@ -4306,7 +4312,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -4384,7 +4390,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ14">
         <v>1.31</v>
@@ -4799,7 +4805,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ16">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -5542,7 +5548,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q20">
         <v>1.82</v>
@@ -6160,7 +6166,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6447,7 +6453,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ24">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR24">
         <v>2.24</v>
@@ -6984,7 +6990,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q27">
         <v>4.2</v>
@@ -7396,7 +7402,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q29">
         <v>2.95</v>
@@ -7474,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ29">
         <v>1.31</v>
@@ -7808,7 +7814,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="Q31">
         <v>2.3</v>
@@ -7889,7 +7895,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ31">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR31">
         <v>2.3</v>
@@ -8014,7 +8020,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -8220,7 +8226,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q33">
         <v>2.6</v>
@@ -8301,7 +8307,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ33">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR33">
         <v>1.24</v>
@@ -8632,7 +8638,7 @@
         <v>99</v>
       </c>
       <c r="P35" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8838,7 +8844,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -9740,7 +9746,7 @@
         <v>2</v>
       </c>
       <c r="AP40">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ40">
         <v>1.31</v>
@@ -10361,7 +10367,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ43">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR43">
         <v>1.27</v>
@@ -10486,7 +10492,7 @@
         <v>88</v>
       </c>
       <c r="P44" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="Q44">
         <v>2.7</v>
@@ -10898,7 +10904,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -11185,7 +11191,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ47">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR47">
         <v>1.82</v>
@@ -11388,7 +11394,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ48">
         <v>1.31</v>
@@ -11516,7 +11522,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11722,7 +11728,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q50">
         <v>2.15</v>
@@ -11928,7 +11934,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -13036,7 +13042,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ56">
         <v>1.44</v>
@@ -13782,7 +13788,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -14069,7 +14075,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ61">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR61">
         <v>0.95</v>
@@ -14812,7 +14818,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -14893,7 +14899,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ65">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR65">
         <v>1.69</v>
@@ -15224,7 +15230,7 @@
         <v>88</v>
       </c>
       <c r="P67" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="Q67">
         <v>4.75</v>
@@ -15430,7 +15436,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15636,7 +15642,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15714,7 +15720,7 @@
         <v>0.25</v>
       </c>
       <c r="AP69">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ69">
         <v>0.9399999999999999</v>
@@ -15842,7 +15848,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -16332,7 +16338,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ72">
         <v>0.9399999999999999</v>
@@ -16460,7 +16466,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16666,7 +16672,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q74">
         <v>1.75</v>
@@ -17078,7 +17084,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17284,7 +17290,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="Q77">
         <v>2.04</v>
@@ -17490,7 +17496,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Q78">
         <v>3.05</v>
@@ -17902,7 +17908,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -18108,7 +18114,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -18314,7 +18320,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q82">
         <v>3.3</v>
@@ -18520,7 +18526,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -18601,7 +18607,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ83">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR83">
         <v>1.19</v>
@@ -19013,7 +19019,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ85">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR85">
         <v>1.59</v>
@@ -19550,7 +19556,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -19834,7 +19840,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ89">
         <v>1.06</v>
@@ -20786,7 +20792,7 @@
         <v>88</v>
       </c>
       <c r="P94" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q94">
         <v>3.75</v>
@@ -21070,7 +21076,7 @@
         <v>0.8</v>
       </c>
       <c r="AP95">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ95">
         <v>1.31</v>
@@ -21198,7 +21204,7 @@
         <v>159</v>
       </c>
       <c r="P96" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21404,7 +21410,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -22022,7 +22028,7 @@
         <v>105</v>
       </c>
       <c r="P100" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22306,7 +22312,7 @@
         <v>1.25</v>
       </c>
       <c r="AP101">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ101">
         <v>1.63</v>
@@ -22434,7 +22440,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -23258,7 +23264,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q106">
         <v>1.7</v>
@@ -23464,7 +23470,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23542,7 +23548,7 @@
         <v>0.17</v>
       </c>
       <c r="AP107">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ107">
         <v>0.65</v>
@@ -23670,7 +23676,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="Q108">
         <v>3.2</v>
@@ -23876,7 +23882,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -24082,7 +24088,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Q110">
         <v>2.45</v>
@@ -24494,7 +24500,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q112">
         <v>3.3</v>
@@ -24700,7 +24706,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="Q113">
         <v>2.9</v>
@@ -24781,7 +24787,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ113">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR113">
         <v>1.72</v>
@@ -24906,7 +24912,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Q114">
         <v>1.85</v>
@@ -25730,7 +25736,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q118">
         <v>4.33</v>
@@ -26223,7 +26229,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ120">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR120">
         <v>1.66</v>
@@ -26426,7 +26432,7 @@
         <v>0</v>
       </c>
       <c r="AP121">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ121">
         <v>0.25</v>
@@ -27172,7 +27178,7 @@
         <v>88</v>
       </c>
       <c r="P125" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q125">
         <v>2.5</v>
@@ -27378,7 +27384,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27584,7 +27590,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27790,7 +27796,7 @@
         <v>181</v>
       </c>
       <c r="P128" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27996,7 +28002,7 @@
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Q129">
         <v>3.3</v>
@@ -28074,7 +28080,7 @@
         <v>1.14</v>
       </c>
       <c r="AP129">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ129">
         <v>1.44</v>
@@ -28901,7 +28907,7 @@
         <v>1</v>
       </c>
       <c r="AQ133">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR133">
         <v>1.55</v>
@@ -29026,7 +29032,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q134">
         <v>2.63</v>
@@ -29107,7 +29113,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ134">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR134">
         <v>1.63</v>
@@ -29232,7 +29238,7 @@
         <v>88</v>
       </c>
       <c r="P135" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29644,7 +29650,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="Q137">
         <v>2.1</v>
@@ -29850,7 +29856,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -30056,7 +30062,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q139">
         <v>2.1</v>
@@ -30674,7 +30680,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="Q142">
         <v>2.05</v>
@@ -30880,7 +30886,7 @@
         <v>88</v>
       </c>
       <c r="P143" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -31086,7 +31092,7 @@
         <v>158</v>
       </c>
       <c r="P144" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="Q144">
         <v>3.57</v>
@@ -31498,7 +31504,7 @@
         <v>88</v>
       </c>
       <c r="P146" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31579,7 +31585,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ146">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR146">
         <v>1.87</v>
@@ -31782,7 +31788,7 @@
         <v>1.29</v>
       </c>
       <c r="AP147">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ147">
         <v>1.31</v>
@@ -31910,7 +31916,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q148">
         <v>2.3</v>
@@ -31991,7 +31997,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ148">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR148">
         <v>1.81</v>
@@ -32116,7 +32122,7 @@
         <v>88</v>
       </c>
       <c r="P149" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32400,7 +32406,7 @@
         <v>1.17</v>
       </c>
       <c r="AP150">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ150">
         <v>1.06</v>
@@ -32528,7 +32534,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="Q151">
         <v>3.3</v>
@@ -32734,7 +32740,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q152">
         <v>2.05</v>
@@ -32940,7 +32946,7 @@
         <v>119</v>
       </c>
       <c r="P153" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q153">
         <v>2.65</v>
@@ -33146,7 +33152,7 @@
         <v>195</v>
       </c>
       <c r="P154" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q154">
         <v>2.35</v>
@@ -33430,7 +33436,7 @@
         <v>0.88</v>
       </c>
       <c r="AP155">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ155">
         <v>0.5600000000000001</v>
@@ -33970,7 +33976,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="Q158">
         <v>3.25</v>
@@ -34588,7 +34594,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Q161">
         <v>2.91</v>
@@ -34794,7 +34800,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="Q162">
         <v>4.28</v>
@@ -35000,7 +35006,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q163">
         <v>3.75</v>
@@ -35206,7 +35212,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q164">
         <v>3.97</v>
@@ -35493,7 +35499,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ165">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR165">
         <v>1.19</v>
@@ -36442,7 +36448,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="Q170">
         <v>2.65</v>
@@ -36935,7 +36941,7 @@
         <v>1.19</v>
       </c>
       <c r="AQ172">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR172">
         <v>1.82</v>
@@ -37060,7 +37066,7 @@
         <v>95</v>
       </c>
       <c r="P173" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Q173">
         <v>2.5</v>
@@ -37678,7 +37684,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q176">
         <v>3.4</v>
@@ -37884,7 +37890,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -37962,7 +37968,7 @@
         <v>1.78</v>
       </c>
       <c r="AP177">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ177">
         <v>1.53</v>
@@ -38090,7 +38096,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q178">
         <v>2.4</v>
@@ -38168,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="AP178">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ178">
         <v>0.25</v>
@@ -38296,7 +38302,7 @@
         <v>88</v>
       </c>
       <c r="P179" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q179">
         <v>3.98</v>
@@ -38580,7 +38586,7 @@
         <v>0.8</v>
       </c>
       <c r="AP180">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ180">
         <v>0.8100000000000001</v>
@@ -38914,7 +38920,7 @@
         <v>179</v>
       </c>
       <c r="P182" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -39532,7 +39538,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Q185">
         <v>1.8</v>
@@ -39738,7 +39744,7 @@
         <v>88</v>
       </c>
       <c r="P186" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="Q186">
         <v>3.7</v>
@@ -39944,7 +39950,7 @@
         <v>214</v>
       </c>
       <c r="P187" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q187">
         <v>2.65</v>
@@ -40356,7 +40362,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="Q189">
         <v>1.78</v>
@@ -40643,7 +40649,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ190">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR190">
         <v>1.72</v>
@@ -41180,7 +41186,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41592,7 +41598,7 @@
         <v>218</v>
       </c>
       <c r="P195" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -41670,7 +41676,7 @@
         <v>1.5</v>
       </c>
       <c r="AP195">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ195">
         <v>1.63</v>
@@ -41879,7 +41885,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ196">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR196">
         <v>1.13</v>
@@ -42210,7 +42216,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42906,7 +42912,7 @@
         <v>0.91</v>
       </c>
       <c r="AP201">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ201">
         <v>0.9399999999999999</v>
@@ -43240,7 +43246,7 @@
         <v>223</v>
       </c>
       <c r="P203" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q203">
         <v>3.2</v>
@@ -44064,7 +44070,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -44145,7 +44151,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ207">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR207">
         <v>1.55</v>
@@ -44476,7 +44482,7 @@
         <v>229</v>
       </c>
       <c r="P209" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q209">
         <v>3.1</v>
@@ -44554,7 +44560,7 @@
         <v>1.09</v>
       </c>
       <c r="AP209">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ209">
         <v>1.06</v>
@@ -45094,7 +45100,7 @@
         <v>231</v>
       </c>
       <c r="P212" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="Q212">
         <v>2.7</v>
@@ -45175,7 +45181,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ212">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR212">
         <v>1.47</v>
@@ -45300,7 +45306,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q213">
         <v>2.25</v>
@@ -46124,7 +46130,7 @@
         <v>88</v>
       </c>
       <c r="P217" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q217">
         <v>4.2</v>
@@ -46202,7 +46208,7 @@
         <v>0.91</v>
       </c>
       <c r="AP217">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ217">
         <v>1.06</v>
@@ -46742,7 +46748,7 @@
         <v>234</v>
       </c>
       <c r="P220" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="Q220">
         <v>2.59</v>
@@ -46948,7 +46954,7 @@
         <v>88</v>
       </c>
       <c r="P221" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -47154,7 +47160,7 @@
         <v>213</v>
       </c>
       <c r="P222" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="Q222">
         <v>3.46</v>
@@ -47438,7 +47444,7 @@
         <v>0.42</v>
       </c>
       <c r="AP223">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ223">
         <v>0.65</v>
@@ -47566,7 +47572,7 @@
         <v>235</v>
       </c>
       <c r="P224" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q224">
         <v>3.6</v>
@@ -47644,7 +47650,7 @@
         <v>1.92</v>
       </c>
       <c r="AP224">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ224">
         <v>1.53</v>
@@ -47978,7 +47984,7 @@
         <v>237</v>
       </c>
       <c r="P226" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q226">
         <v>2.35</v>
@@ -48184,7 +48190,7 @@
         <v>238</v>
       </c>
       <c r="P227" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="Q227">
         <v>1.85</v>
@@ -48265,7 +48271,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ227">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR227">
         <v>1.74</v>
@@ -48596,7 +48602,7 @@
         <v>240</v>
       </c>
       <c r="P229" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Q229">
         <v>2.8</v>
@@ -49089,7 +49095,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ231">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR231">
         <v>1.29</v>
@@ -49626,7 +49632,7 @@
         <v>244</v>
       </c>
       <c r="P234" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q234">
         <v>4.33</v>
@@ -49832,7 +49838,7 @@
         <v>112</v>
       </c>
       <c r="P235" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q235">
         <v>3.6</v>
@@ -50038,7 +50044,7 @@
         <v>245</v>
       </c>
       <c r="P236" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q236">
         <v>2</v>
@@ -50528,7 +50534,7 @@
         <v>0.92</v>
       </c>
       <c r="AP238">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ238">
         <v>0.8100000000000001</v>
@@ -50940,7 +50946,7 @@
         <v>1.31</v>
       </c>
       <c r="AP240">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ240">
         <v>1.06</v>
@@ -51686,7 +51692,7 @@
         <v>251</v>
       </c>
       <c r="P244" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q244">
         <v>2.88</v>
@@ -52179,7 +52185,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ246">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR246">
         <v>1.83</v>
@@ -52922,7 +52928,7 @@
         <v>255</v>
       </c>
       <c r="P250" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q250">
         <v>3.9</v>
@@ -53003,7 +53009,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ250">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR250">
         <v>1.18</v>
@@ -53128,7 +53134,7 @@
         <v>256</v>
       </c>
       <c r="P251" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q251">
         <v>2.3</v>
@@ -53824,10 +53830,10 @@
         <v>1.29</v>
       </c>
       <c r="AP254">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ254">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR254">
         <v>1.52</v>
@@ -54158,7 +54164,7 @@
         <v>88</v>
       </c>
       <c r="P256" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Q256">
         <v>2.46</v>
@@ -54364,7 +54370,7 @@
         <v>260</v>
       </c>
       <c r="P257" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q257">
         <v>3.05</v>
@@ -54570,7 +54576,7 @@
         <v>261</v>
       </c>
       <c r="P258" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q258">
         <v>3.56</v>
@@ -54776,7 +54782,7 @@
         <v>88</v>
       </c>
       <c r="P259" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Q259">
         <v>2.18</v>
@@ -54982,7 +54988,7 @@
         <v>262</v>
       </c>
       <c r="P260" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q260">
         <v>4.6</v>
@@ -55394,7 +55400,7 @@
         <v>263</v>
       </c>
       <c r="P262" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q262">
         <v>2.85</v>
@@ -55806,7 +55812,7 @@
         <v>265</v>
       </c>
       <c r="P264" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Q264">
         <v>2.61</v>
@@ -56012,7 +56018,7 @@
         <v>266</v>
       </c>
       <c r="P265" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Q265">
         <v>2.1</v>
@@ -56218,7 +56224,7 @@
         <v>267</v>
       </c>
       <c r="P266" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="Q266">
         <v>2.7</v>
@@ -56296,10 +56302,10 @@
         <v>0.5</v>
       </c>
       <c r="AP266">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ266">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR266">
         <v>1.62</v>
@@ -56424,7 +56430,7 @@
         <v>88</v>
       </c>
       <c r="P267" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q267">
         <v>4.2</v>
@@ -56630,7 +56636,7 @@
         <v>268</v>
       </c>
       <c r="P268" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q268">
         <v>2.97</v>
@@ -56836,7 +56842,7 @@
         <v>269</v>
       </c>
       <c r="P269" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q269">
         <v>5.47</v>
@@ -57866,7 +57872,7 @@
         <v>272</v>
       </c>
       <c r="P274" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="Q274">
         <v>4.2</v>
@@ -58278,7 +58284,7 @@
         <v>274</v>
       </c>
       <c r="P276" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q276">
         <v>4.76</v>
@@ -58768,7 +58774,7 @@
         <v>0.93</v>
       </c>
       <c r="AP278">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ278">
         <v>0.9399999999999999</v>
@@ -58896,7 +58902,7 @@
         <v>88</v>
       </c>
       <c r="P279" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q279">
         <v>2</v>
@@ -58977,7 +58983,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ279">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="AR279">
         <v>1.87</v>
@@ -59592,7 +59598,7 @@
         <v>1.13</v>
       </c>
       <c r="AP282">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="AQ282">
         <v>1.06</v>
@@ -60132,7 +60138,7 @@
         <v>281</v>
       </c>
       <c r="P285" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q285">
         <v>2.4</v>
@@ -60544,7 +60550,7 @@
         <v>190</v>
       </c>
       <c r="P287" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q287">
         <v>2.8</v>
@@ -60750,7 +60756,7 @@
         <v>95</v>
       </c>
       <c r="P288" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="Q288">
         <v>3.1</v>
@@ -60956,7 +60962,7 @@
         <v>88</v>
       </c>
       <c r="P289" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Q289">
         <v>2.6</v>
@@ -61037,7 +61043,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ289">
-        <v>0.8100000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="AR289">
         <v>1.58</v>
@@ -61525,6 +61531,418 @@
       </c>
       <c r="BP291">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="292" spans="1:68">
+      <c r="A292" s="1">
+        <v>291</v>
+      </c>
+      <c r="B292">
+        <v>6469353</v>
+      </c>
+      <c r="C292" t="s">
+        <v>68</v>
+      </c>
+      <c r="D292" t="s">
+        <v>69</v>
+      </c>
+      <c r="E292" s="2">
+        <v>45430.41666666666</v>
+      </c>
+      <c r="F292">
+        <v>33</v>
+      </c>
+      <c r="G292" t="s">
+        <v>78</v>
+      </c>
+      <c r="H292" t="s">
+        <v>79</v>
+      </c>
+      <c r="I292">
+        <v>1</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+      <c r="K292">
+        <v>1</v>
+      </c>
+      <c r="L292">
+        <v>2</v>
+      </c>
+      <c r="M292">
+        <v>0</v>
+      </c>
+      <c r="N292">
+        <v>2</v>
+      </c>
+      <c r="O292" t="s">
+        <v>283</v>
+      </c>
+      <c r="P292" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q292">
+        <v>2.3</v>
+      </c>
+      <c r="R292">
+        <v>2.15</v>
+      </c>
+      <c r="S292">
+        <v>4.5</v>
+      </c>
+      <c r="T292">
+        <v>1.36</v>
+      </c>
+      <c r="U292">
+        <v>2.88</v>
+      </c>
+      <c r="V292">
+        <v>2.65</v>
+      </c>
+      <c r="W292">
+        <v>1.42</v>
+      </c>
+      <c r="X292">
+        <v>6.25</v>
+      </c>
+      <c r="Y292">
+        <v>1.09</v>
+      </c>
+      <c r="Z292">
+        <v>1.8</v>
+      </c>
+      <c r="AA292">
+        <v>3.3</v>
+      </c>
+      <c r="AB292">
+        <v>3.8</v>
+      </c>
+      <c r="AC292">
+        <v>1.05</v>
+      </c>
+      <c r="AD292">
+        <v>9</v>
+      </c>
+      <c r="AE292">
+        <v>1.28</v>
+      </c>
+      <c r="AF292">
+        <v>3.55</v>
+      </c>
+      <c r="AG292">
+        <v>1.83</v>
+      </c>
+      <c r="AH292">
+        <v>1.85</v>
+      </c>
+      <c r="AI292">
+        <v>1.73</v>
+      </c>
+      <c r="AJ292">
+        <v>2</v>
+      </c>
+      <c r="AK292">
+        <v>1.2</v>
+      </c>
+      <c r="AL292">
+        <v>1.22</v>
+      </c>
+      <c r="AM292">
+        <v>1.95</v>
+      </c>
+      <c r="AN292">
+        <v>1.44</v>
+      </c>
+      <c r="AO292">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AP292">
+        <v>1.53</v>
+      </c>
+      <c r="AQ292">
+        <v>0.76</v>
+      </c>
+      <c r="AR292">
+        <v>1.49</v>
+      </c>
+      <c r="AS292">
+        <v>1.16</v>
+      </c>
+      <c r="AT292">
+        <v>2.65</v>
+      </c>
+      <c r="AU292">
+        <v>5</v>
+      </c>
+      <c r="AV292">
+        <v>3</v>
+      </c>
+      <c r="AW292">
+        <v>22</v>
+      </c>
+      <c r="AX292">
+        <v>5</v>
+      </c>
+      <c r="AY292">
+        <v>27</v>
+      </c>
+      <c r="AZ292">
+        <v>8</v>
+      </c>
+      <c r="BA292">
+        <v>5</v>
+      </c>
+      <c r="BB292">
+        <v>0</v>
+      </c>
+      <c r="BC292">
+        <v>5</v>
+      </c>
+      <c r="BD292">
+        <v>1.45</v>
+      </c>
+      <c r="BE292">
+        <v>9</v>
+      </c>
+      <c r="BF292">
+        <v>3.28</v>
+      </c>
+      <c r="BG292">
+        <v>1.2</v>
+      </c>
+      <c r="BH292">
+        <v>4</v>
+      </c>
+      <c r="BI292">
+        <v>1.3</v>
+      </c>
+      <c r="BJ292">
+        <v>3.08</v>
+      </c>
+      <c r="BK292">
+        <v>1.6</v>
+      </c>
+      <c r="BL292">
+        <v>2.29</v>
+      </c>
+      <c r="BM292">
+        <v>1.98</v>
+      </c>
+      <c r="BN292">
+        <v>1.82</v>
+      </c>
+      <c r="BO292">
+        <v>2.52</v>
+      </c>
+      <c r="BP292">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:68">
+      <c r="A293" s="1">
+        <v>292</v>
+      </c>
+      <c r="B293">
+        <v>6469358</v>
+      </c>
+      <c r="C293" t="s">
+        <v>68</v>
+      </c>
+      <c r="D293" t="s">
+        <v>69</v>
+      </c>
+      <c r="E293" s="2">
+        <v>45430.52083333334</v>
+      </c>
+      <c r="F293">
+        <v>33</v>
+      </c>
+      <c r="G293" t="s">
+        <v>81</v>
+      </c>
+      <c r="H293" t="s">
+        <v>85</v>
+      </c>
+      <c r="I293">
+        <v>1</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+      <c r="K293">
+        <v>1</v>
+      </c>
+      <c r="L293">
+        <v>2</v>
+      </c>
+      <c r="M293">
+        <v>0</v>
+      </c>
+      <c r="N293">
+        <v>2</v>
+      </c>
+      <c r="O293" t="s">
+        <v>284</v>
+      </c>
+      <c r="P293" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q293">
+        <v>2.5</v>
+      </c>
+      <c r="R293">
+        <v>2.05</v>
+      </c>
+      <c r="S293">
+        <v>4.5</v>
+      </c>
+      <c r="T293">
+        <v>1.45</v>
+      </c>
+      <c r="U293">
+        <v>2.55</v>
+      </c>
+      <c r="V293">
+        <v>3</v>
+      </c>
+      <c r="W293">
+        <v>1.33</v>
+      </c>
+      <c r="X293">
+        <v>7.5</v>
+      </c>
+      <c r="Y293">
+        <v>1.06</v>
+      </c>
+      <c r="Z293">
+        <v>1.96</v>
+      </c>
+      <c r="AA293">
+        <v>3.45</v>
+      </c>
+      <c r="AB293">
+        <v>3.7</v>
+      </c>
+      <c r="AC293">
+        <v>1.06</v>
+      </c>
+      <c r="AD293">
+        <v>8.5</v>
+      </c>
+      <c r="AE293">
+        <v>1.36</v>
+      </c>
+      <c r="AF293">
+        <v>3.1</v>
+      </c>
+      <c r="AG293">
+        <v>2.01</v>
+      </c>
+      <c r="AH293">
+        <v>1.87</v>
+      </c>
+      <c r="AI293">
+        <v>1.85</v>
+      </c>
+      <c r="AJ293">
+        <v>1.83</v>
+      </c>
+      <c r="AK293">
+        <v>1.22</v>
+      </c>
+      <c r="AL293">
+        <v>1.25</v>
+      </c>
+      <c r="AM293">
+        <v>1.85</v>
+      </c>
+      <c r="AN293">
+        <v>1.75</v>
+      </c>
+      <c r="AO293">
+        <v>1.31</v>
+      </c>
+      <c r="AP293">
+        <v>1.82</v>
+      </c>
+      <c r="AQ293">
+        <v>1.24</v>
+      </c>
+      <c r="AR293">
+        <v>1.65</v>
+      </c>
+      <c r="AS293">
+        <v>1.41</v>
+      </c>
+      <c r="AT293">
+        <v>3.06</v>
+      </c>
+      <c r="AU293">
+        <v>4</v>
+      </c>
+      <c r="AV293">
+        <v>0</v>
+      </c>
+      <c r="AW293">
+        <v>1</v>
+      </c>
+      <c r="AX293">
+        <v>4</v>
+      </c>
+      <c r="AY293">
+        <v>5</v>
+      </c>
+      <c r="AZ293">
+        <v>4</v>
+      </c>
+      <c r="BA293">
+        <v>4</v>
+      </c>
+      <c r="BB293">
+        <v>0</v>
+      </c>
+      <c r="BC293">
+        <v>4</v>
+      </c>
+      <c r="BD293">
+        <v>1.75</v>
+      </c>
+      <c r="BE293">
+        <v>7.5</v>
+      </c>
+      <c r="BF293">
+        <v>2.53</v>
+      </c>
+      <c r="BG293">
+        <v>1.24</v>
+      </c>
+      <c r="BH293">
+        <v>3.48</v>
+      </c>
+      <c r="BI293">
+        <v>1.8</v>
+      </c>
+      <c r="BJ293">
+        <v>2</v>
+      </c>
+      <c r="BK293">
+        <v>1.8</v>
+      </c>
+      <c r="BL293">
+        <v>2</v>
+      </c>
+      <c r="BM293">
+        <v>2.33</v>
+      </c>
+      <c r="BN293">
+        <v>1.58</v>
+      </c>
+      <c r="BO293">
+        <v>3.08</v>
+      </c>
+      <c r="BP293">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1820" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="403">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -871,6 +871,9 @@
     <t>['31', '61']</t>
   </si>
   <si>
+    <t>['37', '55']</t>
+  </si>
+  <si>
     <t>['54', '61']</t>
   </si>
   <si>
@@ -1581,7 +1584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP293"/>
+  <dimension ref="A1:BP295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2252,7 +2255,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2539,7 +2542,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ5">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2664,7 +2667,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2742,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ6">
         <v>1.31</v>
@@ -2870,7 +2873,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -3282,7 +3285,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3488,7 +3491,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q10">
         <v>3.2</v>
@@ -4106,7 +4109,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q13">
         <v>2.53</v>
@@ -4312,7 +4315,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -5548,7 +5551,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q20">
         <v>1.82</v>
@@ -6166,7 +6169,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6862,7 +6865,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ26">
         <v>1.31</v>
@@ -6990,7 +6993,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q27">
         <v>4.2</v>
@@ -7068,10 +7071,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ27">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.8</v>
@@ -7402,7 +7405,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q29">
         <v>2.95</v>
@@ -7814,7 +7817,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q31">
         <v>2.3</v>
@@ -8020,7 +8023,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -8226,7 +8229,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q33">
         <v>2.6</v>
@@ -8638,7 +8641,7 @@
         <v>99</v>
       </c>
       <c r="P35" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8844,7 +8847,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -9337,7 +9340,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR38">
         <v>1.69</v>
@@ -10158,7 +10161,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ42">
         <v>0.9399999999999999</v>
@@ -10492,7 +10495,7 @@
         <v>88</v>
       </c>
       <c r="P44" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q44">
         <v>2.7</v>
@@ -10904,7 +10907,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -11188,7 +11191,7 @@
         <v>0.33</v>
       </c>
       <c r="AP47">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ47">
         <v>0.76</v>
@@ -11522,7 +11525,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11728,7 +11731,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q50">
         <v>2.15</v>
@@ -11934,7 +11937,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -12630,7 +12633,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ54">
         <v>0.5600000000000001</v>
@@ -13045,7 +13048,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ56">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR56">
         <v>1.67</v>
@@ -13788,7 +13791,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -14690,7 +14693,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ64">
         <v>1.63</v>
@@ -14818,7 +14821,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -15230,7 +15233,7 @@
         <v>88</v>
       </c>
       <c r="P67" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q67">
         <v>4.75</v>
@@ -15436,7 +15439,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15642,7 +15645,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15848,7 +15851,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15929,7 +15932,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ70">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR70">
         <v>1.44</v>
@@ -16466,7 +16469,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16544,7 +16547,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ73">
         <v>1.53</v>
@@ -16672,7 +16675,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q74">
         <v>1.75</v>
@@ -17084,7 +17087,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17165,7 +17168,7 @@
         <v>1</v>
       </c>
       <c r="AQ76">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR76">
         <v>1.71</v>
@@ -17290,7 +17293,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q77">
         <v>2.04</v>
@@ -17496,7 +17499,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q78">
         <v>3.05</v>
@@ -17783,7 +17786,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ79">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>1.81</v>
@@ -17908,7 +17911,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -18114,7 +18117,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -18192,7 +18195,7 @@
         <v>0.4</v>
       </c>
       <c r="AP81">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ81">
         <v>0.9399999999999999</v>
@@ -18320,7 +18323,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q82">
         <v>3.3</v>
@@ -18526,7 +18529,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -19556,7 +19559,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -20792,7 +20795,7 @@
         <v>88</v>
       </c>
       <c r="P94" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q94">
         <v>3.75</v>
@@ -21204,7 +21207,7 @@
         <v>159</v>
       </c>
       <c r="P96" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21282,10 +21285,10 @@
         <v>1</v>
       </c>
       <c r="AP96">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ96">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR96">
         <v>1.62</v>
@@ -21410,7 +21413,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21491,7 +21494,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ97">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR97">
         <v>2.14</v>
@@ -21694,7 +21697,7 @@
         <v>1.8</v>
       </c>
       <c r="AP98">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ98">
         <v>1.53</v>
@@ -22028,7 +22031,7 @@
         <v>105</v>
       </c>
       <c r="P100" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22440,7 +22443,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -22933,7 +22936,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ104">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR104">
         <v>1.39</v>
@@ -23264,7 +23267,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q106">
         <v>1.7</v>
@@ -23345,7 +23348,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ106">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR106">
         <v>1.75</v>
@@ -23470,7 +23473,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23676,7 +23679,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q108">
         <v>3.2</v>
@@ -23882,7 +23885,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -24088,7 +24091,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q110">
         <v>2.45</v>
@@ -24169,7 +24172,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ110">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR110">
         <v>1.82</v>
@@ -24372,7 +24375,7 @@
         <v>1.4</v>
       </c>
       <c r="AP111">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ111">
         <v>1.31</v>
@@ -24500,7 +24503,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q112">
         <v>3.3</v>
@@ -24706,7 +24709,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q113">
         <v>2.9</v>
@@ -24912,7 +24915,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q114">
         <v>1.85</v>
@@ -25402,7 +25405,7 @@
         <v>0.83</v>
       </c>
       <c r="AP116">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ116">
         <v>0.5600000000000001</v>
@@ -25736,7 +25739,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q118">
         <v>4.33</v>
@@ -27178,7 +27181,7 @@
         <v>88</v>
       </c>
       <c r="P125" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q125">
         <v>2.5</v>
@@ -27384,7 +27387,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27462,7 +27465,7 @@
         <v>2</v>
       </c>
       <c r="AP126">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ126">
         <v>1.81</v>
@@ -27590,7 +27593,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27796,7 +27799,7 @@
         <v>181</v>
       </c>
       <c r="P128" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -28002,7 +28005,7 @@
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q129">
         <v>3.3</v>
@@ -28083,7 +28086,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ129">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR129">
         <v>1.76</v>
@@ -28495,7 +28498,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ131">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR131">
         <v>1.81</v>
@@ -29032,7 +29035,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q134">
         <v>2.63</v>
@@ -29238,7 +29241,7 @@
         <v>88</v>
       </c>
       <c r="P135" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29650,7 +29653,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q137">
         <v>2.1</v>
@@ -29856,7 +29859,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -30062,7 +30065,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q139">
         <v>2.1</v>
@@ -30680,7 +30683,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q142">
         <v>2.05</v>
@@ -30886,7 +30889,7 @@
         <v>88</v>
       </c>
       <c r="P143" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -31092,7 +31095,7 @@
         <v>158</v>
       </c>
       <c r="P144" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q144">
         <v>3.57</v>
@@ -31173,7 +31176,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ144">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR144">
         <v>1.11</v>
@@ -31504,7 +31507,7 @@
         <v>88</v>
       </c>
       <c r="P146" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31916,7 +31919,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q148">
         <v>2.3</v>
@@ -31994,7 +31997,7 @@
         <v>0.38</v>
       </c>
       <c r="AP148">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ148">
         <v>0.76</v>
@@ -32122,7 +32125,7 @@
         <v>88</v>
       </c>
       <c r="P149" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32409,7 +32412,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ150">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR150">
         <v>1.67</v>
@@ -32534,7 +32537,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q151">
         <v>3.3</v>
@@ -32740,7 +32743,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q152">
         <v>2.05</v>
@@ -32946,7 +32949,7 @@
         <v>119</v>
       </c>
       <c r="P153" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q153">
         <v>2.65</v>
@@ -33152,7 +33155,7 @@
         <v>195</v>
       </c>
       <c r="P154" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q154">
         <v>2.35</v>
@@ -33230,7 +33233,7 @@
         <v>0.88</v>
       </c>
       <c r="AP154">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ154">
         <v>0.8100000000000001</v>
@@ -33976,7 +33979,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q158">
         <v>3.25</v>
@@ -34057,7 +34060,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ158">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR158">
         <v>1.64</v>
@@ -34594,7 +34597,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q161">
         <v>2.91</v>
@@ -34800,7 +34803,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q162">
         <v>4.28</v>
@@ -34881,7 +34884,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ162">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR162">
         <v>1.28</v>
@@ -35006,7 +35009,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q163">
         <v>3.75</v>
@@ -35212,7 +35215,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q164">
         <v>3.97</v>
@@ -36114,7 +36117,7 @@
         <v>0.89</v>
       </c>
       <c r="AP168">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ168">
         <v>0.8100000000000001</v>
@@ -36320,7 +36323,7 @@
         <v>1.5</v>
       </c>
       <c r="AP169">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ169">
         <v>1.63</v>
@@ -36448,7 +36451,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q170">
         <v>2.65</v>
@@ -36938,7 +36941,7 @@
         <v>1.44</v>
       </c>
       <c r="AP172">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ172">
         <v>1.24</v>
@@ -37066,7 +37069,7 @@
         <v>95</v>
       </c>
       <c r="P173" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q173">
         <v>2.5</v>
@@ -37144,7 +37147,7 @@
         <v>0.9</v>
       </c>
       <c r="AP173">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ173">
         <v>1.31</v>
@@ -37559,7 +37562,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ175">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR175">
         <v>1.14</v>
@@ -37684,7 +37687,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q176">
         <v>3.4</v>
@@ -37765,7 +37768,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ176">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR176">
         <v>1.79</v>
@@ -37890,7 +37893,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -38096,7 +38099,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q178">
         <v>2.4</v>
@@ -38302,7 +38305,7 @@
         <v>88</v>
       </c>
       <c r="P179" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q179">
         <v>3.98</v>
@@ -38920,7 +38923,7 @@
         <v>179</v>
       </c>
       <c r="P182" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -39538,7 +39541,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q185">
         <v>1.8</v>
@@ -39744,7 +39747,7 @@
         <v>88</v>
       </c>
       <c r="P186" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q186">
         <v>3.7</v>
@@ -39950,7 +39953,7 @@
         <v>214</v>
       </c>
       <c r="P187" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q187">
         <v>2.65</v>
@@ -40234,7 +40237,7 @@
         <v>1.1</v>
       </c>
       <c r="AP188">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ188">
         <v>1.06</v>
@@ -40362,7 +40365,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q189">
         <v>1.78</v>
@@ -41061,7 +41064,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ192">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR192">
         <v>1.54</v>
@@ -41186,7 +41189,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41598,7 +41601,7 @@
         <v>218</v>
       </c>
       <c r="P195" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -42216,7 +42219,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -42294,7 +42297,7 @@
         <v>1.27</v>
       </c>
       <c r="AP198">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ198">
         <v>1.06</v>
@@ -42709,7 +42712,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ200">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR200">
         <v>1.5</v>
@@ -43246,7 +43249,7 @@
         <v>223</v>
       </c>
       <c r="P203" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q203">
         <v>3.2</v>
@@ -44070,7 +44073,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -44148,7 +44151,7 @@
         <v>1.27</v>
       </c>
       <c r="AP207">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ207">
         <v>1.24</v>
@@ -44482,7 +44485,7 @@
         <v>229</v>
       </c>
       <c r="P209" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q209">
         <v>3.1</v>
@@ -44769,7 +44772,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ210">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR210">
         <v>1.3</v>
@@ -45100,7 +45103,7 @@
         <v>231</v>
       </c>
       <c r="P212" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q212">
         <v>2.7</v>
@@ -45306,7 +45309,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q213">
         <v>2.25</v>
@@ -46002,7 +46005,7 @@
         <v>0.45</v>
       </c>
       <c r="AP216">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ216">
         <v>0.65</v>
@@ -46130,7 +46133,7 @@
         <v>88</v>
       </c>
       <c r="P217" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q217">
         <v>4.2</v>
@@ -46211,7 +46214,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ217">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR217">
         <v>1.59</v>
@@ -46748,7 +46751,7 @@
         <v>234</v>
       </c>
       <c r="P220" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q220">
         <v>2.59</v>
@@ -46826,7 +46829,7 @@
         <v>0.83</v>
       </c>
       <c r="AP220">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ220">
         <v>0.9399999999999999</v>
@@ -46954,7 +46957,7 @@
         <v>88</v>
       </c>
       <c r="P221" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -47035,7 +47038,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ221">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR221">
         <v>1.61</v>
@@ -47160,7 +47163,7 @@
         <v>213</v>
       </c>
       <c r="P222" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q222">
         <v>3.46</v>
@@ -47572,7 +47575,7 @@
         <v>235</v>
       </c>
       <c r="P224" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q224">
         <v>3.6</v>
@@ -47859,7 +47862,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ225">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR225">
         <v>1.2</v>
@@ -47984,7 +47987,7 @@
         <v>237</v>
       </c>
       <c r="P226" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q226">
         <v>2.35</v>
@@ -48190,7 +48193,7 @@
         <v>238</v>
       </c>
       <c r="P227" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q227">
         <v>1.85</v>
@@ -48602,7 +48605,7 @@
         <v>240</v>
       </c>
       <c r="P229" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q229">
         <v>2.8</v>
@@ -48680,7 +48683,7 @@
         <v>2</v>
       </c>
       <c r="AP229">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ229">
         <v>1.81</v>
@@ -49632,7 +49635,7 @@
         <v>244</v>
       </c>
       <c r="P234" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q234">
         <v>4.33</v>
@@ -49838,7 +49841,7 @@
         <v>112</v>
       </c>
       <c r="P235" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q235">
         <v>3.6</v>
@@ -50044,7 +50047,7 @@
         <v>245</v>
       </c>
       <c r="P236" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q236">
         <v>2</v>
@@ -50122,7 +50125,7 @@
         <v>0.23</v>
       </c>
       <c r="AP236">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ236">
         <v>0.25</v>
@@ -50331,7 +50334,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ237">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR237">
         <v>1.62</v>
@@ -51567,7 +51570,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ243">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR243">
         <v>1.9</v>
@@ -51692,7 +51695,7 @@
         <v>251</v>
       </c>
       <c r="P244" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q244">
         <v>2.88</v>
@@ -52928,7 +52931,7 @@
         <v>255</v>
       </c>
       <c r="P250" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q250">
         <v>3.9</v>
@@ -53134,7 +53137,7 @@
         <v>256</v>
       </c>
       <c r="P251" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q251">
         <v>2.3</v>
@@ -53624,7 +53627,7 @@
         <v>1.15</v>
       </c>
       <c r="AP253">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ253">
         <v>1.31</v>
@@ -54164,7 +54167,7 @@
         <v>88</v>
       </c>
       <c r="P256" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q256">
         <v>2.46</v>
@@ -54370,7 +54373,7 @@
         <v>260</v>
       </c>
       <c r="P257" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q257">
         <v>3.05</v>
@@ -54576,7 +54579,7 @@
         <v>261</v>
       </c>
       <c r="P258" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q258">
         <v>3.56</v>
@@ -54657,7 +54660,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ258">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR258">
         <v>1.74</v>
@@ -54782,7 +54785,7 @@
         <v>88</v>
       </c>
       <c r="P259" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q259">
         <v>2.18</v>
@@ -54860,7 +54863,7 @@
         <v>0.5</v>
       </c>
       <c r="AP259">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ259">
         <v>0.65</v>
@@ -54988,7 +54991,7 @@
         <v>262</v>
       </c>
       <c r="P260" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q260">
         <v>4.6</v>
@@ -55400,7 +55403,7 @@
         <v>263</v>
       </c>
       <c r="P262" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q262">
         <v>2.85</v>
@@ -55684,7 +55687,7 @@
         <v>1.21</v>
       </c>
       <c r="AP263">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ263">
         <v>1.06</v>
@@ -55812,7 +55815,7 @@
         <v>265</v>
       </c>
       <c r="P264" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q264">
         <v>2.61</v>
@@ -56018,7 +56021,7 @@
         <v>266</v>
       </c>
       <c r="P265" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q265">
         <v>2.1</v>
@@ -56224,7 +56227,7 @@
         <v>267</v>
       </c>
       <c r="P266" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q266">
         <v>2.7</v>
@@ -56430,7 +56433,7 @@
         <v>88</v>
       </c>
       <c r="P267" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q267">
         <v>4.2</v>
@@ -56511,7 +56514,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ267">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR267">
         <v>1.65</v>
@@ -56636,7 +56639,7 @@
         <v>268</v>
       </c>
       <c r="P268" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q268">
         <v>2.97</v>
@@ -56842,7 +56845,7 @@
         <v>269</v>
       </c>
       <c r="P269" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q269">
         <v>5.47</v>
@@ -57538,7 +57541,7 @@
         <v>1.4</v>
       </c>
       <c r="AP272">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ272">
         <v>1.31</v>
@@ -57872,7 +57875,7 @@
         <v>272</v>
       </c>
       <c r="P274" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q274">
         <v>4.2</v>
@@ -58159,7 +58162,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ275">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AR275">
         <v>1.77</v>
@@ -58284,7 +58287,7 @@
         <v>274</v>
       </c>
       <c r="P276" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q276">
         <v>4.76</v>
@@ -58365,7 +58368,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ276">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="AR276">
         <v>1.36</v>
@@ -58902,7 +58905,7 @@
         <v>88</v>
       </c>
       <c r="P279" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q279">
         <v>2</v>
@@ -59392,7 +59395,7 @@
         <v>0.27</v>
       </c>
       <c r="AP281">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ281">
         <v>0.25</v>
@@ -60138,7 +60141,7 @@
         <v>281</v>
       </c>
       <c r="P285" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q285">
         <v>2.4</v>
@@ -60550,7 +60553,7 @@
         <v>190</v>
       </c>
       <c r="P287" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q287">
         <v>2.8</v>
@@ -60756,7 +60759,7 @@
         <v>95</v>
       </c>
       <c r="P288" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q288">
         <v>3.1</v>
@@ -60962,7 +60965,7 @@
         <v>88</v>
       </c>
       <c r="P289" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q289">
         <v>2.6</v>
@@ -61691,13 +61694,13 @@
         <v>8</v>
       </c>
       <c r="BA292">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB292">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BC292">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BD292">
         <v>1.45</v>
@@ -61879,31 +61882,31 @@
         <v>3.06</v>
       </c>
       <c r="AU293">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV293">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AW293">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX293">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY293">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AZ293">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BA293">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB293">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC293">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BD293">
         <v>1.75</v>
@@ -61943,6 +61946,418 @@
       </c>
       <c r="BP293">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:68">
+      <c r="A294" s="1">
+        <v>293</v>
+      </c>
+      <c r="B294">
+        <v>6469354</v>
+      </c>
+      <c r="C294" t="s">
+        <v>68</v>
+      </c>
+      <c r="D294" t="s">
+        <v>69</v>
+      </c>
+      <c r="E294" s="2">
+        <v>45430.625</v>
+      </c>
+      <c r="F294">
+        <v>33</v>
+      </c>
+      <c r="G294" t="s">
+        <v>74</v>
+      </c>
+      <c r="H294" t="s">
+        <v>80</v>
+      </c>
+      <c r="I294">
+        <v>0</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+      <c r="K294">
+        <v>0</v>
+      </c>
+      <c r="L294">
+        <v>1</v>
+      </c>
+      <c r="M294">
+        <v>1</v>
+      </c>
+      <c r="N294">
+        <v>2</v>
+      </c>
+      <c r="O294" t="s">
+        <v>249</v>
+      </c>
+      <c r="P294" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q294">
+        <v>3.34</v>
+      </c>
+      <c r="R294">
+        <v>2.35</v>
+      </c>
+      <c r="S294">
+        <v>3.04</v>
+      </c>
+      <c r="T294">
+        <v>1.34</v>
+      </c>
+      <c r="U294">
+        <v>3.29</v>
+      </c>
+      <c r="V294">
+        <v>2.61</v>
+      </c>
+      <c r="W294">
+        <v>1.49</v>
+      </c>
+      <c r="X294">
+        <v>6</v>
+      </c>
+      <c r="Y294">
+        <v>1.1</v>
+      </c>
+      <c r="Z294">
+        <v>2.65</v>
+      </c>
+      <c r="AA294">
+        <v>3.55</v>
+      </c>
+      <c r="AB294">
+        <v>2.44</v>
+      </c>
+      <c r="AC294">
+        <v>1.03</v>
+      </c>
+      <c r="AD294">
+        <v>10</v>
+      </c>
+      <c r="AE294">
+        <v>1.22</v>
+      </c>
+      <c r="AF294">
+        <v>4</v>
+      </c>
+      <c r="AG294">
+        <v>1.81</v>
+      </c>
+      <c r="AH294">
+        <v>1.92</v>
+      </c>
+      <c r="AI294">
+        <v>1.62</v>
+      </c>
+      <c r="AJ294">
+        <v>2.2</v>
+      </c>
+      <c r="AK294">
+        <v>1.55</v>
+      </c>
+      <c r="AL294">
+        <v>1.3</v>
+      </c>
+      <c r="AM294">
+        <v>1.45</v>
+      </c>
+      <c r="AN294">
+        <v>1.69</v>
+      </c>
+      <c r="AO294">
+        <v>1.44</v>
+      </c>
+      <c r="AP294">
+        <v>1.65</v>
+      </c>
+      <c r="AQ294">
+        <v>1.41</v>
+      </c>
+      <c r="AR294">
+        <v>1.56</v>
+      </c>
+      <c r="AS294">
+        <v>1.44</v>
+      </c>
+      <c r="AT294">
+        <v>3</v>
+      </c>
+      <c r="AU294">
+        <v>2</v>
+      </c>
+      <c r="AV294">
+        <v>5</v>
+      </c>
+      <c r="AW294">
+        <v>8</v>
+      </c>
+      <c r="AX294">
+        <v>6</v>
+      </c>
+      <c r="AY294">
+        <v>10</v>
+      </c>
+      <c r="AZ294">
+        <v>11</v>
+      </c>
+      <c r="BA294">
+        <v>6</v>
+      </c>
+      <c r="BB294">
+        <v>4</v>
+      </c>
+      <c r="BC294">
+        <v>10</v>
+      </c>
+      <c r="BD294">
+        <v>1.82</v>
+      </c>
+      <c r="BE294">
+        <v>7.5</v>
+      </c>
+      <c r="BF294">
+        <v>2.34</v>
+      </c>
+      <c r="BG294">
+        <v>1.26</v>
+      </c>
+      <c r="BH294">
+        <v>3.34</v>
+      </c>
+      <c r="BI294">
+        <v>1.8</v>
+      </c>
+      <c r="BJ294">
+        <v>2</v>
+      </c>
+      <c r="BK294">
+        <v>1.8</v>
+      </c>
+      <c r="BL294">
+        <v>2</v>
+      </c>
+      <c r="BM294">
+        <v>2.4</v>
+      </c>
+      <c r="BN294">
+        <v>1.54</v>
+      </c>
+      <c r="BO294">
+        <v>3.28</v>
+      </c>
+      <c r="BP294">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="295" spans="1:68">
+      <c r="A295" s="1">
+        <v>294</v>
+      </c>
+      <c r="B295">
+        <v>6469350</v>
+      </c>
+      <c r="C295" t="s">
+        <v>68</v>
+      </c>
+      <c r="D295" t="s">
+        <v>69</v>
+      </c>
+      <c r="E295" s="2">
+        <v>45431.3125</v>
+      </c>
+      <c r="F295">
+        <v>33</v>
+      </c>
+      <c r="G295" t="s">
+        <v>87</v>
+      </c>
+      <c r="H295" t="s">
+        <v>73</v>
+      </c>
+      <c r="I295">
+        <v>1</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+      <c r="K295">
+        <v>1</v>
+      </c>
+      <c r="L295">
+        <v>2</v>
+      </c>
+      <c r="M295">
+        <v>0</v>
+      </c>
+      <c r="N295">
+        <v>2</v>
+      </c>
+      <c r="O295" t="s">
+        <v>285</v>
+      </c>
+      <c r="P295" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q295">
+        <v>4</v>
+      </c>
+      <c r="R295">
+        <v>2.1</v>
+      </c>
+      <c r="S295">
+        <v>2.6</v>
+      </c>
+      <c r="T295">
+        <v>1.39</v>
+      </c>
+      <c r="U295">
+        <v>2.8</v>
+      </c>
+      <c r="V295">
+        <v>2.7</v>
+      </c>
+      <c r="W295">
+        <v>1.41</v>
+      </c>
+      <c r="X295">
+        <v>6.45</v>
+      </c>
+      <c r="Y295">
+        <v>1.09</v>
+      </c>
+      <c r="Z295">
+        <v>3.45</v>
+      </c>
+      <c r="AA295">
+        <v>3.5</v>
+      </c>
+      <c r="AB295">
+        <v>2.05</v>
+      </c>
+      <c r="AC295">
+        <v>1.05</v>
+      </c>
+      <c r="AD295">
+        <v>9</v>
+      </c>
+      <c r="AE295">
+        <v>1.28</v>
+      </c>
+      <c r="AF295">
+        <v>3.5</v>
+      </c>
+      <c r="AG295">
+        <v>1.83</v>
+      </c>
+      <c r="AH295">
+        <v>1.93</v>
+      </c>
+      <c r="AI295">
+        <v>1.72</v>
+      </c>
+      <c r="AJ295">
+        <v>2.05</v>
+      </c>
+      <c r="AK295">
+        <v>1.78</v>
+      </c>
+      <c r="AL295">
+        <v>1.25</v>
+      </c>
+      <c r="AM295">
+        <v>1.28</v>
+      </c>
+      <c r="AN295">
+        <v>1.19</v>
+      </c>
+      <c r="AO295">
+        <v>1.06</v>
+      </c>
+      <c r="AP295">
+        <v>1.29</v>
+      </c>
+      <c r="AQ295">
+        <v>1</v>
+      </c>
+      <c r="AR295">
+        <v>1.76</v>
+      </c>
+      <c r="AS295">
+        <v>1.66</v>
+      </c>
+      <c r="AT295">
+        <v>3.42</v>
+      </c>
+      <c r="AU295">
+        <v>2</v>
+      </c>
+      <c r="AV295">
+        <v>2</v>
+      </c>
+      <c r="AW295">
+        <v>1</v>
+      </c>
+      <c r="AX295">
+        <v>2</v>
+      </c>
+      <c r="AY295">
+        <v>3</v>
+      </c>
+      <c r="AZ295">
+        <v>4</v>
+      </c>
+      <c r="BA295">
+        <v>2</v>
+      </c>
+      <c r="BB295">
+        <v>3</v>
+      </c>
+      <c r="BC295">
+        <v>5</v>
+      </c>
+      <c r="BD295">
+        <v>2.42</v>
+      </c>
+      <c r="BE295">
+        <v>8</v>
+      </c>
+      <c r="BF295">
+        <v>1.75</v>
+      </c>
+      <c r="BG295">
+        <v>1.19</v>
+      </c>
+      <c r="BH295">
+        <v>3.9</v>
+      </c>
+      <c r="BI295">
+        <v>1.36</v>
+      </c>
+      <c r="BJ295">
+        <v>2.79</v>
+      </c>
+      <c r="BK295">
+        <v>1.7</v>
+      </c>
+      <c r="BL295">
+        <v>2.12</v>
+      </c>
+      <c r="BM295">
+        <v>2.12</v>
+      </c>
+      <c r="BN295">
+        <v>1.71</v>
+      </c>
+      <c r="BO295">
+        <v>2.67</v>
+      </c>
+      <c r="BP295">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1832" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="403">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1584,7 +1584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP295"/>
+  <dimension ref="A1:BP296"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1921,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ2">
         <v>1.53</v>
@@ -3981,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ12">
         <v>1.31</v>
@@ -8104,7 +8104,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ32">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR32">
         <v>0.98</v>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ33">
         <v>0.76</v>
@@ -10779,7 +10779,7 @@
         <v>2</v>
       </c>
       <c r="AP45">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ45">
         <v>1.06</v>
@@ -14696,7 +14696,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ64">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR64">
         <v>1.89</v>
@@ -15311,7 +15311,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ67">
         <v>1.31</v>
@@ -17580,7 +17580,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ78">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR78">
         <v>1.85</v>
@@ -18813,7 +18813,7 @@
         <v>2</v>
       </c>
       <c r="AP84">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ84">
         <v>1.81</v>
@@ -19434,7 +19434,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ87">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR87">
         <v>1.69</v>
@@ -22318,7 +22318,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ101">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR101">
         <v>1.7</v>
@@ -23963,7 +23963,7 @@
         <v>0.83</v>
       </c>
       <c r="AP109">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ109">
         <v>0.9399999999999999</v>
@@ -26850,7 +26850,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ123">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR123">
         <v>1.78</v>
@@ -27259,7 +27259,7 @@
         <v>0.14</v>
       </c>
       <c r="AP125">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ125">
         <v>0.65</v>
@@ -31173,7 +31173,7 @@
         <v>1.13</v>
       </c>
       <c r="AP144">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ144">
         <v>1.41</v>
@@ -32206,7 +32206,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ149">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR149">
         <v>1.84</v>
@@ -33854,7 +33854,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ157">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR157">
         <v>1.22</v>
@@ -36326,7 +36326,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ169">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR169">
         <v>1.91</v>
@@ -36738,7 +36738,7 @@
         <v>1</v>
       </c>
       <c r="AQ171">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR171">
         <v>1.51</v>
@@ -37559,7 +37559,7 @@
         <v>1</v>
       </c>
       <c r="AP175">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ175">
         <v>1</v>
@@ -41682,7 +41682,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ195">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR195">
         <v>1.6</v>
@@ -41885,7 +41885,7 @@
         <v>1.3</v>
       </c>
       <c r="AP196">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ196">
         <v>1.24</v>
@@ -45596,7 +45596,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ214">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR214">
         <v>1.73</v>
@@ -45799,7 +45799,7 @@
         <v>0</v>
       </c>
       <c r="AP215">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ215">
         <v>0.25</v>
@@ -49716,7 +49716,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ234">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR234">
         <v>1.49</v>
@@ -49919,7 +49919,7 @@
         <v>1.17</v>
       </c>
       <c r="AP235">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ235">
         <v>1.31</v>
@@ -51979,7 +51979,7 @@
         <v>0.62</v>
       </c>
       <c r="AP245">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ245">
         <v>0.5600000000000001</v>
@@ -52806,7 +52806,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ249">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR249">
         <v>1.7</v>
@@ -55481,7 +55481,7 @@
         <v>0.86</v>
       </c>
       <c r="AP262">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ262">
         <v>0.8100000000000001</v>
@@ -56926,7 +56926,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ269">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR269">
         <v>1.39</v>
@@ -58571,7 +58571,7 @@
         <v>1</v>
       </c>
       <c r="AP277">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AQ277">
         <v>0.9399999999999999</v>
@@ -60840,7 +60840,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ288">
-        <v>1.63</v>
+        <v>1.71</v>
       </c>
       <c r="AR288">
         <v>1.62</v>
@@ -61676,22 +61676,22 @@
         <v>2.65</v>
       </c>
       <c r="AU292">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV292">
         <v>3</v>
       </c>
       <c r="AW292">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AX292">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY292">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AZ292">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA292">
         <v>7</v>
@@ -62358,6 +62358,212 @@
       </c>
       <c r="BP295">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="296" spans="1:68">
+      <c r="A296" s="1">
+        <v>295</v>
+      </c>
+      <c r="B296">
+        <v>6469356</v>
+      </c>
+      <c r="C296" t="s">
+        <v>68</v>
+      </c>
+      <c r="D296" t="s">
+        <v>69</v>
+      </c>
+      <c r="E296" s="2">
+        <v>45431.41666666666</v>
+      </c>
+      <c r="F296">
+        <v>33</v>
+      </c>
+      <c r="G296" t="s">
+        <v>70</v>
+      </c>
+      <c r="H296" t="s">
+        <v>71</v>
+      </c>
+      <c r="I296">
+        <v>0</v>
+      </c>
+      <c r="J296">
+        <v>1</v>
+      </c>
+      <c r="K296">
+        <v>1</v>
+      </c>
+      <c r="L296">
+        <v>0</v>
+      </c>
+      <c r="M296">
+        <v>1</v>
+      </c>
+      <c r="N296">
+        <v>1</v>
+      </c>
+      <c r="O296" t="s">
+        <v>88</v>
+      </c>
+      <c r="P296" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q296">
+        <v>5</v>
+      </c>
+      <c r="R296">
+        <v>2.05</v>
+      </c>
+      <c r="S296">
+        <v>2.3</v>
+      </c>
+      <c r="T296">
+        <v>1.45</v>
+      </c>
+      <c r="U296">
+        <v>2.55</v>
+      </c>
+      <c r="V296">
+        <v>3</v>
+      </c>
+      <c r="W296">
+        <v>1.33</v>
+      </c>
+      <c r="X296">
+        <v>7.5</v>
+      </c>
+      <c r="Y296">
+        <v>1.06</v>
+      </c>
+      <c r="Z296">
+        <v>4.7</v>
+      </c>
+      <c r="AA296">
+        <v>3.6</v>
+      </c>
+      <c r="AB296">
+        <v>1.75</v>
+      </c>
+      <c r="AC296">
+        <v>1.06</v>
+      </c>
+      <c r="AD296">
+        <v>8.5</v>
+      </c>
+      <c r="AE296">
+        <v>1.38</v>
+      </c>
+      <c r="AF296">
+        <v>3</v>
+      </c>
+      <c r="AG296">
+        <v>2.1</v>
+      </c>
+      <c r="AH296">
+        <v>1.71</v>
+      </c>
+      <c r="AI296">
+        <v>2</v>
+      </c>
+      <c r="AJ296">
+        <v>1.73</v>
+      </c>
+      <c r="AK296">
+        <v>2.05</v>
+      </c>
+      <c r="AL296">
+        <v>1.22</v>
+      </c>
+      <c r="AM296">
+        <v>1.17</v>
+      </c>
+      <c r="AN296">
+        <v>1.25</v>
+      </c>
+      <c r="AO296">
+        <v>1.63</v>
+      </c>
+      <c r="AP296">
+        <v>1.18</v>
+      </c>
+      <c r="AQ296">
+        <v>1.71</v>
+      </c>
+      <c r="AR296">
+        <v>1.19</v>
+      </c>
+      <c r="AS296">
+        <v>1.38</v>
+      </c>
+      <c r="AT296">
+        <v>2.57</v>
+      </c>
+      <c r="AU296">
+        <v>0</v>
+      </c>
+      <c r="AV296">
+        <v>4</v>
+      </c>
+      <c r="AW296">
+        <v>5</v>
+      </c>
+      <c r="AX296">
+        <v>1</v>
+      </c>
+      <c r="AY296">
+        <v>5</v>
+      </c>
+      <c r="AZ296">
+        <v>5</v>
+      </c>
+      <c r="BA296">
+        <v>2</v>
+      </c>
+      <c r="BB296">
+        <v>4</v>
+      </c>
+      <c r="BC296">
+        <v>6</v>
+      </c>
+      <c r="BD296">
+        <v>3.48</v>
+      </c>
+      <c r="BE296">
+        <v>8</v>
+      </c>
+      <c r="BF296">
+        <v>1.45</v>
+      </c>
+      <c r="BG296">
+        <v>1.39</v>
+      </c>
+      <c r="BH296">
+        <v>2.67</v>
+      </c>
+      <c r="BI296">
+        <v>2</v>
+      </c>
+      <c r="BJ296">
+        <v>1.8</v>
+      </c>
+      <c r="BK296">
+        <v>2.22</v>
+      </c>
+      <c r="BL296">
+        <v>1.64</v>
+      </c>
+      <c r="BM296">
+        <v>2.98</v>
+      </c>
+      <c r="BN296">
+        <v>1.32</v>
+      </c>
+      <c r="BO296">
+        <v>4.1</v>
+      </c>
+      <c r="BP296">
+        <v>1.17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="404">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1224,6 +1224,9 @@
   <si>
     <t>['62', '90+3']</t>
   </si>
+  <si>
+    <t>['21']</t>
+  </si>
 </sst>
 </file>
 
@@ -1584,7 +1587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP296"/>
+  <dimension ref="A1:BP297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2748,7 +2751,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ6">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -3363,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ9">
         <v>0.65</v>
@@ -6250,7 +6253,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ23">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR23">
         <v>1.73</v>
@@ -7689,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ30">
         <v>0.25</v>
@@ -9752,7 +9755,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ40">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR40">
         <v>2.09</v>
@@ -10573,7 +10576,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ44">
         <v>1.81</v>
@@ -15105,7 +15108,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ66">
         <v>1.06</v>
@@ -15314,7 +15317,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ67">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR67">
         <v>1.03</v>
@@ -19228,7 +19231,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ86">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR86">
         <v>1.8</v>
@@ -20461,7 +20464,7 @@
         <v>0.25</v>
       </c>
       <c r="AP92">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ92">
         <v>0.8100000000000001</v>
@@ -24378,7 +24381,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ111">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR111">
         <v>1.68</v>
@@ -26023,7 +26026,7 @@
         <v>1.33</v>
       </c>
       <c r="AP119">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ119">
         <v>1.06</v>
@@ -28704,7 +28707,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ132">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR132">
         <v>2.15</v>
@@ -29113,7 +29116,7 @@
         <v>0.43</v>
       </c>
       <c r="AP134">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ134">
         <v>0.76</v>
@@ -31585,7 +31588,7 @@
         <v>1.25</v>
       </c>
       <c r="AP146">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ146">
         <v>1.24</v>
@@ -31794,7 +31797,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ147">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR147">
         <v>1.68</v>
@@ -35087,7 +35090,7 @@
         <v>1.63</v>
       </c>
       <c r="AP163">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ163">
         <v>1.53</v>
@@ -35296,7 +35299,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ164">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR164">
         <v>1.63</v>
@@ -37765,7 +37768,7 @@
         <v>1.3</v>
       </c>
       <c r="AP176">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ176">
         <v>1.41</v>
@@ -39004,7 +39007,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ182">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR182">
         <v>1.63</v>
@@ -41473,7 +41476,7 @@
         <v>1.09</v>
       </c>
       <c r="AP194">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ194">
         <v>1.31</v>
@@ -43742,7 +43745,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ205">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR205">
         <v>1.71</v>
@@ -44978,7 +44981,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ211">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR211">
         <v>1.51</v>
@@ -45593,7 +45596,7 @@
         <v>1.45</v>
       </c>
       <c r="AP214">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ214">
         <v>1.71</v>
@@ -49304,7 +49307,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ232">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR232">
         <v>1.45</v>
@@ -49507,7 +49510,7 @@
         <v>0.67</v>
       </c>
       <c r="AP233">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ233">
         <v>0.5600000000000001</v>
@@ -51155,7 +51158,7 @@
         <v>0.85</v>
       </c>
       <c r="AP241">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ241">
         <v>0.9399999999999999</v>
@@ -52600,7 +52603,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ248">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR248">
         <v>1.28</v>
@@ -55072,7 +55075,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ260">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR260">
         <v>1.2</v>
@@ -56511,7 +56514,7 @@
         <v>1</v>
       </c>
       <c r="AP267">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ267">
         <v>1</v>
@@ -57750,7 +57753,7 @@
         <v>1</v>
       </c>
       <c r="AQ273">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AR273">
         <v>1.64</v>
@@ -60631,7 +60634,7 @@
         <v>1.2</v>
       </c>
       <c r="AP287">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="AQ287">
         <v>1.31</v>
@@ -61676,22 +61679,22 @@
         <v>2.65</v>
       </c>
       <c r="AU292">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV292">
         <v>3</v>
       </c>
       <c r="AW292">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="AX292">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY292">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="AZ292">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA292">
         <v>7</v>
@@ -62297,28 +62300,28 @@
         <v>2</v>
       </c>
       <c r="AV295">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW295">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX295">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY295">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ295">
+        <v>10</v>
+      </c>
+      <c r="BA295">
         <v>4</v>
       </c>
-      <c r="BA295">
-        <v>2</v>
-      </c>
       <c r="BB295">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BC295">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BD295">
         <v>2.42</v>
@@ -62503,28 +62506,28 @@
         <v>0</v>
       </c>
       <c r="AV296">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW296">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AX296">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AY296">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AZ296">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="BA296">
         <v>2</v>
       </c>
       <c r="BB296">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC296">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD296">
         <v>3.48</v>
@@ -62564,6 +62567,212 @@
       </c>
       <c r="BP296">
         <v>1.17</v>
+      </c>
+    </row>
+    <row r="297" spans="1:68">
+      <c r="A297" s="1">
+        <v>296</v>
+      </c>
+      <c r="B297">
+        <v>6469357</v>
+      </c>
+      <c r="C297" t="s">
+        <v>68</v>
+      </c>
+      <c r="D297" t="s">
+        <v>69</v>
+      </c>
+      <c r="E297" s="2">
+        <v>45431.52083333334</v>
+      </c>
+      <c r="F297">
+        <v>33</v>
+      </c>
+      <c r="G297" t="s">
+        <v>77</v>
+      </c>
+      <c r="H297" t="s">
+        <v>82</v>
+      </c>
+      <c r="I297">
+        <v>1</v>
+      </c>
+      <c r="J297">
+        <v>1</v>
+      </c>
+      <c r="K297">
+        <v>2</v>
+      </c>
+      <c r="L297">
+        <v>1</v>
+      </c>
+      <c r="M297">
+        <v>1</v>
+      </c>
+      <c r="N297">
+        <v>2</v>
+      </c>
+      <c r="O297" t="s">
+        <v>92</v>
+      </c>
+      <c r="P297" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q297">
+        <v>3.85</v>
+      </c>
+      <c r="R297">
+        <v>2.1</v>
+      </c>
+      <c r="S297">
+        <v>2.62</v>
+      </c>
+      <c r="T297">
+        <v>1.38</v>
+      </c>
+      <c r="U297">
+        <v>2.8</v>
+      </c>
+      <c r="V297">
+        <v>2.75</v>
+      </c>
+      <c r="W297">
+        <v>1.4</v>
+      </c>
+      <c r="X297">
+        <v>6.5</v>
+      </c>
+      <c r="Y297">
+        <v>1.08</v>
+      </c>
+      <c r="Z297">
+        <v>3.45</v>
+      </c>
+      <c r="AA297">
+        <v>3.4</v>
+      </c>
+      <c r="AB297">
+        <v>2.05</v>
+      </c>
+      <c r="AC297">
+        <v>1.05</v>
+      </c>
+      <c r="AD297">
+        <v>9</v>
+      </c>
+      <c r="AE297">
+        <v>1.3</v>
+      </c>
+      <c r="AF297">
+        <v>3.45</v>
+      </c>
+      <c r="AG297">
+        <v>1.88</v>
+      </c>
+      <c r="AH297">
+        <v>1.88</v>
+      </c>
+      <c r="AI297">
+        <v>1.7</v>
+      </c>
+      <c r="AJ297">
+        <v>2.05</v>
+      </c>
+      <c r="AK297">
+        <v>1.7</v>
+      </c>
+      <c r="AL297">
+        <v>1.25</v>
+      </c>
+      <c r="AM297">
+        <v>1.3</v>
+      </c>
+      <c r="AN297">
+        <v>1.69</v>
+      </c>
+      <c r="AO297">
+        <v>1.31</v>
+      </c>
+      <c r="AP297">
+        <v>1.65</v>
+      </c>
+      <c r="AQ297">
+        <v>1.29</v>
+      </c>
+      <c r="AR297">
+        <v>1.59</v>
+      </c>
+      <c r="AS297">
+        <v>1.32</v>
+      </c>
+      <c r="AT297">
+        <v>2.91</v>
+      </c>
+      <c r="AU297">
+        <v>11</v>
+      </c>
+      <c r="AV297">
+        <v>5</v>
+      </c>
+      <c r="AW297">
+        <v>12</v>
+      </c>
+      <c r="AX297">
+        <v>9</v>
+      </c>
+      <c r="AY297">
+        <v>23</v>
+      </c>
+      <c r="AZ297">
+        <v>14</v>
+      </c>
+      <c r="BA297">
+        <v>9</v>
+      </c>
+      <c r="BB297">
+        <v>4</v>
+      </c>
+      <c r="BC297">
+        <v>13</v>
+      </c>
+      <c r="BD297">
+        <v>2.1</v>
+      </c>
+      <c r="BE297">
+        <v>8</v>
+      </c>
+      <c r="BF297">
+        <v>1.91</v>
+      </c>
+      <c r="BG297">
+        <v>1.17</v>
+      </c>
+      <c r="BH297">
+        <v>4.2</v>
+      </c>
+      <c r="BI297">
+        <v>1.34</v>
+      </c>
+      <c r="BJ297">
+        <v>2.88</v>
+      </c>
+      <c r="BK297">
+        <v>1.67</v>
+      </c>
+      <c r="BL297">
+        <v>2.18</v>
+      </c>
+      <c r="BM297">
+        <v>2.06</v>
+      </c>
+      <c r="BN297">
+        <v>1.75</v>
+      </c>
+      <c r="BO297">
+        <v>2.64</v>
+      </c>
+      <c r="BP297">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -62297,22 +62297,22 @@
         <v>3.42</v>
       </c>
       <c r="AU295">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV295">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW295">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX295">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AY295">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AZ295">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="BA295">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1844" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1850" uniqueCount="405">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -874,6 +874,9 @@
     <t>['37', '55']</t>
   </si>
   <si>
+    <t>['7', '58']</t>
+  </si>
+  <si>
     <t>['54', '61']</t>
   </si>
   <si>
@@ -1587,7 +1590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP297"/>
+  <dimension ref="A1:BP298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2133,7 +2136,7 @@
         <v>1.69</v>
       </c>
       <c r="AQ3">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2258,7 +2261,7 @@
         <v>90</v>
       </c>
       <c r="P4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q4">
         <v>3.6</v>
@@ -2670,7 +2673,7 @@
         <v>92</v>
       </c>
       <c r="P6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q6">
         <v>4</v>
@@ -2876,7 +2879,7 @@
         <v>88</v>
       </c>
       <c r="P7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -3160,7 +3163,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ8">
         <v>0.76</v>
@@ -3288,7 +3291,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3494,7 +3497,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q10">
         <v>3.2</v>
@@ -3781,7 +3784,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4112,7 +4115,7 @@
         <v>98</v>
       </c>
       <c r="P13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q13">
         <v>2.53</v>
@@ -4318,7 +4321,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q14">
         <v>2.95</v>
@@ -5554,7 +5557,7 @@
         <v>104</v>
       </c>
       <c r="P20" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q20">
         <v>1.82</v>
@@ -6172,7 +6175,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q23">
         <v>4</v>
@@ -6250,7 +6253,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ23">
         <v>1.29</v>
@@ -6996,7 +6999,7 @@
         <v>109</v>
       </c>
       <c r="P27" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q27">
         <v>4.2</v>
@@ -7408,7 +7411,7 @@
         <v>88</v>
       </c>
       <c r="P29" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q29">
         <v>2.95</v>
@@ -7695,7 +7698,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ30">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AR30">
         <v>1.68</v>
@@ -7820,7 +7823,7 @@
         <v>88</v>
       </c>
       <c r="P31" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q31">
         <v>2.3</v>
@@ -8026,7 +8029,7 @@
         <v>112</v>
       </c>
       <c r="P32" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -8232,7 +8235,7 @@
         <v>113</v>
       </c>
       <c r="P33" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q33">
         <v>2.6</v>
@@ -8516,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ34">
         <v>0.65</v>
@@ -8644,7 +8647,7 @@
         <v>99</v>
       </c>
       <c r="P35" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q35">
         <v>2.8</v>
@@ -8850,7 +8853,7 @@
         <v>115</v>
       </c>
       <c r="P36" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q36">
         <v>2.6</v>
@@ -10498,7 +10501,7 @@
         <v>88</v>
       </c>
       <c r="P44" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q44">
         <v>2.7</v>
@@ -10910,7 +10913,7 @@
         <v>121</v>
       </c>
       <c r="P46" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q46">
         <v>3.1</v>
@@ -10991,7 +10994,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ46">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AR46">
         <v>0.99</v>
@@ -11528,7 +11531,7 @@
         <v>123</v>
       </c>
       <c r="P49" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -11734,7 +11737,7 @@
         <v>88</v>
       </c>
       <c r="P50" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q50">
         <v>2.15</v>
@@ -11940,7 +11943,7 @@
         <v>88</v>
       </c>
       <c r="P51" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -13254,7 +13257,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ57">
         <v>1.53</v>
@@ -13794,7 +13797,7 @@
         <v>131</v>
       </c>
       <c r="P60" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -14493,7 +14496,7 @@
         <v>2.19</v>
       </c>
       <c r="AQ63">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AR63">
         <v>1.69</v>
@@ -14824,7 +14827,7 @@
         <v>136</v>
       </c>
       <c r="P65" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q65">
         <v>3.2</v>
@@ -15236,7 +15239,7 @@
         <v>88</v>
       </c>
       <c r="P67" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q67">
         <v>4.75</v>
@@ -15442,7 +15445,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q68">
         <v>3.5</v>
@@ -15648,7 +15651,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -15854,7 +15857,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -16472,7 +16475,7 @@
         <v>141</v>
       </c>
       <c r="P73" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q73">
         <v>2.9</v>
@@ -16678,7 +16681,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q74">
         <v>1.75</v>
@@ -16962,7 +16965,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ75">
         <v>1.06</v>
@@ -17090,7 +17093,7 @@
         <v>144</v>
       </c>
       <c r="P76" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -17296,7 +17299,7 @@
         <v>145</v>
       </c>
       <c r="P77" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q77">
         <v>2.04</v>
@@ -17502,7 +17505,7 @@
         <v>146</v>
       </c>
       <c r="P78" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q78">
         <v>3.05</v>
@@ -17914,7 +17917,7 @@
         <v>148</v>
       </c>
       <c r="P80" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -18120,7 +18123,7 @@
         <v>149</v>
       </c>
       <c r="P81" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q81">
         <v>2.2</v>
@@ -18326,7 +18329,7 @@
         <v>88</v>
       </c>
       <c r="P82" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q82">
         <v>3.3</v>
@@ -18532,7 +18535,7 @@
         <v>150</v>
       </c>
       <c r="P83" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q83">
         <v>3.1</v>
@@ -19562,7 +19565,7 @@
         <v>88</v>
       </c>
       <c r="P88" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q88">
         <v>3.2</v>
@@ -20261,7 +20264,7 @@
         <v>1.06</v>
       </c>
       <c r="AQ91">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AR91">
         <v>1.77</v>
@@ -20670,7 +20673,7 @@
         <v>0.8</v>
       </c>
       <c r="AP93">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ93">
         <v>0.9399999999999999</v>
@@ -20798,7 +20801,7 @@
         <v>88</v>
       </c>
       <c r="P94" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q94">
         <v>3.75</v>
@@ -21210,7 +21213,7 @@
         <v>159</v>
       </c>
       <c r="P96" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q96">
         <v>3</v>
@@ -21416,7 +21419,7 @@
         <v>160</v>
       </c>
       <c r="P97" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -22034,7 +22037,7 @@
         <v>105</v>
       </c>
       <c r="P100" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q100">
         <v>4.33</v>
@@ -22446,7 +22449,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q102">
         <v>1.73</v>
@@ -22527,7 +22530,7 @@
         <v>1.94</v>
       </c>
       <c r="AQ102">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AR102">
         <v>1.79</v>
@@ -23270,7 +23273,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q106">
         <v>1.7</v>
@@ -23476,7 +23479,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q107">
         <v>2.45</v>
@@ -23682,7 +23685,7 @@
         <v>88</v>
       </c>
       <c r="P108" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q108">
         <v>3.2</v>
@@ -23888,7 +23891,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q109">
         <v>4</v>
@@ -24094,7 +24097,7 @@
         <v>169</v>
       </c>
       <c r="P110" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q110">
         <v>2.45</v>
@@ -24506,7 +24509,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q112">
         <v>3.3</v>
@@ -24712,7 +24715,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q113">
         <v>2.9</v>
@@ -24790,7 +24793,7 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ113">
         <v>1.24</v>
@@ -24918,7 +24921,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q114">
         <v>1.85</v>
@@ -25742,7 +25745,7 @@
         <v>88</v>
       </c>
       <c r="P118" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q118">
         <v>4.33</v>
@@ -26441,7 +26444,7 @@
         <v>1.82</v>
       </c>
       <c r="AQ121">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AR121">
         <v>1.67</v>
@@ -27184,7 +27187,7 @@
         <v>88</v>
       </c>
       <c r="P125" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q125">
         <v>2.5</v>
@@ -27390,7 +27393,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q126">
         <v>2.9</v>
@@ -27596,7 +27599,7 @@
         <v>180</v>
       </c>
       <c r="P127" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27802,7 +27805,7 @@
         <v>181</v>
       </c>
       <c r="P128" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q128">
         <v>2.65</v>
@@ -27880,7 +27883,7 @@
         <v>0.43</v>
       </c>
       <c r="AP128">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ128">
         <v>0.9399999999999999</v>
@@ -28008,7 +28011,7 @@
         <v>182</v>
       </c>
       <c r="P129" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q129">
         <v>3.3</v>
@@ -29038,7 +29041,7 @@
         <v>185</v>
       </c>
       <c r="P134" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q134">
         <v>2.63</v>
@@ -29244,7 +29247,7 @@
         <v>88</v>
       </c>
       <c r="P135" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q135">
         <v>3.6</v>
@@ -29656,7 +29659,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q137">
         <v>2.1</v>
@@ -29862,7 +29865,7 @@
         <v>187</v>
       </c>
       <c r="P138" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q138">
         <v>1.83</v>
@@ -30068,7 +30071,7 @@
         <v>188</v>
       </c>
       <c r="P139" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q139">
         <v>2.1</v>
@@ -30686,7 +30689,7 @@
         <v>186</v>
       </c>
       <c r="P142" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q142">
         <v>2.05</v>
@@ -30892,7 +30895,7 @@
         <v>88</v>
       </c>
       <c r="P143" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -31098,7 +31101,7 @@
         <v>158</v>
       </c>
       <c r="P144" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q144">
         <v>3.57</v>
@@ -31510,7 +31513,7 @@
         <v>88</v>
       </c>
       <c r="P146" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q146">
         <v>2.88</v>
@@ -31922,7 +31925,7 @@
         <v>192</v>
       </c>
       <c r="P148" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q148">
         <v>2.3</v>
@@ -32128,7 +32131,7 @@
         <v>88</v>
       </c>
       <c r="P149" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q149">
         <v>3.5</v>
@@ -32206,7 +32209,7 @@
         <v>1.33</v>
       </c>
       <c r="AP149">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ149">
         <v>1.71</v>
@@ -32540,7 +32543,7 @@
         <v>193</v>
       </c>
       <c r="P151" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q151">
         <v>3.3</v>
@@ -32746,7 +32749,7 @@
         <v>194</v>
       </c>
       <c r="P152" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q152">
         <v>2.05</v>
@@ -32952,7 +32955,7 @@
         <v>119</v>
       </c>
       <c r="P153" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q153">
         <v>2.65</v>
@@ -33158,7 +33161,7 @@
         <v>195</v>
       </c>
       <c r="P154" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q154">
         <v>2.35</v>
@@ -33982,7 +33985,7 @@
         <v>196</v>
       </c>
       <c r="P158" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q158">
         <v>3.25</v>
@@ -34600,7 +34603,7 @@
         <v>198</v>
       </c>
       <c r="P161" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q161">
         <v>2.91</v>
@@ -34678,7 +34681,7 @@
         <v>2.22</v>
       </c>
       <c r="AP161">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ161">
         <v>1.81</v>
@@ -34806,7 +34809,7 @@
         <v>199</v>
       </c>
       <c r="P162" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q162">
         <v>4.28</v>
@@ -35012,7 +35015,7 @@
         <v>92</v>
       </c>
       <c r="P163" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q163">
         <v>3.75</v>
@@ -35218,7 +35221,7 @@
         <v>200</v>
       </c>
       <c r="P164" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q164">
         <v>3.97</v>
@@ -36454,7 +36457,7 @@
         <v>205</v>
       </c>
       <c r="P170" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q170">
         <v>2.65</v>
@@ -37072,7 +37075,7 @@
         <v>95</v>
       </c>
       <c r="P173" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q173">
         <v>2.5</v>
@@ -37690,7 +37693,7 @@
         <v>209</v>
       </c>
       <c r="P176" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q176">
         <v>3.4</v>
@@ -37896,7 +37899,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q177">
         <v>4</v>
@@ -38102,7 +38105,7 @@
         <v>210</v>
       </c>
       <c r="P178" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q178">
         <v>2.4</v>
@@ -38183,7 +38186,7 @@
         <v>1.53</v>
       </c>
       <c r="AQ178">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AR178">
         <v>1.61</v>
@@ -38308,7 +38311,7 @@
         <v>88</v>
       </c>
       <c r="P179" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q179">
         <v>3.98</v>
@@ -38926,7 +38929,7 @@
         <v>179</v>
       </c>
       <c r="P182" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q182">
         <v>3</v>
@@ -39416,7 +39419,7 @@
         <v>1.11</v>
       </c>
       <c r="AP184">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ184">
         <v>1.06</v>
@@ -39544,7 +39547,7 @@
         <v>213</v>
       </c>
       <c r="P185" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q185">
         <v>1.8</v>
@@ -39750,7 +39753,7 @@
         <v>88</v>
       </c>
       <c r="P186" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q186">
         <v>3.7</v>
@@ -39956,7 +39959,7 @@
         <v>214</v>
       </c>
       <c r="P187" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q187">
         <v>2.65</v>
@@ -40368,7 +40371,7 @@
         <v>215</v>
       </c>
       <c r="P189" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q189">
         <v>1.78</v>
@@ -40449,7 +40452,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ189">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AR189">
         <v>1.94</v>
@@ -41192,7 +41195,7 @@
         <v>216</v>
       </c>
       <c r="P193" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q193">
         <v>3.75</v>
@@ -41604,7 +41607,7 @@
         <v>218</v>
       </c>
       <c r="P195" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q195">
         <v>4</v>
@@ -42097,7 +42100,7 @@
         <v>1.76</v>
       </c>
       <c r="AQ197">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AR197">
         <v>1.5</v>
@@ -42222,7 +42225,7 @@
         <v>88</v>
       </c>
       <c r="P198" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q198">
         <v>2.5</v>
@@ -43252,7 +43255,7 @@
         <v>223</v>
       </c>
       <c r="P203" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q203">
         <v>3.2</v>
@@ -43536,7 +43539,7 @@
         <v>0.73</v>
       </c>
       <c r="AP204">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ204">
         <v>0.5600000000000001</v>
@@ -44076,7 +44079,7 @@
         <v>227</v>
       </c>
       <c r="P207" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q207">
         <v>2.6</v>
@@ -44488,7 +44491,7 @@
         <v>229</v>
       </c>
       <c r="P209" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q209">
         <v>3.1</v>
@@ -45106,7 +45109,7 @@
         <v>231</v>
       </c>
       <c r="P212" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q212">
         <v>2.7</v>
@@ -45312,7 +45315,7 @@
         <v>88</v>
       </c>
       <c r="P213" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q213">
         <v>2.25</v>
@@ -45805,7 +45808,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ215">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AR215">
         <v>1.08</v>
@@ -46136,7 +46139,7 @@
         <v>88</v>
       </c>
       <c r="P217" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q217">
         <v>4.2</v>
@@ -46420,7 +46423,7 @@
         <v>0.92</v>
       </c>
       <c r="AP218">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ218">
         <v>0.8100000000000001</v>
@@ -46754,7 +46757,7 @@
         <v>234</v>
       </c>
       <c r="P220" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q220">
         <v>2.59</v>
@@ -46960,7 +46963,7 @@
         <v>88</v>
       </c>
       <c r="P221" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q221">
         <v>3.1</v>
@@ -47166,7 +47169,7 @@
         <v>213</v>
       </c>
       <c r="P222" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q222">
         <v>3.46</v>
@@ -47578,7 +47581,7 @@
         <v>235</v>
       </c>
       <c r="P224" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q224">
         <v>3.6</v>
@@ -47990,7 +47993,7 @@
         <v>237</v>
       </c>
       <c r="P226" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q226">
         <v>2.35</v>
@@ -48196,7 +48199,7 @@
         <v>238</v>
       </c>
       <c r="P227" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q227">
         <v>1.85</v>
@@ -48483,7 +48486,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ228">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AR228">
         <v>1.73</v>
@@ -48608,7 +48611,7 @@
         <v>240</v>
       </c>
       <c r="P229" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q229">
         <v>2.8</v>
@@ -49638,7 +49641,7 @@
         <v>244</v>
       </c>
       <c r="P234" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q234">
         <v>4.33</v>
@@ -49844,7 +49847,7 @@
         <v>112</v>
       </c>
       <c r="P235" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q235">
         <v>3.6</v>
@@ -50050,7 +50053,7 @@
         <v>245</v>
       </c>
       <c r="P236" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q236">
         <v>2</v>
@@ -50131,7 +50134,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ236">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AR236">
         <v>1.79</v>
@@ -51698,7 +51701,7 @@
         <v>251</v>
       </c>
       <c r="P244" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q244">
         <v>2.88</v>
@@ -51776,7 +51779,7 @@
         <v>1.15</v>
       </c>
       <c r="AP244">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ244">
         <v>1.31</v>
@@ -52934,7 +52937,7 @@
         <v>255</v>
       </c>
       <c r="P250" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q250">
         <v>3.9</v>
@@ -53140,7 +53143,7 @@
         <v>256</v>
       </c>
       <c r="P251" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q251">
         <v>2.3</v>
@@ -54170,7 +54173,7 @@
         <v>88</v>
       </c>
       <c r="P256" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q256">
         <v>2.46</v>
@@ -54376,7 +54379,7 @@
         <v>260</v>
       </c>
       <c r="P257" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q257">
         <v>3.05</v>
@@ -54582,7 +54585,7 @@
         <v>261</v>
       </c>
       <c r="P258" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q258">
         <v>3.56</v>
@@ -54660,7 +54663,7 @@
         <v>1.43</v>
       </c>
       <c r="AP258">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ258">
         <v>1.41</v>
@@ -54788,7 +54791,7 @@
         <v>88</v>
       </c>
       <c r="P259" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q259">
         <v>2.18</v>
@@ -54994,7 +54997,7 @@
         <v>262</v>
       </c>
       <c r="P260" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q260">
         <v>4.6</v>
@@ -55406,7 +55409,7 @@
         <v>263</v>
       </c>
       <c r="P262" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q262">
         <v>2.85</v>
@@ -55818,7 +55821,7 @@
         <v>265</v>
       </c>
       <c r="P264" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q264">
         <v>2.61</v>
@@ -56024,7 +56027,7 @@
         <v>266</v>
       </c>
       <c r="P265" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q265">
         <v>2.1</v>
@@ -56105,7 +56108,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ265">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AR265">
         <v>1.48</v>
@@ -56230,7 +56233,7 @@
         <v>267</v>
       </c>
       <c r="P266" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q266">
         <v>2.7</v>
@@ -56436,7 +56439,7 @@
         <v>88</v>
       </c>
       <c r="P267" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q267">
         <v>4.2</v>
@@ -56642,7 +56645,7 @@
         <v>268</v>
       </c>
       <c r="P268" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q268">
         <v>2.97</v>
@@ -56848,7 +56851,7 @@
         <v>269</v>
       </c>
       <c r="P269" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q269">
         <v>5.47</v>
@@ -57878,7 +57881,7 @@
         <v>272</v>
       </c>
       <c r="P274" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q274">
         <v>4.2</v>
@@ -58162,7 +58165,7 @@
         <v>1.13</v>
       </c>
       <c r="AP275">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AQ275">
         <v>1</v>
@@ -58290,7 +58293,7 @@
         <v>274</v>
       </c>
       <c r="P276" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q276">
         <v>4.76</v>
@@ -58908,7 +58911,7 @@
         <v>88</v>
       </c>
       <c r="P279" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q279">
         <v>2</v>
@@ -59401,7 +59404,7 @@
         <v>1.65</v>
       </c>
       <c r="AQ281">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="AR281">
         <v>1.51</v>
@@ -60144,7 +60147,7 @@
         <v>281</v>
       </c>
       <c r="P285" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q285">
         <v>2.4</v>
@@ -60556,7 +60559,7 @@
         <v>190</v>
       </c>
       <c r="P287" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q287">
         <v>2.8</v>
@@ -60762,7 +60765,7 @@
         <v>95</v>
       </c>
       <c r="P288" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q288">
         <v>3.1</v>
@@ -60968,7 +60971,7 @@
         <v>88</v>
       </c>
       <c r="P289" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q289">
         <v>2.6</v>
@@ -62616,7 +62619,7 @@
         <v>92</v>
       </c>
       <c r="P297" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q297">
         <v>3.85</v>
@@ -62773,6 +62776,212 @@
       </c>
       <c r="BP297">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:68">
+      <c r="A298" s="1">
+        <v>297</v>
+      </c>
+      <c r="B298">
+        <v>6469352</v>
+      </c>
+      <c r="C298" t="s">
+        <v>68</v>
+      </c>
+      <c r="D298" t="s">
+        <v>69</v>
+      </c>
+      <c r="E298" s="2">
+        <v>45432.58333333334</v>
+      </c>
+      <c r="F298">
+        <v>33</v>
+      </c>
+      <c r="G298" t="s">
+        <v>76</v>
+      </c>
+      <c r="H298" t="s">
+        <v>84</v>
+      </c>
+      <c r="I298">
+        <v>1</v>
+      </c>
+      <c r="J298">
+        <v>0</v>
+      </c>
+      <c r="K298">
+        <v>1</v>
+      </c>
+      <c r="L298">
+        <v>2</v>
+      </c>
+      <c r="M298">
+        <v>1</v>
+      </c>
+      <c r="N298">
+        <v>3</v>
+      </c>
+      <c r="O298" t="s">
+        <v>286</v>
+      </c>
+      <c r="P298" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q298">
+        <v>1.83</v>
+      </c>
+      <c r="R298">
+        <v>2.5</v>
+      </c>
+      <c r="S298">
+        <v>5.5</v>
+      </c>
+      <c r="T298">
+        <v>1.28</v>
+      </c>
+      <c r="U298">
+        <v>3.3</v>
+      </c>
+      <c r="V298">
+        <v>2.25</v>
+      </c>
+      <c r="W298">
+        <v>1.55</v>
+      </c>
+      <c r="X298">
+        <v>5</v>
+      </c>
+      <c r="Y298">
+        <v>1.13</v>
+      </c>
+      <c r="Z298">
+        <v>1.5</v>
+      </c>
+      <c r="AA298">
+        <v>4.33</v>
+      </c>
+      <c r="AB298">
+        <v>5.5</v>
+      </c>
+      <c r="AC298">
+        <v>1.02</v>
+      </c>
+      <c r="AD298">
+        <v>10</v>
+      </c>
+      <c r="AE298">
+        <v>1.14</v>
+      </c>
+      <c r="AF298">
+        <v>4.7</v>
+      </c>
+      <c r="AG298">
+        <v>1.55</v>
+      </c>
+      <c r="AH298">
+        <v>2.27</v>
+      </c>
+      <c r="AI298">
+        <v>1.6</v>
+      </c>
+      <c r="AJ298">
+        <v>2.2</v>
+      </c>
+      <c r="AK298">
+        <v>1.07</v>
+      </c>
+      <c r="AL298">
+        <v>1.2</v>
+      </c>
+      <c r="AM298">
+        <v>2.5</v>
+      </c>
+      <c r="AN298">
+        <v>1.44</v>
+      </c>
+      <c r="AO298">
+        <v>0.25</v>
+      </c>
+      <c r="AP298">
+        <v>1.53</v>
+      </c>
+      <c r="AQ298">
+        <v>0.24</v>
+      </c>
+      <c r="AR298">
+        <v>1.72</v>
+      </c>
+      <c r="AS298">
+        <v>1.2</v>
+      </c>
+      <c r="AT298">
+        <v>2.92</v>
+      </c>
+      <c r="AU298">
+        <v>9</v>
+      </c>
+      <c r="AV298">
+        <v>6</v>
+      </c>
+      <c r="AW298">
+        <v>8</v>
+      </c>
+      <c r="AX298">
+        <v>5</v>
+      </c>
+      <c r="AY298">
+        <v>17</v>
+      </c>
+      <c r="AZ298">
+        <v>11</v>
+      </c>
+      <c r="BA298">
+        <v>8</v>
+      </c>
+      <c r="BB298">
+        <v>0</v>
+      </c>
+      <c r="BC298">
+        <v>8</v>
+      </c>
+      <c r="BD298">
+        <v>1.32</v>
+      </c>
+      <c r="BE298">
+        <v>10.5</v>
+      </c>
+      <c r="BF298">
+        <v>4.12</v>
+      </c>
+      <c r="BG298">
+        <v>1.18</v>
+      </c>
+      <c r="BH298">
+        <v>4.33</v>
+      </c>
+      <c r="BI298">
+        <v>1.27</v>
+      </c>
+      <c r="BJ298">
+        <v>3.28</v>
+      </c>
+      <c r="BK298">
+        <v>1.49</v>
+      </c>
+      <c r="BL298">
+        <v>2.38</v>
+      </c>
+      <c r="BM298">
+        <v>1.85</v>
+      </c>
+      <c r="BN298">
+        <v>1.85</v>
+      </c>
+      <c r="BO298">
+        <v>2.32</v>
+      </c>
+      <c r="BP298">
+        <v>1.51</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Poland Ekstraklasa_20232024.xlsx
@@ -62918,22 +62918,22 @@
         <v>2.92</v>
       </c>
       <c r="AU298">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV298">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW298">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AX298">
         <v>5</v>
       </c>
       <c r="AY298">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AZ298">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA298">
         <v>8</v>
